--- a/Data/Textbausteine_LENA_Juni2021.xlsx
+++ b/Data/Textbausteine_LENA_Juni2021.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="569">
   <si>
     <t>Text_ID</t>
   </si>
@@ -843,7 +843,7 @@
     <t>Nein zur elektronischen Identität in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten das CO2-Gesetz abgelehnt.</t>
   </si>
   <si>
-    <t>La loi Covid-19 est rejeté à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le texte.</t>
+    <t>La loi Covid-19 est rejetée à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le texte.</t>
   </si>
   <si>
     <t xml:space="preserve">Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto la legge Covid-19. </t>
@@ -852,7 +852,7 @@
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei der Abstimmung über das CO2-Gesetz ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la loi Covid-19 et #JaStimmenAbsolut à le refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la loi Covid-19 et #JaStimmenAbsolut à la refuser.</t>
   </si>
   <si>
     <t xml:space="preserve">Pareggio perfetto a #Gemeinde_i! Sono stati #JaStimmenAbsolut a votare a favore della legge Covid-19, lo stesso identico numero dei contrari. </t>
@@ -879,7 +879,7 @@
     <t>Mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent hat #Gemeinde_d bei dieser Vorlage schweizweit den höchsten Ja-Anteil erreicht.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, la loi Covid-19 est approuvé plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, la loi Covid-19 est approuvée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t xml:space="preserve">In nessun altra parte della Svizzera le legge Covid-19 è stata approvata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "sì" con il #JaStimmenInProzent percento dei voti. </t>
@@ -906,7 +906,7 @@
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen das  CO2-Gesetz ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, la loi Covid-19 n'est rejeté plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, la loi Covid-19 n'est rejetée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t xml:space="preserve">In nessun altra parte della Svizzera le legge Covid-19 è stata bocciata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "no" con il #NeinStimmenInProzent percento dei voti. </t>
@@ -1002,7 +1002,7 @@
     <t xml:space="preserve">Nel comune di #Gemeinde_i la legge sul CO2 è stata accetata con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut. </t>
   </si>
   <si>
-    <t>La loi CO2 est accepté à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à dire oui, contre #NeinStimmenAbsolut à s'y opposer.</t>
+    <t>La loi CO2 est acceptée à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à dire oui, contre #NeinStimmenAbsolut à s'y opposer.</t>
   </si>
   <si>
     <t xml:space="preserve">Con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut, i cittadini di #Gemeinde_i hanno appprovato la legge sul CO2. </t>
@@ -1056,13 +1056,13 @@
     <t xml:space="preserve">Nel comune di #Gemeinde_i la legge sul CO2 è stata bocciata con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut. </t>
   </si>
   <si>
-    <t>La loi CO2 est rejeté à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le texte.</t>
+    <t>La loi CO2 est rejetée à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le texte.</t>
   </si>
   <si>
     <t xml:space="preserve">Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto la legge sul CO2. </t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la loi CO2 et #JaStimmenAbsolut à le refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la loi CO2 et #JaStimmenAbsolut à la refuser.</t>
   </si>
   <si>
     <t xml:space="preserve">Pareggio perfetto a #Gemeinde_i! Sono stati #JaStimmenAbsolut a votare a favore della legge sul CO2, lo stesso identico numero dei contrari. </t>
@@ -1080,7 +1080,7 @@
     <t xml:space="preserve">Ua bocciatura più chiara è difficile da trovare: a #Gemeinde_i tutti e #NeinStimmenAbsolut i votanti hanno respinto la legge sul CO2. </t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, la loi CO2 est approuvé plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, la loi CO2 est approuvée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t xml:space="preserve">In nessun altra parte della Svizzera le legge sul CO2 è stata approvata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "sì" con il #JaStimmenInProzent percento dei voti. </t>
@@ -1098,7 +1098,7 @@
     <t xml:space="preserve">#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla legge sul CO2. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti. </t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, la loi CO2 n'est rejeté plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, la loi CO2 n'est rejetée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t xml:space="preserve">In nessun altra parte della Svizzera le legge sul CO2 è stata bocciata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "no" con il #NeinStimmenInProzent percento dei voti. </t>
@@ -1269,7 +1269,7 @@
     <t>Nein zur elektronischen Identität in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten das Anti-Terror-Gesetz abgelehnt.</t>
   </si>
   <si>
-    <t>La loi sur les mesures policières de lutte contre le terrorisme est rejeté à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le texte.</t>
+    <t>La loi sur les mesures policières de lutte contre le terrorisme est rejetée à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le texte.</t>
   </si>
   <si>
     <t xml:space="preserve">Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto la legge sulle misure di lotta al terrorismo. </t>
@@ -1278,7 +1278,7 @@
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei der Abstimmung über das Anti-Terror-Gesetz ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la loi sur les mesures policières de lutte contre le terrorisme et #JaStimmenAbsolut à le refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la loi sur les mesures policières de lutte contre le terrorisme et #JaStimmenAbsolut à la refuser.</t>
   </si>
   <si>
     <t xml:space="preserve">Pareggio perfetto a #Gemeinde_i! Sono stati #JaStimmenAbsolut a votare a favore della legge sulle misure di lotta al terrorismo, lo stesso identico numero dei contrari. </t>
@@ -1302,7 +1302,7 @@
     <t xml:space="preserve">Ua bocciatura più chiara è difficile da trovare: a #Gemeinde_i tutti e #NeinStimmenAbsolut i votanti hanno respinto la legge sulle misure di lotta al terrorismo. </t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, la loi sur les mesures policières de lutte contre le terrorisme est approuvé plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, la loi sur les mesures policières de lutte contre le terrorisme est approuvée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t xml:space="preserve">In nessun altra parte della Svizzera le legge sulle misure di lotta al terrorismo è stata approvata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "sì" con il #JaStimmenInProzent percento dei voti. </t>
@@ -1329,7 +1329,7 @@
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen das  Anti-Terror-Gesetz ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
-    <t>Nulle part ailleurs en Suisse, la loi sur les mesures policières de lutte contre le terrorisme n'est rejeté plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pour cent.</t>
+    <t>Nulle part ailleurs en Suisse, la loi sur les mesures policières de lutte contre le terrorisme n'est rejetée plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
     <t xml:space="preserve">In nessun altra parte della Svizzera le legge sulle misure di lotta al terrorismo è stata bocciata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "no" con il #NeinStimmenInProzent percento dei voti. </t>
@@ -1431,13 +1431,13 @@
     <t>C'est à #Gemeinde_f que le refus le plus net de cet objet a été enregistré.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch angenommen hat.</t>
   </si>
   <si>
     <t>#Gemeinde_f a approuvé le texte, tout comme le canton.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage angenommen hat.</t>
   </si>
   <si>
     <t>#Gemeinde_f a rejeté le texte, contrairement au canton.</t>
@@ -1458,12 +1458,18 @@
     <t>Intro_Ja_Fribourg</t>
   </si>
   <si>
+    <t>Der Kanton Freiburg hat der Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY zugestimmt.</t>
+  </si>
+  <si>
     <t>Fribourg sagt Ja</t>
   </si>
   <si>
     <t>Intro_Nein_Fribourg</t>
   </si>
   <si>
+    <t>Der Kanton Freiburg hat die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY abgelehnt.</t>
+  </si>
+  <si>
     <t>Fribourg sagt Nein</t>
   </si>
   <si>
@@ -1500,6 +1506,12 @@
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Lichtverschmutzungsinitiative abgelehnt.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Schaffhausen, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton Schaffhausen, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat das neue Wahlsystem für den Grossen Rat mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
@@ -1533,6 +1545,15 @@
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden das neue Wahlsystem für den Grossen Rat abgelehnt.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat die kantonale Volksinitiative "Für eine naturverträgliche und ethische Jagd" mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
@@ -1566,16 +1587,16 @@
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die kantonale Volksinitiative "Für eine naturverträgliche und ethische Jagd" abgelehnt.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent le déclassement de la zone agricole de la Goutte de Saint-Mathieu, à Bernex,  avec #JaStimmenInProzent pour cent de oui.</t>
-  </si>
-  <si>
-    <t>Les habitants de #Gemeinde_f approuvent le déclassement de la zone agricole de la Goutte de Saint-Mathieu, à Bernex,  avec #JaStimmenInProzent pour cent de oui.</t>
+    <t>Les habitants de #Gemeinde_f acceptent le déclassement de la zone agricole de la Goutte de Saint-Mathieu, à Bernex, avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f approuvent le déclassement de la zone agricole de la Goutte de Saint-Mathieu, à Bernex, avec #JaStimmenInProzent pour cent de oui.</t>
   </si>
   <si>
     <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent au déclassement de la zone agricole de la Goutte de Saint-Mathieu, à Bernex.</t>
   </si>
   <si>
-    <t>le déclassement de la zone agricole de la Goutte de Saint-Mathieu à Bernex passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte.</t>
+    <t>Le déclassement de la zone agricole de la Goutte de Saint-Mathieu à Bernex passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f rejettent le déclassement de la zone agricole de la Goutte de Saint-Mathieu, à Bernex, avec #NeinStimmenInProzent pour cent de non.</t>
@@ -1590,7 +1611,7 @@
     <t>Le déclassement de la zone agricole de la Goutte de Saint-Mathieu à Bernex ne passe pas la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à refuser le texte.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver le déclassement de la zone agricole de la Goutte de Saint-Mathieu à Bernex et #JaStimmenAbsolut à la refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver le déclassement de la zone agricole de la Goutte de Saint-Mathieu à Bernex et #JaStimmenAbsolut à le refuser.</t>
   </si>
   <si>
     <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous le déclassement de la zone agricole de la Goutte de Saint-Mathieu à Bernex.</t>
@@ -1822,7 +1843,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1879,6 +1900,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -5666,8 +5690,8 @@
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>514</v>
+      <c r="C2" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -5678,8 +5702,8 @@
         <v>5</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>515</v>
+      <c r="C3" s="19" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="4">
@@ -5688,16 +5712,16 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="5" t="s">
-        <v>517</v>
+      <c r="B5" s="23"/>
+      <c r="C5" s="19" t="s">
+        <v>524</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -5709,7 +5733,7 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -5721,7 +5745,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8">
@@ -5730,16 +5754,16 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -5749,9 +5773,9 @@
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="5" t="s">
-        <v>522</v>
+      <c r="B10" s="24"/>
+      <c r="C10" s="19" t="s">
+        <v>529</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -5763,7 +5787,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -5775,7 +5799,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -5834,7 +5858,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>474</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -5854,19 +5878,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>525</v>
+      <c r="A19" s="22" t="s">
+        <v>532</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>527</v>
+      <c r="A20" s="22" t="s">
+        <v>534</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -5919,7 +5943,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -5931,7 +5955,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4">
@@ -5940,16 +5964,16 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="5" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -5961,7 +5985,7 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -5973,7 +5997,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8">
@@ -5982,16 +6006,16 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="5" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -6001,9 +6025,9 @@
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="5" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -6015,7 +6039,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -6027,7 +6051,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -6086,7 +6110,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>474</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -6098,7 +6122,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="25" t="s">
         <v>476</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -6129,3069 +6153,3069 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>541</v>
+      <c r="A1" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>543</v>
+        <v>549</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>545</v>
+        <v>551</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>547</v>
+        <v>553</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>549</v>
+        <v>555</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="B6" s="27">
+        <v>557</v>
+      </c>
+      <c r="B6" s="28">
         <v>60.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B7" s="27">
+        <v>558</v>
+      </c>
+      <c r="B7" s="28">
         <v>39.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>553</v>
+        <v>559</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>555</v>
+        <v>561</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="B10" s="27">
+        <v>563</v>
+      </c>
+      <c r="B10" s="28">
         <v>60.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B11" s="27">
+        <v>564</v>
+      </c>
+      <c r="B11" s="28">
         <v>39.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>553</v>
+        <v>565</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>555</v>
+        <v>566</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>561</v>
+        <v>567</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="28"/>
+      <c r="B15" s="29"/>
     </row>
     <row r="16">
-      <c r="A16" s="29"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="29"/>
     </row>
     <row r="17">
-      <c r="B17" s="27"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="B18" s="27"/>
+      <c r="B18" s="28"/>
     </row>
     <row r="19">
-      <c r="B19" s="27"/>
+      <c r="B19" s="28"/>
     </row>
     <row r="20">
-      <c r="B20" s="27"/>
+      <c r="B20" s="28"/>
     </row>
     <row r="21">
-      <c r="B21" s="27"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22">
-      <c r="B22" s="27"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23">
-      <c r="B23" s="27"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24">
-      <c r="B24" s="27"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25">
-      <c r="B25" s="27"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26">
-      <c r="B26" s="27"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27">
-      <c r="B27" s="28"/>
+      <c r="B27" s="29"/>
     </row>
     <row r="28">
-      <c r="B28" s="28"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29">
-      <c r="B29" s="28"/>
+      <c r="B29" s="29"/>
     </row>
     <row r="30">
-      <c r="B30" s="28"/>
+      <c r="B30" s="29"/>
     </row>
     <row r="31">
-      <c r="B31" s="28"/>
+      <c r="B31" s="29"/>
     </row>
     <row r="32">
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
     </row>
     <row r="33">
-      <c r="B33" s="28"/>
+      <c r="B33" s="29"/>
     </row>
     <row r="34">
-      <c r="B34" s="28"/>
+      <c r="B34" s="29"/>
     </row>
     <row r="35">
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
     </row>
     <row r="36">
-      <c r="B36" s="28"/>
+      <c r="B36" s="29"/>
     </row>
     <row r="37">
-      <c r="B37" s="28"/>
+      <c r="B37" s="29"/>
     </row>
     <row r="38">
-      <c r="B38" s="28"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39">
-      <c r="B39" s="28"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40">
-      <c r="B40" s="28"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41">
-      <c r="B41" s="28"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42">
-      <c r="B42" s="28"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43">
-      <c r="B43" s="28"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44">
-      <c r="B44" s="28"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45">
-      <c r="B45" s="28"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46">
-      <c r="B46" s="28"/>
+      <c r="B46" s="29"/>
     </row>
     <row r="47">
-      <c r="B47" s="28"/>
+      <c r="B47" s="29"/>
     </row>
     <row r="48">
-      <c r="B48" s="28"/>
+      <c r="B48" s="29"/>
     </row>
     <row r="49">
-      <c r="B49" s="28"/>
+      <c r="B49" s="29"/>
     </row>
     <row r="50">
-      <c r="B50" s="28"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51">
-      <c r="B51" s="28"/>
+      <c r="B51" s="29"/>
     </row>
     <row r="52">
-      <c r="B52" s="28"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53">
-      <c r="B53" s="28"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54">
-      <c r="B54" s="28"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55">
-      <c r="B55" s="28"/>
+      <c r="B55" s="29"/>
     </row>
     <row r="56">
-      <c r="B56" s="28"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57">
-      <c r="B57" s="28"/>
+      <c r="B57" s="29"/>
     </row>
     <row r="58">
-      <c r="B58" s="28"/>
+      <c r="B58" s="29"/>
     </row>
     <row r="59">
-      <c r="B59" s="28"/>
+      <c r="B59" s="29"/>
     </row>
     <row r="60">
-      <c r="B60" s="28"/>
+      <c r="B60" s="29"/>
     </row>
     <row r="61">
-      <c r="B61" s="28"/>
+      <c r="B61" s="29"/>
     </row>
     <row r="62">
-      <c r="B62" s="28"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63">
-      <c r="B63" s="28"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64">
-      <c r="B64" s="28"/>
+      <c r="B64" s="29"/>
     </row>
     <row r="65">
-      <c r="B65" s="28"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66">
-      <c r="B66" s="28"/>
+      <c r="B66" s="29"/>
     </row>
     <row r="67">
-      <c r="B67" s="28"/>
+      <c r="B67" s="29"/>
     </row>
     <row r="68">
-      <c r="B68" s="28"/>
+      <c r="B68" s="29"/>
     </row>
     <row r="69">
-      <c r="B69" s="28"/>
+      <c r="B69" s="29"/>
     </row>
     <row r="70">
-      <c r="B70" s="28"/>
+      <c r="B70" s="29"/>
     </row>
     <row r="71">
-      <c r="B71" s="28"/>
+      <c r="B71" s="29"/>
     </row>
     <row r="72">
-      <c r="B72" s="28"/>
+      <c r="B72" s="29"/>
     </row>
     <row r="73">
-      <c r="B73" s="28"/>
+      <c r="B73" s="29"/>
     </row>
     <row r="74">
-      <c r="B74" s="28"/>
+      <c r="B74" s="29"/>
     </row>
     <row r="75">
-      <c r="B75" s="28"/>
+      <c r="B75" s="29"/>
     </row>
     <row r="76">
-      <c r="B76" s="28"/>
+      <c r="B76" s="29"/>
     </row>
     <row r="77">
-      <c r="B77" s="28"/>
+      <c r="B77" s="29"/>
     </row>
     <row r="78">
-      <c r="B78" s="28"/>
+      <c r="B78" s="29"/>
     </row>
     <row r="79">
-      <c r="B79" s="28"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80">
-      <c r="B80" s="28"/>
+      <c r="B80" s="29"/>
     </row>
     <row r="81">
-      <c r="B81" s="28"/>
+      <c r="B81" s="29"/>
     </row>
     <row r="82">
-      <c r="B82" s="28"/>
+      <c r="B82" s="29"/>
     </row>
     <row r="83">
-      <c r="B83" s="28"/>
+      <c r="B83" s="29"/>
     </row>
     <row r="84">
-      <c r="B84" s="28"/>
+      <c r="B84" s="29"/>
     </row>
     <row r="85">
-      <c r="B85" s="28"/>
+      <c r="B85" s="29"/>
     </row>
     <row r="86">
-      <c r="B86" s="28"/>
+      <c r="B86" s="29"/>
     </row>
     <row r="87">
-      <c r="B87" s="28"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88">
-      <c r="B88" s="28"/>
+      <c r="B88" s="29"/>
     </row>
     <row r="89">
-      <c r="B89" s="28"/>
+      <c r="B89" s="29"/>
     </row>
     <row r="90">
-      <c r="B90" s="28"/>
+      <c r="B90" s="29"/>
     </row>
     <row r="91">
-      <c r="B91" s="28"/>
+      <c r="B91" s="29"/>
     </row>
     <row r="92">
-      <c r="B92" s="28"/>
+      <c r="B92" s="29"/>
     </row>
     <row r="93">
-      <c r="B93" s="28"/>
+      <c r="B93" s="29"/>
     </row>
     <row r="94">
-      <c r="B94" s="28"/>
+      <c r="B94" s="29"/>
     </row>
     <row r="95">
-      <c r="B95" s="28"/>
+      <c r="B95" s="29"/>
     </row>
     <row r="96">
-      <c r="B96" s="28"/>
+      <c r="B96" s="29"/>
     </row>
     <row r="97">
-      <c r="B97" s="28"/>
+      <c r="B97" s="29"/>
     </row>
     <row r="98">
-      <c r="B98" s="28"/>
+      <c r="B98" s="29"/>
     </row>
     <row r="99">
-      <c r="B99" s="28"/>
+      <c r="B99" s="29"/>
     </row>
     <row r="100">
-      <c r="B100" s="28"/>
+      <c r="B100" s="29"/>
     </row>
     <row r="101">
-      <c r="B101" s="28"/>
+      <c r="B101" s="29"/>
     </row>
     <row r="102">
-      <c r="B102" s="28"/>
+      <c r="B102" s="29"/>
     </row>
     <row r="103">
-      <c r="B103" s="28"/>
+      <c r="B103" s="29"/>
     </row>
     <row r="104">
-      <c r="B104" s="28"/>
+      <c r="B104" s="29"/>
     </row>
     <row r="105">
-      <c r="B105" s="28"/>
+      <c r="B105" s="29"/>
     </row>
     <row r="106">
-      <c r="B106" s="28"/>
+      <c r="B106" s="29"/>
     </row>
     <row r="107">
-      <c r="B107" s="28"/>
+      <c r="B107" s="29"/>
     </row>
     <row r="108">
-      <c r="B108" s="28"/>
+      <c r="B108" s="29"/>
     </row>
     <row r="109">
-      <c r="B109" s="28"/>
+      <c r="B109" s="29"/>
     </row>
     <row r="110">
-      <c r="B110" s="28"/>
+      <c r="B110" s="29"/>
     </row>
     <row r="111">
-      <c r="B111" s="28"/>
+      <c r="B111" s="29"/>
     </row>
     <row r="112">
-      <c r="B112" s="28"/>
+      <c r="B112" s="29"/>
     </row>
     <row r="113">
-      <c r="B113" s="28"/>
+      <c r="B113" s="29"/>
     </row>
     <row r="114">
-      <c r="B114" s="28"/>
+      <c r="B114" s="29"/>
     </row>
     <row r="115">
-      <c r="B115" s="28"/>
+      <c r="B115" s="29"/>
     </row>
     <row r="116">
-      <c r="B116" s="28"/>
+      <c r="B116" s="29"/>
     </row>
     <row r="117">
-      <c r="B117" s="28"/>
+      <c r="B117" s="29"/>
     </row>
     <row r="118">
-      <c r="B118" s="28"/>
+      <c r="B118" s="29"/>
     </row>
     <row r="119">
-      <c r="B119" s="28"/>
+      <c r="B119" s="29"/>
     </row>
     <row r="120">
-      <c r="B120" s="28"/>
+      <c r="B120" s="29"/>
     </row>
     <row r="121">
-      <c r="B121" s="28"/>
+      <c r="B121" s="29"/>
     </row>
     <row r="122">
-      <c r="B122" s="28"/>
+      <c r="B122" s="29"/>
     </row>
     <row r="123">
-      <c r="B123" s="28"/>
+      <c r="B123" s="29"/>
     </row>
     <row r="124">
-      <c r="B124" s="28"/>
+      <c r="B124" s="29"/>
     </row>
     <row r="125">
-      <c r="B125" s="28"/>
+      <c r="B125" s="29"/>
     </row>
     <row r="126">
-      <c r="B126" s="28"/>
+      <c r="B126" s="29"/>
     </row>
     <row r="127">
-      <c r="B127" s="28"/>
+      <c r="B127" s="29"/>
     </row>
     <row r="128">
-      <c r="B128" s="28"/>
+      <c r="B128" s="29"/>
     </row>
     <row r="129">
-      <c r="B129" s="28"/>
+      <c r="B129" s="29"/>
     </row>
     <row r="130">
-      <c r="B130" s="28"/>
+      <c r="B130" s="29"/>
     </row>
     <row r="131">
-      <c r="B131" s="28"/>
+      <c r="B131" s="29"/>
     </row>
     <row r="132">
-      <c r="B132" s="28"/>
+      <c r="B132" s="29"/>
     </row>
     <row r="133">
-      <c r="B133" s="28"/>
+      <c r="B133" s="29"/>
     </row>
     <row r="134">
-      <c r="B134" s="28"/>
+      <c r="B134" s="29"/>
     </row>
     <row r="135">
-      <c r="B135" s="28"/>
+      <c r="B135" s="29"/>
     </row>
     <row r="136">
-      <c r="B136" s="28"/>
+      <c r="B136" s="29"/>
     </row>
     <row r="137">
-      <c r="B137" s="28"/>
+      <c r="B137" s="29"/>
     </row>
     <row r="138">
-      <c r="B138" s="28"/>
+      <c r="B138" s="29"/>
     </row>
     <row r="139">
-      <c r="B139" s="28"/>
+      <c r="B139" s="29"/>
     </row>
     <row r="140">
-      <c r="B140" s="28"/>
+      <c r="B140" s="29"/>
     </row>
     <row r="141">
-      <c r="B141" s="28"/>
+      <c r="B141" s="29"/>
     </row>
     <row r="142">
-      <c r="B142" s="28"/>
+      <c r="B142" s="29"/>
     </row>
     <row r="143">
-      <c r="B143" s="28"/>
+      <c r="B143" s="29"/>
     </row>
     <row r="144">
-      <c r="B144" s="28"/>
+      <c r="B144" s="29"/>
     </row>
     <row r="145">
-      <c r="B145" s="28"/>
+      <c r="B145" s="29"/>
     </row>
     <row r="146">
-      <c r="B146" s="28"/>
+      <c r="B146" s="29"/>
     </row>
     <row r="147">
-      <c r="B147" s="28"/>
+      <c r="B147" s="29"/>
     </row>
     <row r="148">
-      <c r="B148" s="28"/>
+      <c r="B148" s="29"/>
     </row>
     <row r="149">
-      <c r="B149" s="28"/>
+      <c r="B149" s="29"/>
     </row>
     <row r="150">
-      <c r="B150" s="28"/>
+      <c r="B150" s="29"/>
     </row>
     <row r="151">
-      <c r="B151" s="28"/>
+      <c r="B151" s="29"/>
     </row>
     <row r="152">
-      <c r="B152" s="28"/>
+      <c r="B152" s="29"/>
     </row>
     <row r="153">
-      <c r="B153" s="28"/>
+      <c r="B153" s="29"/>
     </row>
     <row r="154">
-      <c r="B154" s="28"/>
+      <c r="B154" s="29"/>
     </row>
     <row r="155">
-      <c r="B155" s="28"/>
+      <c r="B155" s="29"/>
     </row>
     <row r="156">
-      <c r="B156" s="28"/>
+      <c r="B156" s="29"/>
     </row>
     <row r="157">
-      <c r="B157" s="28"/>
+      <c r="B157" s="29"/>
     </row>
     <row r="158">
-      <c r="B158" s="28"/>
+      <c r="B158" s="29"/>
     </row>
     <row r="159">
-      <c r="B159" s="28"/>
+      <c r="B159" s="29"/>
     </row>
     <row r="160">
-      <c r="B160" s="28"/>
+      <c r="B160" s="29"/>
     </row>
     <row r="161">
-      <c r="B161" s="28"/>
+      <c r="B161" s="29"/>
     </row>
     <row r="162">
-      <c r="B162" s="28"/>
+      <c r="B162" s="29"/>
     </row>
     <row r="163">
-      <c r="B163" s="28"/>
+      <c r="B163" s="29"/>
     </row>
     <row r="164">
-      <c r="B164" s="28"/>
+      <c r="B164" s="29"/>
     </row>
     <row r="165">
-      <c r="B165" s="28"/>
+      <c r="B165" s="29"/>
     </row>
     <row r="166">
-      <c r="B166" s="28"/>
+      <c r="B166" s="29"/>
     </row>
     <row r="167">
-      <c r="B167" s="28"/>
+      <c r="B167" s="29"/>
     </row>
     <row r="168">
-      <c r="B168" s="28"/>
+      <c r="B168" s="29"/>
     </row>
     <row r="169">
-      <c r="B169" s="28"/>
+      <c r="B169" s="29"/>
     </row>
     <row r="170">
-      <c r="B170" s="28"/>
+      <c r="B170" s="29"/>
     </row>
     <row r="171">
-      <c r="B171" s="28"/>
+      <c r="B171" s="29"/>
     </row>
     <row r="172">
-      <c r="B172" s="28"/>
+      <c r="B172" s="29"/>
     </row>
     <row r="173">
-      <c r="B173" s="28"/>
+      <c r="B173" s="29"/>
     </row>
     <row r="174">
-      <c r="B174" s="28"/>
+      <c r="B174" s="29"/>
     </row>
     <row r="175">
-      <c r="B175" s="28"/>
+      <c r="B175" s="29"/>
     </row>
     <row r="176">
-      <c r="B176" s="28"/>
+      <c r="B176" s="29"/>
     </row>
     <row r="177">
-      <c r="B177" s="28"/>
+      <c r="B177" s="29"/>
     </row>
     <row r="178">
-      <c r="B178" s="28"/>
+      <c r="B178" s="29"/>
     </row>
     <row r="179">
-      <c r="B179" s="28"/>
+      <c r="B179" s="29"/>
     </row>
     <row r="180">
-      <c r="B180" s="28"/>
+      <c r="B180" s="29"/>
     </row>
     <row r="181">
-      <c r="B181" s="28"/>
+      <c r="B181" s="29"/>
     </row>
     <row r="182">
-      <c r="B182" s="28"/>
+      <c r="B182" s="29"/>
     </row>
     <row r="183">
-      <c r="B183" s="28"/>
+      <c r="B183" s="29"/>
     </row>
     <row r="184">
-      <c r="B184" s="28"/>
+      <c r="B184" s="29"/>
     </row>
     <row r="185">
-      <c r="B185" s="28"/>
+      <c r="B185" s="29"/>
     </row>
     <row r="186">
-      <c r="B186" s="28"/>
+      <c r="B186" s="29"/>
     </row>
     <row r="187">
-      <c r="B187" s="28"/>
+      <c r="B187" s="29"/>
     </row>
     <row r="188">
-      <c r="B188" s="28"/>
+      <c r="B188" s="29"/>
     </row>
     <row r="189">
-      <c r="B189" s="28"/>
+      <c r="B189" s="29"/>
     </row>
     <row r="190">
-      <c r="B190" s="28"/>
+      <c r="B190" s="29"/>
     </row>
     <row r="191">
-      <c r="B191" s="28"/>
+      <c r="B191" s="29"/>
     </row>
     <row r="192">
-      <c r="B192" s="28"/>
+      <c r="B192" s="29"/>
     </row>
     <row r="193">
-      <c r="B193" s="28"/>
+      <c r="B193" s="29"/>
     </row>
     <row r="194">
-      <c r="B194" s="28"/>
+      <c r="B194" s="29"/>
     </row>
     <row r="195">
-      <c r="B195" s="28"/>
+      <c r="B195" s="29"/>
     </row>
     <row r="196">
-      <c r="B196" s="28"/>
+      <c r="B196" s="29"/>
     </row>
     <row r="197">
-      <c r="B197" s="28"/>
+      <c r="B197" s="29"/>
     </row>
     <row r="198">
-      <c r="B198" s="28"/>
+      <c r="B198" s="29"/>
     </row>
     <row r="199">
-      <c r="B199" s="28"/>
+      <c r="B199" s="29"/>
     </row>
     <row r="200">
-      <c r="B200" s="28"/>
+      <c r="B200" s="29"/>
     </row>
     <row r="201">
-      <c r="B201" s="28"/>
+      <c r="B201" s="29"/>
     </row>
     <row r="202">
-      <c r="B202" s="28"/>
+      <c r="B202" s="29"/>
     </row>
     <row r="203">
-      <c r="B203" s="28"/>
+      <c r="B203" s="29"/>
     </row>
     <row r="204">
-      <c r="B204" s="28"/>
+      <c r="B204" s="29"/>
     </row>
     <row r="205">
-      <c r="B205" s="28"/>
+      <c r="B205" s="29"/>
     </row>
     <row r="206">
-      <c r="B206" s="28"/>
+      <c r="B206" s="29"/>
     </row>
     <row r="207">
-      <c r="B207" s="28"/>
+      <c r="B207" s="29"/>
     </row>
     <row r="208">
-      <c r="B208" s="28"/>
+      <c r="B208" s="29"/>
     </row>
     <row r="209">
-      <c r="B209" s="28"/>
+      <c r="B209" s="29"/>
     </row>
     <row r="210">
-      <c r="B210" s="28"/>
+      <c r="B210" s="29"/>
     </row>
     <row r="211">
-      <c r="B211" s="28"/>
+      <c r="B211" s="29"/>
     </row>
     <row r="212">
-      <c r="B212" s="28"/>
+      <c r="B212" s="29"/>
     </row>
     <row r="213">
-      <c r="B213" s="28"/>
+      <c r="B213" s="29"/>
     </row>
     <row r="214">
-      <c r="B214" s="28"/>
+      <c r="B214" s="29"/>
     </row>
     <row r="215">
-      <c r="B215" s="28"/>
+      <c r="B215" s="29"/>
     </row>
     <row r="216">
-      <c r="B216" s="28"/>
+      <c r="B216" s="29"/>
     </row>
     <row r="217">
-      <c r="B217" s="28"/>
+      <c r="B217" s="29"/>
     </row>
     <row r="218">
-      <c r="B218" s="28"/>
+      <c r="B218" s="29"/>
     </row>
     <row r="219">
-      <c r="B219" s="28"/>
+      <c r="B219" s="29"/>
     </row>
     <row r="220">
-      <c r="B220" s="28"/>
+      <c r="B220" s="29"/>
     </row>
     <row r="221">
-      <c r="B221" s="28"/>
+      <c r="B221" s="29"/>
     </row>
     <row r="222">
-      <c r="B222" s="28"/>
+      <c r="B222" s="29"/>
     </row>
     <row r="223">
-      <c r="B223" s="28"/>
+      <c r="B223" s="29"/>
     </row>
     <row r="224">
-      <c r="B224" s="28"/>
+      <c r="B224" s="29"/>
     </row>
     <row r="225">
-      <c r="B225" s="28"/>
+      <c r="B225" s="29"/>
     </row>
     <row r="226">
-      <c r="B226" s="28"/>
+      <c r="B226" s="29"/>
     </row>
     <row r="227">
-      <c r="B227" s="28"/>
+      <c r="B227" s="29"/>
     </row>
     <row r="228">
-      <c r="B228" s="28"/>
+      <c r="B228" s="29"/>
     </row>
     <row r="229">
-      <c r="B229" s="28"/>
+      <c r="B229" s="29"/>
     </row>
     <row r="230">
-      <c r="B230" s="28"/>
+      <c r="B230" s="29"/>
     </row>
     <row r="231">
-      <c r="B231" s="28"/>
+      <c r="B231" s="29"/>
     </row>
     <row r="232">
-      <c r="B232" s="28"/>
+      <c r="B232" s="29"/>
     </row>
     <row r="233">
-      <c r="B233" s="28"/>
+      <c r="B233" s="29"/>
     </row>
     <row r="234">
-      <c r="B234" s="28"/>
+      <c r="B234" s="29"/>
     </row>
     <row r="235">
-      <c r="B235" s="28"/>
+      <c r="B235" s="29"/>
     </row>
     <row r="236">
-      <c r="B236" s="28"/>
+      <c r="B236" s="29"/>
     </row>
     <row r="237">
-      <c r="B237" s="28"/>
+      <c r="B237" s="29"/>
     </row>
     <row r="238">
-      <c r="B238" s="28"/>
+      <c r="B238" s="29"/>
     </row>
     <row r="239">
-      <c r="B239" s="28"/>
+      <c r="B239" s="29"/>
     </row>
     <row r="240">
-      <c r="B240" s="28"/>
+      <c r="B240" s="29"/>
     </row>
     <row r="241">
-      <c r="B241" s="28"/>
+      <c r="B241" s="29"/>
     </row>
     <row r="242">
-      <c r="B242" s="28"/>
+      <c r="B242" s="29"/>
     </row>
     <row r="243">
-      <c r="B243" s="28"/>
+      <c r="B243" s="29"/>
     </row>
     <row r="244">
-      <c r="B244" s="28"/>
+      <c r="B244" s="29"/>
     </row>
     <row r="245">
-      <c r="B245" s="28"/>
+      <c r="B245" s="29"/>
     </row>
     <row r="246">
-      <c r="B246" s="28"/>
+      <c r="B246" s="29"/>
     </row>
     <row r="247">
-      <c r="B247" s="28"/>
+      <c r="B247" s="29"/>
     </row>
     <row r="248">
-      <c r="B248" s="28"/>
+      <c r="B248" s="29"/>
     </row>
     <row r="249">
-      <c r="B249" s="28"/>
+      <c r="B249" s="29"/>
     </row>
     <row r="250">
-      <c r="B250" s="28"/>
+      <c r="B250" s="29"/>
     </row>
     <row r="251">
-      <c r="B251" s="28"/>
+      <c r="B251" s="29"/>
     </row>
     <row r="252">
-      <c r="B252" s="28"/>
+      <c r="B252" s="29"/>
     </row>
     <row r="253">
-      <c r="B253" s="28"/>
+      <c r="B253" s="29"/>
     </row>
     <row r="254">
-      <c r="B254" s="28"/>
+      <c r="B254" s="29"/>
     </row>
     <row r="255">
-      <c r="B255" s="28"/>
+      <c r="B255" s="29"/>
     </row>
     <row r="256">
-      <c r="B256" s="28"/>
+      <c r="B256" s="29"/>
     </row>
     <row r="257">
-      <c r="B257" s="28"/>
+      <c r="B257" s="29"/>
     </row>
     <row r="258">
-      <c r="B258" s="28"/>
+      <c r="B258" s="29"/>
     </row>
     <row r="259">
-      <c r="B259" s="28"/>
+      <c r="B259" s="29"/>
     </row>
     <row r="260">
-      <c r="B260" s="28"/>
+      <c r="B260" s="29"/>
     </row>
     <row r="261">
-      <c r="B261" s="28"/>
+      <c r="B261" s="29"/>
     </row>
     <row r="262">
-      <c r="B262" s="28"/>
+      <c r="B262" s="29"/>
     </row>
     <row r="263">
-      <c r="B263" s="28"/>
+      <c r="B263" s="29"/>
     </row>
     <row r="264">
-      <c r="B264" s="28"/>
+      <c r="B264" s="29"/>
     </row>
     <row r="265">
-      <c r="B265" s="28"/>
+      <c r="B265" s="29"/>
     </row>
     <row r="266">
-      <c r="B266" s="28"/>
+      <c r="B266" s="29"/>
     </row>
     <row r="267">
-      <c r="B267" s="28"/>
+      <c r="B267" s="29"/>
     </row>
     <row r="268">
-      <c r="B268" s="28"/>
+      <c r="B268" s="29"/>
     </row>
     <row r="269">
-      <c r="B269" s="28"/>
+      <c r="B269" s="29"/>
     </row>
     <row r="270">
-      <c r="B270" s="28"/>
+      <c r="B270" s="29"/>
     </row>
     <row r="271">
-      <c r="B271" s="28"/>
+      <c r="B271" s="29"/>
     </row>
     <row r="272">
-      <c r="B272" s="28"/>
+      <c r="B272" s="29"/>
     </row>
     <row r="273">
-      <c r="B273" s="28"/>
+      <c r="B273" s="29"/>
     </row>
     <row r="274">
-      <c r="B274" s="28"/>
+      <c r="B274" s="29"/>
     </row>
     <row r="275">
-      <c r="B275" s="28"/>
+      <c r="B275" s="29"/>
     </row>
     <row r="276">
-      <c r="B276" s="28"/>
+      <c r="B276" s="29"/>
     </row>
     <row r="277">
-      <c r="B277" s="28"/>
+      <c r="B277" s="29"/>
     </row>
     <row r="278">
-      <c r="B278" s="28"/>
+      <c r="B278" s="29"/>
     </row>
     <row r="279">
-      <c r="B279" s="28"/>
+      <c r="B279" s="29"/>
     </row>
     <row r="280">
-      <c r="B280" s="28"/>
+      <c r="B280" s="29"/>
     </row>
     <row r="281">
-      <c r="B281" s="28"/>
+      <c r="B281" s="29"/>
     </row>
     <row r="282">
-      <c r="B282" s="28"/>
+      <c r="B282" s="29"/>
     </row>
     <row r="283">
-      <c r="B283" s="28"/>
+      <c r="B283" s="29"/>
     </row>
     <row r="284">
-      <c r="B284" s="28"/>
+      <c r="B284" s="29"/>
     </row>
     <row r="285">
-      <c r="B285" s="28"/>
+      <c r="B285" s="29"/>
     </row>
     <row r="286">
-      <c r="B286" s="28"/>
+      <c r="B286" s="29"/>
     </row>
     <row r="287">
-      <c r="B287" s="28"/>
+      <c r="B287" s="29"/>
     </row>
     <row r="288">
-      <c r="B288" s="28"/>
+      <c r="B288" s="29"/>
     </row>
     <row r="289">
-      <c r="B289" s="28"/>
+      <c r="B289" s="29"/>
     </row>
     <row r="290">
-      <c r="B290" s="28"/>
+      <c r="B290" s="29"/>
     </row>
     <row r="291">
-      <c r="B291" s="28"/>
+      <c r="B291" s="29"/>
     </row>
     <row r="292">
-      <c r="B292" s="28"/>
+      <c r="B292" s="29"/>
     </row>
     <row r="293">
-      <c r="B293" s="28"/>
+      <c r="B293" s="29"/>
     </row>
     <row r="294">
-      <c r="B294" s="28"/>
+      <c r="B294" s="29"/>
     </row>
     <row r="295">
-      <c r="B295" s="28"/>
+      <c r="B295" s="29"/>
     </row>
     <row r="296">
-      <c r="B296" s="28"/>
+      <c r="B296" s="29"/>
     </row>
     <row r="297">
-      <c r="B297" s="28"/>
+      <c r="B297" s="29"/>
     </row>
     <row r="298">
-      <c r="B298" s="28"/>
+      <c r="B298" s="29"/>
     </row>
     <row r="299">
-      <c r="B299" s="28"/>
+      <c r="B299" s="29"/>
     </row>
     <row r="300">
-      <c r="B300" s="28"/>
+      <c r="B300" s="29"/>
     </row>
     <row r="301">
-      <c r="B301" s="28"/>
+      <c r="B301" s="29"/>
     </row>
     <row r="302">
-      <c r="B302" s="28"/>
+      <c r="B302" s="29"/>
     </row>
     <row r="303">
-      <c r="B303" s="28"/>
+      <c r="B303" s="29"/>
     </row>
     <row r="304">
-      <c r="B304" s="28"/>
+      <c r="B304" s="29"/>
     </row>
     <row r="305">
-      <c r="B305" s="28"/>
+      <c r="B305" s="29"/>
     </row>
     <row r="306">
-      <c r="B306" s="28"/>
+      <c r="B306" s="29"/>
     </row>
     <row r="307">
-      <c r="B307" s="28"/>
+      <c r="B307" s="29"/>
     </row>
     <row r="308">
-      <c r="B308" s="28"/>
+      <c r="B308" s="29"/>
     </row>
     <row r="309">
-      <c r="B309" s="28"/>
+      <c r="B309" s="29"/>
     </row>
     <row r="310">
-      <c r="B310" s="28"/>
+      <c r="B310" s="29"/>
     </row>
     <row r="311">
-      <c r="B311" s="28"/>
+      <c r="B311" s="29"/>
     </row>
     <row r="312">
-      <c r="B312" s="28"/>
+      <c r="B312" s="29"/>
     </row>
     <row r="313">
-      <c r="B313" s="28"/>
+      <c r="B313" s="29"/>
     </row>
     <row r="314">
-      <c r="B314" s="28"/>
+      <c r="B314" s="29"/>
     </row>
     <row r="315">
-      <c r="B315" s="28"/>
+      <c r="B315" s="29"/>
     </row>
     <row r="316">
-      <c r="B316" s="28"/>
+      <c r="B316" s="29"/>
     </row>
     <row r="317">
-      <c r="B317" s="28"/>
+      <c r="B317" s="29"/>
     </row>
     <row r="318">
-      <c r="B318" s="28"/>
+      <c r="B318" s="29"/>
     </row>
     <row r="319">
-      <c r="B319" s="28"/>
+      <c r="B319" s="29"/>
     </row>
     <row r="320">
-      <c r="B320" s="28"/>
+      <c r="B320" s="29"/>
     </row>
     <row r="321">
-      <c r="B321" s="28"/>
+      <c r="B321" s="29"/>
     </row>
     <row r="322">
-      <c r="B322" s="28"/>
+      <c r="B322" s="29"/>
     </row>
     <row r="323">
-      <c r="B323" s="28"/>
+      <c r="B323" s="29"/>
     </row>
     <row r="324">
-      <c r="B324" s="28"/>
+      <c r="B324" s="29"/>
     </row>
     <row r="325">
-      <c r="B325" s="28"/>
+      <c r="B325" s="29"/>
     </row>
     <row r="326">
-      <c r="B326" s="28"/>
+      <c r="B326" s="29"/>
     </row>
     <row r="327">
-      <c r="B327" s="28"/>
+      <c r="B327" s="29"/>
     </row>
     <row r="328">
-      <c r="B328" s="28"/>
+      <c r="B328" s="29"/>
     </row>
     <row r="329">
-      <c r="B329" s="28"/>
+      <c r="B329" s="29"/>
     </row>
     <row r="330">
-      <c r="B330" s="28"/>
+      <c r="B330" s="29"/>
     </row>
     <row r="331">
-      <c r="B331" s="28"/>
+      <c r="B331" s="29"/>
     </row>
     <row r="332">
-      <c r="B332" s="28"/>
+      <c r="B332" s="29"/>
     </row>
     <row r="333">
-      <c r="B333" s="28"/>
+      <c r="B333" s="29"/>
     </row>
     <row r="334">
-      <c r="B334" s="28"/>
+      <c r="B334" s="29"/>
     </row>
     <row r="335">
-      <c r="B335" s="28"/>
+      <c r="B335" s="29"/>
     </row>
     <row r="336">
-      <c r="B336" s="28"/>
+      <c r="B336" s="29"/>
     </row>
     <row r="337">
-      <c r="B337" s="28"/>
+      <c r="B337" s="29"/>
     </row>
     <row r="338">
-      <c r="B338" s="28"/>
+      <c r="B338" s="29"/>
     </row>
     <row r="339">
-      <c r="B339" s="28"/>
+      <c r="B339" s="29"/>
     </row>
     <row r="340">
-      <c r="B340" s="28"/>
+      <c r="B340" s="29"/>
     </row>
     <row r="341">
-      <c r="B341" s="28"/>
+      <c r="B341" s="29"/>
     </row>
     <row r="342">
-      <c r="B342" s="28"/>
+      <c r="B342" s="29"/>
     </row>
     <row r="343">
-      <c r="B343" s="28"/>
+      <c r="B343" s="29"/>
     </row>
     <row r="344">
-      <c r="B344" s="28"/>
+      <c r="B344" s="29"/>
     </row>
     <row r="345">
-      <c r="B345" s="28"/>
+      <c r="B345" s="29"/>
     </row>
     <row r="346">
-      <c r="B346" s="28"/>
+      <c r="B346" s="29"/>
     </row>
     <row r="347">
-      <c r="B347" s="28"/>
+      <c r="B347" s="29"/>
     </row>
     <row r="348">
-      <c r="B348" s="28"/>
+      <c r="B348" s="29"/>
     </row>
     <row r="349">
-      <c r="B349" s="28"/>
+      <c r="B349" s="29"/>
     </row>
     <row r="350">
-      <c r="B350" s="28"/>
+      <c r="B350" s="29"/>
     </row>
     <row r="351">
-      <c r="B351" s="28"/>
+      <c r="B351" s="29"/>
     </row>
     <row r="352">
-      <c r="B352" s="28"/>
+      <c r="B352" s="29"/>
     </row>
     <row r="353">
-      <c r="B353" s="28"/>
+      <c r="B353" s="29"/>
     </row>
     <row r="354">
-      <c r="B354" s="28"/>
+      <c r="B354" s="29"/>
     </row>
     <row r="355">
-      <c r="B355" s="28"/>
+      <c r="B355" s="29"/>
     </row>
     <row r="356">
-      <c r="B356" s="28"/>
+      <c r="B356" s="29"/>
     </row>
     <row r="357">
-      <c r="B357" s="28"/>
+      <c r="B357" s="29"/>
     </row>
     <row r="358">
-      <c r="B358" s="28"/>
+      <c r="B358" s="29"/>
     </row>
     <row r="359">
-      <c r="B359" s="28"/>
+      <c r="B359" s="29"/>
     </row>
     <row r="360">
-      <c r="B360" s="28"/>
+      <c r="B360" s="29"/>
     </row>
     <row r="361">
-      <c r="B361" s="28"/>
+      <c r="B361" s="29"/>
     </row>
     <row r="362">
-      <c r="B362" s="28"/>
+      <c r="B362" s="29"/>
     </row>
     <row r="363">
-      <c r="B363" s="28"/>
+      <c r="B363" s="29"/>
     </row>
     <row r="364">
-      <c r="B364" s="28"/>
+      <c r="B364" s="29"/>
     </row>
     <row r="365">
-      <c r="B365" s="28"/>
+      <c r="B365" s="29"/>
     </row>
     <row r="366">
-      <c r="B366" s="28"/>
+      <c r="B366" s="29"/>
     </row>
     <row r="367">
-      <c r="B367" s="28"/>
+      <c r="B367" s="29"/>
     </row>
     <row r="368">
-      <c r="B368" s="28"/>
+      <c r="B368" s="29"/>
     </row>
     <row r="369">
-      <c r="B369" s="28"/>
+      <c r="B369" s="29"/>
     </row>
     <row r="370">
-      <c r="B370" s="28"/>
+      <c r="B370" s="29"/>
     </row>
     <row r="371">
-      <c r="B371" s="28"/>
+      <c r="B371" s="29"/>
     </row>
     <row r="372">
-      <c r="B372" s="28"/>
+      <c r="B372" s="29"/>
     </row>
     <row r="373">
-      <c r="B373" s="28"/>
+      <c r="B373" s="29"/>
     </row>
     <row r="374">
-      <c r="B374" s="28"/>
+      <c r="B374" s="29"/>
     </row>
     <row r="375">
-      <c r="B375" s="28"/>
+      <c r="B375" s="29"/>
     </row>
     <row r="376">
-      <c r="B376" s="28"/>
+      <c r="B376" s="29"/>
     </row>
     <row r="377">
-      <c r="B377" s="28"/>
+      <c r="B377" s="29"/>
     </row>
     <row r="378">
-      <c r="B378" s="28"/>
+      <c r="B378" s="29"/>
     </row>
     <row r="379">
-      <c r="B379" s="28"/>
+      <c r="B379" s="29"/>
     </row>
     <row r="380">
-      <c r="B380" s="28"/>
+      <c r="B380" s="29"/>
     </row>
     <row r="381">
-      <c r="B381" s="28"/>
+      <c r="B381" s="29"/>
     </row>
     <row r="382">
-      <c r="B382" s="28"/>
+      <c r="B382" s="29"/>
     </row>
     <row r="383">
-      <c r="B383" s="28"/>
+      <c r="B383" s="29"/>
     </row>
     <row r="384">
-      <c r="B384" s="28"/>
+      <c r="B384" s="29"/>
     </row>
     <row r="385">
-      <c r="B385" s="28"/>
+      <c r="B385" s="29"/>
     </row>
     <row r="386">
-      <c r="B386" s="28"/>
+      <c r="B386" s="29"/>
     </row>
     <row r="387">
-      <c r="B387" s="28"/>
+      <c r="B387" s="29"/>
     </row>
     <row r="388">
-      <c r="B388" s="28"/>
+      <c r="B388" s="29"/>
     </row>
     <row r="389">
-      <c r="B389" s="28"/>
+      <c r="B389" s="29"/>
     </row>
     <row r="390">
-      <c r="B390" s="28"/>
+      <c r="B390" s="29"/>
     </row>
     <row r="391">
-      <c r="B391" s="28"/>
+      <c r="B391" s="29"/>
     </row>
     <row r="392">
-      <c r="B392" s="28"/>
+      <c r="B392" s="29"/>
     </row>
     <row r="393">
-      <c r="B393" s="28"/>
+      <c r="B393" s="29"/>
     </row>
     <row r="394">
-      <c r="B394" s="28"/>
+      <c r="B394" s="29"/>
     </row>
     <row r="395">
-      <c r="B395" s="28"/>
+      <c r="B395" s="29"/>
     </row>
     <row r="396">
-      <c r="B396" s="28"/>
+      <c r="B396" s="29"/>
     </row>
     <row r="397">
-      <c r="B397" s="28"/>
+      <c r="B397" s="29"/>
     </row>
     <row r="398">
-      <c r="B398" s="28"/>
+      <c r="B398" s="29"/>
     </row>
     <row r="399">
-      <c r="B399" s="28"/>
+      <c r="B399" s="29"/>
     </row>
     <row r="400">
-      <c r="B400" s="28"/>
+      <c r="B400" s="29"/>
     </row>
     <row r="401">
-      <c r="B401" s="28"/>
+      <c r="B401" s="29"/>
     </row>
     <row r="402">
-      <c r="B402" s="28"/>
+      <c r="B402" s="29"/>
     </row>
     <row r="403">
-      <c r="B403" s="28"/>
+      <c r="B403" s="29"/>
     </row>
     <row r="404">
-      <c r="B404" s="28"/>
+      <c r="B404" s="29"/>
     </row>
     <row r="405">
-      <c r="B405" s="28"/>
+      <c r="B405" s="29"/>
     </row>
     <row r="406">
-      <c r="B406" s="28"/>
+      <c r="B406" s="29"/>
     </row>
     <row r="407">
-      <c r="B407" s="28"/>
+      <c r="B407" s="29"/>
     </row>
     <row r="408">
-      <c r="B408" s="28"/>
+      <c r="B408" s="29"/>
     </row>
     <row r="409">
-      <c r="B409" s="28"/>
+      <c r="B409" s="29"/>
     </row>
     <row r="410">
-      <c r="B410" s="28"/>
+      <c r="B410" s="29"/>
     </row>
     <row r="411">
-      <c r="B411" s="28"/>
+      <c r="B411" s="29"/>
     </row>
     <row r="412">
-      <c r="B412" s="28"/>
+      <c r="B412" s="29"/>
     </row>
     <row r="413">
-      <c r="B413" s="28"/>
+      <c r="B413" s="29"/>
     </row>
     <row r="414">
-      <c r="B414" s="28"/>
+      <c r="B414" s="29"/>
     </row>
     <row r="415">
-      <c r="B415" s="28"/>
+      <c r="B415" s="29"/>
     </row>
     <row r="416">
-      <c r="B416" s="28"/>
+      <c r="B416" s="29"/>
     </row>
     <row r="417">
-      <c r="B417" s="28"/>
+      <c r="B417" s="29"/>
     </row>
     <row r="418">
-      <c r="B418" s="28"/>
+      <c r="B418" s="29"/>
     </row>
     <row r="419">
-      <c r="B419" s="28"/>
+      <c r="B419" s="29"/>
     </row>
     <row r="420">
-      <c r="B420" s="28"/>
+      <c r="B420" s="29"/>
     </row>
     <row r="421">
-      <c r="B421" s="28"/>
+      <c r="B421" s="29"/>
     </row>
     <row r="422">
-      <c r="B422" s="28"/>
+      <c r="B422" s="29"/>
     </row>
     <row r="423">
-      <c r="B423" s="28"/>
+      <c r="B423" s="29"/>
     </row>
     <row r="424">
-      <c r="B424" s="28"/>
+      <c r="B424" s="29"/>
     </row>
     <row r="425">
-      <c r="B425" s="28"/>
+      <c r="B425" s="29"/>
     </row>
     <row r="426">
-      <c r="B426" s="28"/>
+      <c r="B426" s="29"/>
     </row>
     <row r="427">
-      <c r="B427" s="28"/>
+      <c r="B427" s="29"/>
     </row>
     <row r="428">
-      <c r="B428" s="28"/>
+      <c r="B428" s="29"/>
     </row>
     <row r="429">
-      <c r="B429" s="28"/>
+      <c r="B429" s="29"/>
     </row>
     <row r="430">
-      <c r="B430" s="28"/>
+      <c r="B430" s="29"/>
     </row>
     <row r="431">
-      <c r="B431" s="28"/>
+      <c r="B431" s="29"/>
     </row>
     <row r="432">
-      <c r="B432" s="28"/>
+      <c r="B432" s="29"/>
     </row>
     <row r="433">
-      <c r="B433" s="28"/>
+      <c r="B433" s="29"/>
     </row>
     <row r="434">
-      <c r="B434" s="28"/>
+      <c r="B434" s="29"/>
     </row>
     <row r="435">
-      <c r="B435" s="28"/>
+      <c r="B435" s="29"/>
     </row>
     <row r="436">
-      <c r="B436" s="28"/>
+      <c r="B436" s="29"/>
     </row>
     <row r="437">
-      <c r="B437" s="28"/>
+      <c r="B437" s="29"/>
     </row>
     <row r="438">
-      <c r="B438" s="28"/>
+      <c r="B438" s="29"/>
     </row>
     <row r="439">
-      <c r="B439" s="28"/>
+      <c r="B439" s="29"/>
     </row>
     <row r="440">
-      <c r="B440" s="28"/>
+      <c r="B440" s="29"/>
     </row>
     <row r="441">
-      <c r="B441" s="28"/>
+      <c r="B441" s="29"/>
     </row>
     <row r="442">
-      <c r="B442" s="28"/>
+      <c r="B442" s="29"/>
     </row>
     <row r="443">
-      <c r="B443" s="28"/>
+      <c r="B443" s="29"/>
     </row>
     <row r="444">
-      <c r="B444" s="28"/>
+      <c r="B444" s="29"/>
     </row>
     <row r="445">
-      <c r="B445" s="28"/>
+      <c r="B445" s="29"/>
     </row>
     <row r="446">
-      <c r="B446" s="28"/>
+      <c r="B446" s="29"/>
     </row>
     <row r="447">
-      <c r="B447" s="28"/>
+      <c r="B447" s="29"/>
     </row>
     <row r="448">
-      <c r="B448" s="28"/>
+      <c r="B448" s="29"/>
     </row>
     <row r="449">
-      <c r="B449" s="28"/>
+      <c r="B449" s="29"/>
     </row>
     <row r="450">
-      <c r="B450" s="28"/>
+      <c r="B450" s="29"/>
     </row>
     <row r="451">
-      <c r="B451" s="28"/>
+      <c r="B451" s="29"/>
     </row>
     <row r="452">
-      <c r="B452" s="28"/>
+      <c r="B452" s="29"/>
     </row>
     <row r="453">
-      <c r="B453" s="28"/>
+      <c r="B453" s="29"/>
     </row>
     <row r="454">
-      <c r="B454" s="28"/>
+      <c r="B454" s="29"/>
     </row>
     <row r="455">
-      <c r="B455" s="28"/>
+      <c r="B455" s="29"/>
     </row>
     <row r="456">
-      <c r="B456" s="28"/>
+      <c r="B456" s="29"/>
     </row>
     <row r="457">
-      <c r="B457" s="28"/>
+      <c r="B457" s="29"/>
     </row>
     <row r="458">
-      <c r="B458" s="28"/>
+      <c r="B458" s="29"/>
     </row>
     <row r="459">
-      <c r="B459" s="28"/>
+      <c r="B459" s="29"/>
     </row>
     <row r="460">
-      <c r="B460" s="28"/>
+      <c r="B460" s="29"/>
     </row>
     <row r="461">
-      <c r="B461" s="28"/>
+      <c r="B461" s="29"/>
     </row>
     <row r="462">
-      <c r="B462" s="28"/>
+      <c r="B462" s="29"/>
     </row>
     <row r="463">
-      <c r="B463" s="28"/>
+      <c r="B463" s="29"/>
     </row>
     <row r="464">
-      <c r="B464" s="28"/>
+      <c r="B464" s="29"/>
     </row>
     <row r="465">
-      <c r="B465" s="28"/>
+      <c r="B465" s="29"/>
     </row>
     <row r="466">
-      <c r="B466" s="28"/>
+      <c r="B466" s="29"/>
     </row>
     <row r="467">
-      <c r="B467" s="28"/>
+      <c r="B467" s="29"/>
     </row>
     <row r="468">
-      <c r="B468" s="28"/>
+      <c r="B468" s="29"/>
     </row>
     <row r="469">
-      <c r="B469" s="28"/>
+      <c r="B469" s="29"/>
     </row>
     <row r="470">
-      <c r="B470" s="28"/>
+      <c r="B470" s="29"/>
     </row>
     <row r="471">
-      <c r="B471" s="28"/>
+      <c r="B471" s="29"/>
     </row>
     <row r="472">
-      <c r="B472" s="28"/>
+      <c r="B472" s="29"/>
     </row>
     <row r="473">
-      <c r="B473" s="28"/>
+      <c r="B473" s="29"/>
     </row>
     <row r="474">
-      <c r="B474" s="28"/>
+      <c r="B474" s="29"/>
     </row>
     <row r="475">
-      <c r="B475" s="28"/>
+      <c r="B475" s="29"/>
     </row>
     <row r="476">
-      <c r="B476" s="28"/>
+      <c r="B476" s="29"/>
     </row>
     <row r="477">
-      <c r="B477" s="28"/>
+      <c r="B477" s="29"/>
     </row>
     <row r="478">
-      <c r="B478" s="28"/>
+      <c r="B478" s="29"/>
     </row>
     <row r="479">
-      <c r="B479" s="28"/>
+      <c r="B479" s="29"/>
     </row>
     <row r="480">
-      <c r="B480" s="28"/>
+      <c r="B480" s="29"/>
     </row>
     <row r="481">
-      <c r="B481" s="28"/>
+      <c r="B481" s="29"/>
     </row>
     <row r="482">
-      <c r="B482" s="28"/>
+      <c r="B482" s="29"/>
     </row>
     <row r="483">
-      <c r="B483" s="28"/>
+      <c r="B483" s="29"/>
     </row>
     <row r="484">
-      <c r="B484" s="28"/>
+      <c r="B484" s="29"/>
     </row>
     <row r="485">
-      <c r="B485" s="28"/>
+      <c r="B485" s="29"/>
     </row>
     <row r="486">
-      <c r="B486" s="28"/>
+      <c r="B486" s="29"/>
     </row>
     <row r="487">
-      <c r="B487" s="28"/>
+      <c r="B487" s="29"/>
     </row>
     <row r="488">
-      <c r="B488" s="28"/>
+      <c r="B488" s="29"/>
     </row>
     <row r="489">
-      <c r="B489" s="28"/>
+      <c r="B489" s="29"/>
     </row>
     <row r="490">
-      <c r="B490" s="28"/>
+      <c r="B490" s="29"/>
     </row>
     <row r="491">
-      <c r="B491" s="28"/>
+      <c r="B491" s="29"/>
     </row>
     <row r="492">
-      <c r="B492" s="28"/>
+      <c r="B492" s="29"/>
     </row>
     <row r="493">
-      <c r="B493" s="28"/>
+      <c r="B493" s="29"/>
     </row>
     <row r="494">
-      <c r="B494" s="28"/>
+      <c r="B494" s="29"/>
     </row>
     <row r="495">
-      <c r="B495" s="28"/>
+      <c r="B495" s="29"/>
     </row>
     <row r="496">
-      <c r="B496" s="28"/>
+      <c r="B496" s="29"/>
     </row>
     <row r="497">
-      <c r="B497" s="28"/>
+      <c r="B497" s="29"/>
     </row>
     <row r="498">
-      <c r="B498" s="28"/>
+      <c r="B498" s="29"/>
     </row>
     <row r="499">
-      <c r="B499" s="28"/>
+      <c r="B499" s="29"/>
     </row>
     <row r="500">
-      <c r="B500" s="28"/>
+      <c r="B500" s="29"/>
     </row>
     <row r="501">
-      <c r="B501" s="28"/>
+      <c r="B501" s="29"/>
     </row>
     <row r="502">
-      <c r="B502" s="28"/>
+      <c r="B502" s="29"/>
     </row>
     <row r="503">
-      <c r="B503" s="28"/>
+      <c r="B503" s="29"/>
     </row>
     <row r="504">
-      <c r="B504" s="28"/>
+      <c r="B504" s="29"/>
     </row>
     <row r="505">
-      <c r="B505" s="28"/>
+      <c r="B505" s="29"/>
     </row>
     <row r="506">
-      <c r="B506" s="28"/>
+      <c r="B506" s="29"/>
     </row>
     <row r="507">
-      <c r="B507" s="28"/>
+      <c r="B507" s="29"/>
     </row>
     <row r="508">
-      <c r="B508" s="28"/>
+      <c r="B508" s="29"/>
     </row>
     <row r="509">
-      <c r="B509" s="28"/>
+      <c r="B509" s="29"/>
     </row>
     <row r="510">
-      <c r="B510" s="28"/>
+      <c r="B510" s="29"/>
     </row>
     <row r="511">
-      <c r="B511" s="28"/>
+      <c r="B511" s="29"/>
     </row>
     <row r="512">
-      <c r="B512" s="28"/>
+      <c r="B512" s="29"/>
     </row>
     <row r="513">
-      <c r="B513" s="28"/>
+      <c r="B513" s="29"/>
     </row>
     <row r="514">
-      <c r="B514" s="28"/>
+      <c r="B514" s="29"/>
     </row>
     <row r="515">
-      <c r="B515" s="28"/>
+      <c r="B515" s="29"/>
     </row>
     <row r="516">
-      <c r="B516" s="28"/>
+      <c r="B516" s="29"/>
     </row>
     <row r="517">
-      <c r="B517" s="28"/>
+      <c r="B517" s="29"/>
     </row>
     <row r="518">
-      <c r="B518" s="28"/>
+      <c r="B518" s="29"/>
     </row>
     <row r="519">
-      <c r="B519" s="28"/>
+      <c r="B519" s="29"/>
     </row>
     <row r="520">
-      <c r="B520" s="28"/>
+      <c r="B520" s="29"/>
     </row>
     <row r="521">
-      <c r="B521" s="28"/>
+      <c r="B521" s="29"/>
     </row>
     <row r="522">
-      <c r="B522" s="28"/>
+      <c r="B522" s="29"/>
     </row>
     <row r="523">
-      <c r="B523" s="28"/>
+      <c r="B523" s="29"/>
     </row>
     <row r="524">
-      <c r="B524" s="28"/>
+      <c r="B524" s="29"/>
     </row>
     <row r="525">
-      <c r="B525" s="28"/>
+      <c r="B525" s="29"/>
     </row>
     <row r="526">
-      <c r="B526" s="28"/>
+      <c r="B526" s="29"/>
     </row>
     <row r="527">
-      <c r="B527" s="28"/>
+      <c r="B527" s="29"/>
     </row>
     <row r="528">
-      <c r="B528" s="28"/>
+      <c r="B528" s="29"/>
     </row>
     <row r="529">
-      <c r="B529" s="28"/>
+      <c r="B529" s="29"/>
     </row>
     <row r="530">
-      <c r="B530" s="28"/>
+      <c r="B530" s="29"/>
     </row>
     <row r="531">
-      <c r="B531" s="28"/>
+      <c r="B531" s="29"/>
     </row>
     <row r="532">
-      <c r="B532" s="28"/>
+      <c r="B532" s="29"/>
     </row>
     <row r="533">
-      <c r="B533" s="28"/>
+      <c r="B533" s="29"/>
     </row>
     <row r="534">
-      <c r="B534" s="28"/>
+      <c r="B534" s="29"/>
     </row>
     <row r="535">
-      <c r="B535" s="28"/>
+      <c r="B535" s="29"/>
     </row>
     <row r="536">
-      <c r="B536" s="28"/>
+      <c r="B536" s="29"/>
     </row>
     <row r="537">
-      <c r="B537" s="28"/>
+      <c r="B537" s="29"/>
     </row>
     <row r="538">
-      <c r="B538" s="28"/>
+      <c r="B538" s="29"/>
     </row>
     <row r="539">
-      <c r="B539" s="28"/>
+      <c r="B539" s="29"/>
     </row>
     <row r="540">
-      <c r="B540" s="28"/>
+      <c r="B540" s="29"/>
     </row>
     <row r="541">
-      <c r="B541" s="28"/>
+      <c r="B541" s="29"/>
     </row>
     <row r="542">
-      <c r="B542" s="28"/>
+      <c r="B542" s="29"/>
     </row>
     <row r="543">
-      <c r="B543" s="28"/>
+      <c r="B543" s="29"/>
     </row>
     <row r="544">
-      <c r="B544" s="28"/>
+      <c r="B544" s="29"/>
     </row>
     <row r="545">
-      <c r="B545" s="28"/>
+      <c r="B545" s="29"/>
     </row>
     <row r="546">
-      <c r="B546" s="28"/>
+      <c r="B546" s="29"/>
     </row>
     <row r="547">
-      <c r="B547" s="28"/>
+      <c r="B547" s="29"/>
     </row>
     <row r="548">
-      <c r="B548" s="28"/>
+      <c r="B548" s="29"/>
     </row>
     <row r="549">
-      <c r="B549" s="28"/>
+      <c r="B549" s="29"/>
     </row>
     <row r="550">
-      <c r="B550" s="28"/>
+      <c r="B550" s="29"/>
     </row>
     <row r="551">
-      <c r="B551" s="28"/>
+      <c r="B551" s="29"/>
     </row>
     <row r="552">
-      <c r="B552" s="28"/>
+      <c r="B552" s="29"/>
     </row>
     <row r="553">
-      <c r="B553" s="28"/>
+      <c r="B553" s="29"/>
     </row>
     <row r="554">
-      <c r="B554" s="28"/>
+      <c r="B554" s="29"/>
     </row>
     <row r="555">
-      <c r="B555" s="28"/>
+      <c r="B555" s="29"/>
     </row>
     <row r="556">
-      <c r="B556" s="28"/>
+      <c r="B556" s="29"/>
     </row>
     <row r="557">
-      <c r="B557" s="28"/>
+      <c r="B557" s="29"/>
     </row>
     <row r="558">
-      <c r="B558" s="28"/>
+      <c r="B558" s="29"/>
     </row>
     <row r="559">
-      <c r="B559" s="28"/>
+      <c r="B559" s="29"/>
     </row>
     <row r="560">
-      <c r="B560" s="28"/>
+      <c r="B560" s="29"/>
     </row>
     <row r="561">
-      <c r="B561" s="28"/>
+      <c r="B561" s="29"/>
     </row>
     <row r="562">
-      <c r="B562" s="28"/>
+      <c r="B562" s="29"/>
     </row>
     <row r="563">
-      <c r="B563" s="28"/>
+      <c r="B563" s="29"/>
     </row>
     <row r="564">
-      <c r="B564" s="28"/>
+      <c r="B564" s="29"/>
     </row>
     <row r="565">
-      <c r="B565" s="28"/>
+      <c r="B565" s="29"/>
     </row>
     <row r="566">
-      <c r="B566" s="28"/>
+      <c r="B566" s="29"/>
     </row>
     <row r="567">
-      <c r="B567" s="28"/>
+      <c r="B567" s="29"/>
     </row>
     <row r="568">
-      <c r="B568" s="28"/>
+      <c r="B568" s="29"/>
     </row>
     <row r="569">
-      <c r="B569" s="28"/>
+      <c r="B569" s="29"/>
     </row>
     <row r="570">
-      <c r="B570" s="28"/>
+      <c r="B570" s="29"/>
     </row>
     <row r="571">
-      <c r="B571" s="28"/>
+      <c r="B571" s="29"/>
     </row>
     <row r="572">
-      <c r="B572" s="28"/>
+      <c r="B572" s="29"/>
     </row>
     <row r="573">
-      <c r="B573" s="28"/>
+      <c r="B573" s="29"/>
     </row>
     <row r="574">
-      <c r="B574" s="28"/>
+      <c r="B574" s="29"/>
     </row>
     <row r="575">
-      <c r="B575" s="28"/>
+      <c r="B575" s="29"/>
     </row>
     <row r="576">
-      <c r="B576" s="28"/>
+      <c r="B576" s="29"/>
     </row>
     <row r="577">
-      <c r="B577" s="28"/>
+      <c r="B577" s="29"/>
     </row>
     <row r="578">
-      <c r="B578" s="28"/>
+      <c r="B578" s="29"/>
     </row>
     <row r="579">
-      <c r="B579" s="28"/>
+      <c r="B579" s="29"/>
     </row>
     <row r="580">
-      <c r="B580" s="28"/>
+      <c r="B580" s="29"/>
     </row>
     <row r="581">
-      <c r="B581" s="28"/>
+      <c r="B581" s="29"/>
     </row>
     <row r="582">
-      <c r="B582" s="28"/>
+      <c r="B582" s="29"/>
     </row>
     <row r="583">
-      <c r="B583" s="28"/>
+      <c r="B583" s="29"/>
     </row>
     <row r="584">
-      <c r="B584" s="28"/>
+      <c r="B584" s="29"/>
     </row>
     <row r="585">
-      <c r="B585" s="28"/>
+      <c r="B585" s="29"/>
     </row>
     <row r="586">
-      <c r="B586" s="28"/>
+      <c r="B586" s="29"/>
     </row>
     <row r="587">
-      <c r="B587" s="28"/>
+      <c r="B587" s="29"/>
     </row>
     <row r="588">
-      <c r="B588" s="28"/>
+      <c r="B588" s="29"/>
     </row>
     <row r="589">
-      <c r="B589" s="28"/>
+      <c r="B589" s="29"/>
     </row>
     <row r="590">
-      <c r="B590" s="28"/>
+      <c r="B590" s="29"/>
     </row>
     <row r="591">
-      <c r="B591" s="28"/>
+      <c r="B591" s="29"/>
     </row>
     <row r="592">
-      <c r="B592" s="28"/>
+      <c r="B592" s="29"/>
     </row>
     <row r="593">
-      <c r="B593" s="28"/>
+      <c r="B593" s="29"/>
     </row>
     <row r="594">
-      <c r="B594" s="28"/>
+      <c r="B594" s="29"/>
     </row>
     <row r="595">
-      <c r="B595" s="28"/>
+      <c r="B595" s="29"/>
     </row>
     <row r="596">
-      <c r="B596" s="28"/>
+      <c r="B596" s="29"/>
     </row>
     <row r="597">
-      <c r="B597" s="28"/>
+      <c r="B597" s="29"/>
     </row>
     <row r="598">
-      <c r="B598" s="28"/>
+      <c r="B598" s="29"/>
     </row>
     <row r="599">
-      <c r="B599" s="28"/>
+      <c r="B599" s="29"/>
     </row>
     <row r="600">
-      <c r="B600" s="28"/>
+      <c r="B600" s="29"/>
     </row>
     <row r="601">
-      <c r="B601" s="28"/>
+      <c r="B601" s="29"/>
     </row>
     <row r="602">
-      <c r="B602" s="28"/>
+      <c r="B602" s="29"/>
     </row>
     <row r="603">
-      <c r="B603" s="28"/>
+      <c r="B603" s="29"/>
     </row>
     <row r="604">
-      <c r="B604" s="28"/>
+      <c r="B604" s="29"/>
     </row>
     <row r="605">
-      <c r="B605" s="28"/>
+      <c r="B605" s="29"/>
     </row>
     <row r="606">
-      <c r="B606" s="28"/>
+      <c r="B606" s="29"/>
     </row>
     <row r="607">
-      <c r="B607" s="28"/>
+      <c r="B607" s="29"/>
     </row>
     <row r="608">
-      <c r="B608" s="28"/>
+      <c r="B608" s="29"/>
     </row>
     <row r="609">
-      <c r="B609" s="28"/>
+      <c r="B609" s="29"/>
     </row>
     <row r="610">
-      <c r="B610" s="28"/>
+      <c r="B610" s="29"/>
     </row>
     <row r="611">
-      <c r="B611" s="28"/>
+      <c r="B611" s="29"/>
     </row>
     <row r="612">
-      <c r="B612" s="28"/>
+      <c r="B612" s="29"/>
     </row>
     <row r="613">
-      <c r="B613" s="28"/>
+      <c r="B613" s="29"/>
     </row>
     <row r="614">
-      <c r="B614" s="28"/>
+      <c r="B614" s="29"/>
     </row>
     <row r="615">
-      <c r="B615" s="28"/>
+      <c r="B615" s="29"/>
     </row>
     <row r="616">
-      <c r="B616" s="28"/>
+      <c r="B616" s="29"/>
     </row>
     <row r="617">
-      <c r="B617" s="28"/>
+      <c r="B617" s="29"/>
     </row>
     <row r="618">
-      <c r="B618" s="28"/>
+      <c r="B618" s="29"/>
     </row>
     <row r="619">
-      <c r="B619" s="28"/>
+      <c r="B619" s="29"/>
     </row>
     <row r="620">
-      <c r="B620" s="28"/>
+      <c r="B620" s="29"/>
     </row>
     <row r="621">
-      <c r="B621" s="28"/>
+      <c r="B621" s="29"/>
     </row>
     <row r="622">
-      <c r="B622" s="28"/>
+      <c r="B622" s="29"/>
     </row>
     <row r="623">
-      <c r="B623" s="28"/>
+      <c r="B623" s="29"/>
     </row>
     <row r="624">
-      <c r="B624" s="28"/>
+      <c r="B624" s="29"/>
     </row>
     <row r="625">
-      <c r="B625" s="28"/>
+      <c r="B625" s="29"/>
     </row>
     <row r="626">
-      <c r="B626" s="28"/>
+      <c r="B626" s="29"/>
     </row>
     <row r="627">
-      <c r="B627" s="28"/>
+      <c r="B627" s="29"/>
     </row>
     <row r="628">
-      <c r="B628" s="28"/>
+      <c r="B628" s="29"/>
     </row>
     <row r="629">
-      <c r="B629" s="28"/>
+      <c r="B629" s="29"/>
     </row>
     <row r="630">
-      <c r="B630" s="28"/>
+      <c r="B630" s="29"/>
     </row>
     <row r="631">
-      <c r="B631" s="28"/>
+      <c r="B631" s="29"/>
     </row>
     <row r="632">
-      <c r="B632" s="28"/>
+      <c r="B632" s="29"/>
     </row>
     <row r="633">
-      <c r="B633" s="28"/>
+      <c r="B633" s="29"/>
     </row>
     <row r="634">
-      <c r="B634" s="28"/>
+      <c r="B634" s="29"/>
     </row>
     <row r="635">
-      <c r="B635" s="28"/>
+      <c r="B635" s="29"/>
     </row>
     <row r="636">
-      <c r="B636" s="28"/>
+      <c r="B636" s="29"/>
     </row>
     <row r="637">
-      <c r="B637" s="28"/>
+      <c r="B637" s="29"/>
     </row>
     <row r="638">
-      <c r="B638" s="28"/>
+      <c r="B638" s="29"/>
     </row>
     <row r="639">
-      <c r="B639" s="28"/>
+      <c r="B639" s="29"/>
     </row>
     <row r="640">
-      <c r="B640" s="28"/>
+      <c r="B640" s="29"/>
     </row>
     <row r="641">
-      <c r="B641" s="28"/>
+      <c r="B641" s="29"/>
     </row>
     <row r="642">
-      <c r="B642" s="28"/>
+      <c r="B642" s="29"/>
     </row>
     <row r="643">
-      <c r="B643" s="28"/>
+      <c r="B643" s="29"/>
     </row>
     <row r="644">
-      <c r="B644" s="28"/>
+      <c r="B644" s="29"/>
     </row>
     <row r="645">
-      <c r="B645" s="28"/>
+      <c r="B645" s="29"/>
     </row>
     <row r="646">
-      <c r="B646" s="28"/>
+      <c r="B646" s="29"/>
     </row>
     <row r="647">
-      <c r="B647" s="28"/>
+      <c r="B647" s="29"/>
     </row>
     <row r="648">
-      <c r="B648" s="28"/>
+      <c r="B648" s="29"/>
     </row>
     <row r="649">
-      <c r="B649" s="28"/>
+      <c r="B649" s="29"/>
     </row>
     <row r="650">
-      <c r="B650" s="28"/>
+      <c r="B650" s="29"/>
     </row>
     <row r="651">
-      <c r="B651" s="28"/>
+      <c r="B651" s="29"/>
     </row>
     <row r="652">
-      <c r="B652" s="28"/>
+      <c r="B652" s="29"/>
     </row>
     <row r="653">
-      <c r="B653" s="28"/>
+      <c r="B653" s="29"/>
     </row>
     <row r="654">
-      <c r="B654" s="28"/>
+      <c r="B654" s="29"/>
     </row>
     <row r="655">
-      <c r="B655" s="28"/>
+      <c r="B655" s="29"/>
     </row>
     <row r="656">
-      <c r="B656" s="28"/>
+      <c r="B656" s="29"/>
     </row>
     <row r="657">
-      <c r="B657" s="28"/>
+      <c r="B657" s="29"/>
     </row>
     <row r="658">
-      <c r="B658" s="28"/>
+      <c r="B658" s="29"/>
     </row>
     <row r="659">
-      <c r="B659" s="28"/>
+      <c r="B659" s="29"/>
     </row>
     <row r="660">
-      <c r="B660" s="28"/>
+      <c r="B660" s="29"/>
     </row>
     <row r="661">
-      <c r="B661" s="28"/>
+      <c r="B661" s="29"/>
     </row>
     <row r="662">
-      <c r="B662" s="28"/>
+      <c r="B662" s="29"/>
     </row>
     <row r="663">
-      <c r="B663" s="28"/>
+      <c r="B663" s="29"/>
     </row>
     <row r="664">
-      <c r="B664" s="28"/>
+      <c r="B664" s="29"/>
     </row>
     <row r="665">
-      <c r="B665" s="28"/>
+      <c r="B665" s="29"/>
     </row>
     <row r="666">
-      <c r="B666" s="28"/>
+      <c r="B666" s="29"/>
     </row>
     <row r="667">
-      <c r="B667" s="28"/>
+      <c r="B667" s="29"/>
     </row>
     <row r="668">
-      <c r="B668" s="28"/>
+      <c r="B668" s="29"/>
     </row>
     <row r="669">
-      <c r="B669" s="28"/>
+      <c r="B669" s="29"/>
     </row>
     <row r="670">
-      <c r="B670" s="28"/>
+      <c r="B670" s="29"/>
     </row>
     <row r="671">
-      <c r="B671" s="28"/>
+      <c r="B671" s="29"/>
     </row>
     <row r="672">
-      <c r="B672" s="28"/>
+      <c r="B672" s="29"/>
     </row>
     <row r="673">
-      <c r="B673" s="28"/>
+      <c r="B673" s="29"/>
     </row>
     <row r="674">
-      <c r="B674" s="28"/>
+      <c r="B674" s="29"/>
     </row>
     <row r="675">
-      <c r="B675" s="28"/>
+      <c r="B675" s="29"/>
     </row>
     <row r="676">
-      <c r="B676" s="28"/>
+      <c r="B676" s="29"/>
     </row>
     <row r="677">
-      <c r="B677" s="28"/>
+      <c r="B677" s="29"/>
     </row>
     <row r="678">
-      <c r="B678" s="28"/>
+      <c r="B678" s="29"/>
     </row>
     <row r="679">
-      <c r="B679" s="28"/>
+      <c r="B679" s="29"/>
     </row>
     <row r="680">
-      <c r="B680" s="28"/>
+      <c r="B680" s="29"/>
     </row>
     <row r="681">
-      <c r="B681" s="28"/>
+      <c r="B681" s="29"/>
     </row>
     <row r="682">
-      <c r="B682" s="28"/>
+      <c r="B682" s="29"/>
     </row>
     <row r="683">
-      <c r="B683" s="28"/>
+      <c r="B683" s="29"/>
     </row>
     <row r="684">
-      <c r="B684" s="28"/>
+      <c r="B684" s="29"/>
     </row>
     <row r="685">
-      <c r="B685" s="28"/>
+      <c r="B685" s="29"/>
     </row>
     <row r="686">
-      <c r="B686" s="28"/>
+      <c r="B686" s="29"/>
     </row>
     <row r="687">
-      <c r="B687" s="28"/>
+      <c r="B687" s="29"/>
     </row>
     <row r="688">
-      <c r="B688" s="28"/>
+      <c r="B688" s="29"/>
     </row>
     <row r="689">
-      <c r="B689" s="28"/>
+      <c r="B689" s="29"/>
     </row>
     <row r="690">
-      <c r="B690" s="28"/>
+      <c r="B690" s="29"/>
     </row>
     <row r="691">
-      <c r="B691" s="28"/>
+      <c r="B691" s="29"/>
     </row>
     <row r="692">
-      <c r="B692" s="28"/>
+      <c r="B692" s="29"/>
     </row>
     <row r="693">
-      <c r="B693" s="28"/>
+      <c r="B693" s="29"/>
     </row>
     <row r="694">
-      <c r="B694" s="28"/>
+      <c r="B694" s="29"/>
     </row>
     <row r="695">
-      <c r="B695" s="28"/>
+      <c r="B695" s="29"/>
     </row>
     <row r="696">
-      <c r="B696" s="28"/>
+      <c r="B696" s="29"/>
     </row>
     <row r="697">
-      <c r="B697" s="28"/>
+      <c r="B697" s="29"/>
     </row>
     <row r="698">
-      <c r="B698" s="28"/>
+      <c r="B698" s="29"/>
     </row>
     <row r="699">
-      <c r="B699" s="28"/>
+      <c r="B699" s="29"/>
     </row>
     <row r="700">
-      <c r="B700" s="28"/>
+      <c r="B700" s="29"/>
     </row>
     <row r="701">
-      <c r="B701" s="28"/>
+      <c r="B701" s="29"/>
     </row>
     <row r="702">
-      <c r="B702" s="28"/>
+      <c r="B702" s="29"/>
     </row>
     <row r="703">
-      <c r="B703" s="28"/>
+      <c r="B703" s="29"/>
     </row>
     <row r="704">
-      <c r="B704" s="28"/>
+      <c r="B704" s="29"/>
     </row>
     <row r="705">
-      <c r="B705" s="28"/>
+      <c r="B705" s="29"/>
     </row>
     <row r="706">
-      <c r="B706" s="28"/>
+      <c r="B706" s="29"/>
     </row>
     <row r="707">
-      <c r="B707" s="28"/>
+      <c r="B707" s="29"/>
     </row>
     <row r="708">
-      <c r="B708" s="28"/>
+      <c r="B708" s="29"/>
     </row>
     <row r="709">
-      <c r="B709" s="28"/>
+      <c r="B709" s="29"/>
     </row>
     <row r="710">
-      <c r="B710" s="28"/>
+      <c r="B710" s="29"/>
     </row>
     <row r="711">
-      <c r="B711" s="28"/>
+      <c r="B711" s="29"/>
     </row>
     <row r="712">
-      <c r="B712" s="28"/>
+      <c r="B712" s="29"/>
     </row>
     <row r="713">
-      <c r="B713" s="28"/>
+      <c r="B713" s="29"/>
     </row>
     <row r="714">
-      <c r="B714" s="28"/>
+      <c r="B714" s="29"/>
     </row>
     <row r="715">
-      <c r="B715" s="28"/>
+      <c r="B715" s="29"/>
     </row>
     <row r="716">
-      <c r="B716" s="28"/>
+      <c r="B716" s="29"/>
     </row>
     <row r="717">
-      <c r="B717" s="28"/>
+      <c r="B717" s="29"/>
     </row>
     <row r="718">
-      <c r="B718" s="28"/>
+      <c r="B718" s="29"/>
     </row>
     <row r="719">
-      <c r="B719" s="28"/>
+      <c r="B719" s="29"/>
     </row>
     <row r="720">
-      <c r="B720" s="28"/>
+      <c r="B720" s="29"/>
     </row>
     <row r="721">
-      <c r="B721" s="28"/>
+      <c r="B721" s="29"/>
     </row>
     <row r="722">
-      <c r="B722" s="28"/>
+      <c r="B722" s="29"/>
     </row>
     <row r="723">
-      <c r="B723" s="28"/>
+      <c r="B723" s="29"/>
     </row>
     <row r="724">
-      <c r="B724" s="28"/>
+      <c r="B724" s="29"/>
     </row>
     <row r="725">
-      <c r="B725" s="28"/>
+      <c r="B725" s="29"/>
     </row>
     <row r="726">
-      <c r="B726" s="28"/>
+      <c r="B726" s="29"/>
     </row>
     <row r="727">
-      <c r="B727" s="28"/>
+      <c r="B727" s="29"/>
     </row>
     <row r="728">
-      <c r="B728" s="28"/>
+      <c r="B728" s="29"/>
     </row>
     <row r="729">
-      <c r="B729" s="28"/>
+      <c r="B729" s="29"/>
     </row>
     <row r="730">
-      <c r="B730" s="28"/>
+      <c r="B730" s="29"/>
     </row>
     <row r="731">
-      <c r="B731" s="28"/>
+      <c r="B731" s="29"/>
     </row>
     <row r="732">
-      <c r="B732" s="28"/>
+      <c r="B732" s="29"/>
     </row>
     <row r="733">
-      <c r="B733" s="28"/>
+      <c r="B733" s="29"/>
     </row>
     <row r="734">
-      <c r="B734" s="28"/>
+      <c r="B734" s="29"/>
     </row>
     <row r="735">
-      <c r="B735" s="28"/>
+      <c r="B735" s="29"/>
     </row>
     <row r="736">
-      <c r="B736" s="28"/>
+      <c r="B736" s="29"/>
     </row>
     <row r="737">
-      <c r="B737" s="28"/>
+      <c r="B737" s="29"/>
     </row>
     <row r="738">
-      <c r="B738" s="28"/>
+      <c r="B738" s="29"/>
     </row>
     <row r="739">
-      <c r="B739" s="28"/>
+      <c r="B739" s="29"/>
     </row>
     <row r="740">
-      <c r="B740" s="28"/>
+      <c r="B740" s="29"/>
     </row>
     <row r="741">
-      <c r="B741" s="28"/>
+      <c r="B741" s="29"/>
     </row>
     <row r="742">
-      <c r="B742" s="28"/>
+      <c r="B742" s="29"/>
     </row>
     <row r="743">
-      <c r="B743" s="28"/>
+      <c r="B743" s="29"/>
     </row>
     <row r="744">
-      <c r="B744" s="28"/>
+      <c r="B744" s="29"/>
     </row>
     <row r="745">
-      <c r="B745" s="28"/>
+      <c r="B745" s="29"/>
     </row>
     <row r="746">
-      <c r="B746" s="28"/>
+      <c r="B746" s="29"/>
     </row>
     <row r="747">
-      <c r="B747" s="28"/>
+      <c r="B747" s="29"/>
     </row>
     <row r="748">
-      <c r="B748" s="28"/>
+      <c r="B748" s="29"/>
     </row>
     <row r="749">
-      <c r="B749" s="28"/>
+      <c r="B749" s="29"/>
     </row>
     <row r="750">
-      <c r="B750" s="28"/>
+      <c r="B750" s="29"/>
     </row>
     <row r="751">
-      <c r="B751" s="28"/>
+      <c r="B751" s="29"/>
     </row>
     <row r="752">
-      <c r="B752" s="28"/>
+      <c r="B752" s="29"/>
     </row>
     <row r="753">
-      <c r="B753" s="28"/>
+      <c r="B753" s="29"/>
     </row>
     <row r="754">
-      <c r="B754" s="28"/>
+      <c r="B754" s="29"/>
     </row>
     <row r="755">
-      <c r="B755" s="28"/>
+      <c r="B755" s="29"/>
     </row>
     <row r="756">
-      <c r="B756" s="28"/>
+      <c r="B756" s="29"/>
     </row>
     <row r="757">
-      <c r="B757" s="28"/>
+      <c r="B757" s="29"/>
     </row>
     <row r="758">
-      <c r="B758" s="28"/>
+      <c r="B758" s="29"/>
     </row>
     <row r="759">
-      <c r="B759" s="28"/>
+      <c r="B759" s="29"/>
     </row>
     <row r="760">
-      <c r="B760" s="28"/>
+      <c r="B760" s="29"/>
     </row>
     <row r="761">
-      <c r="B761" s="28"/>
+      <c r="B761" s="29"/>
     </row>
     <row r="762">
-      <c r="B762" s="28"/>
+      <c r="B762" s="29"/>
     </row>
     <row r="763">
-      <c r="B763" s="28"/>
+      <c r="B763" s="29"/>
     </row>
     <row r="764">
-      <c r="B764" s="28"/>
+      <c r="B764" s="29"/>
     </row>
     <row r="765">
-      <c r="B765" s="28"/>
+      <c r="B765" s="29"/>
     </row>
     <row r="766">
-      <c r="B766" s="28"/>
+      <c r="B766" s="29"/>
     </row>
     <row r="767">
-      <c r="B767" s="28"/>
+      <c r="B767" s="29"/>
     </row>
     <row r="768">
-      <c r="B768" s="28"/>
+      <c r="B768" s="29"/>
     </row>
     <row r="769">
-      <c r="B769" s="28"/>
+      <c r="B769" s="29"/>
     </row>
     <row r="770">
-      <c r="B770" s="28"/>
+      <c r="B770" s="29"/>
     </row>
     <row r="771">
-      <c r="B771" s="28"/>
+      <c r="B771" s="29"/>
     </row>
     <row r="772">
-      <c r="B772" s="28"/>
+      <c r="B772" s="29"/>
     </row>
     <row r="773">
-      <c r="B773" s="28"/>
+      <c r="B773" s="29"/>
     </row>
     <row r="774">
-      <c r="B774" s="28"/>
+      <c r="B774" s="29"/>
     </row>
     <row r="775">
-      <c r="B775" s="28"/>
+      <c r="B775" s="29"/>
     </row>
     <row r="776">
-      <c r="B776" s="28"/>
+      <c r="B776" s="29"/>
     </row>
     <row r="777">
-      <c r="B777" s="28"/>
+      <c r="B777" s="29"/>
     </row>
     <row r="778">
-      <c r="B778" s="28"/>
+      <c r="B778" s="29"/>
     </row>
     <row r="779">
-      <c r="B779" s="28"/>
+      <c r="B779" s="29"/>
     </row>
     <row r="780">
-      <c r="B780" s="28"/>
+      <c r="B780" s="29"/>
     </row>
     <row r="781">
-      <c r="B781" s="28"/>
+      <c r="B781" s="29"/>
     </row>
     <row r="782">
-      <c r="B782" s="28"/>
+      <c r="B782" s="29"/>
     </row>
     <row r="783">
-      <c r="B783" s="28"/>
+      <c r="B783" s="29"/>
     </row>
     <row r="784">
-      <c r="B784" s="28"/>
+      <c r="B784" s="29"/>
     </row>
     <row r="785">
-      <c r="B785" s="28"/>
+      <c r="B785" s="29"/>
     </row>
     <row r="786">
-      <c r="B786" s="28"/>
+      <c r="B786" s="29"/>
     </row>
     <row r="787">
-      <c r="B787" s="28"/>
+      <c r="B787" s="29"/>
     </row>
     <row r="788">
-      <c r="B788" s="28"/>
+      <c r="B788" s="29"/>
     </row>
     <row r="789">
-      <c r="B789" s="28"/>
+      <c r="B789" s="29"/>
     </row>
     <row r="790">
-      <c r="B790" s="28"/>
+      <c r="B790" s="29"/>
     </row>
     <row r="791">
-      <c r="B791" s="28"/>
+      <c r="B791" s="29"/>
     </row>
     <row r="792">
-      <c r="B792" s="28"/>
+      <c r="B792" s="29"/>
     </row>
     <row r="793">
-      <c r="B793" s="28"/>
+      <c r="B793" s="29"/>
     </row>
     <row r="794">
-      <c r="B794" s="28"/>
+      <c r="B794" s="29"/>
     </row>
     <row r="795">
-      <c r="B795" s="28"/>
+      <c r="B795" s="29"/>
     </row>
     <row r="796">
-      <c r="B796" s="28"/>
+      <c r="B796" s="29"/>
     </row>
     <row r="797">
-      <c r="B797" s="28"/>
+      <c r="B797" s="29"/>
     </row>
     <row r="798">
-      <c r="B798" s="28"/>
+      <c r="B798" s="29"/>
     </row>
     <row r="799">
-      <c r="B799" s="28"/>
+      <c r="B799" s="29"/>
     </row>
     <row r="800">
-      <c r="B800" s="28"/>
+      <c r="B800" s="29"/>
     </row>
     <row r="801">
-      <c r="B801" s="28"/>
+      <c r="B801" s="29"/>
     </row>
     <row r="802">
-      <c r="B802" s="28"/>
+      <c r="B802" s="29"/>
     </row>
     <row r="803">
-      <c r="B803" s="28"/>
+      <c r="B803" s="29"/>
     </row>
     <row r="804">
-      <c r="B804" s="28"/>
+      <c r="B804" s="29"/>
     </row>
     <row r="805">
-      <c r="B805" s="28"/>
+      <c r="B805" s="29"/>
     </row>
     <row r="806">
-      <c r="B806" s="28"/>
+      <c r="B806" s="29"/>
     </row>
     <row r="807">
-      <c r="B807" s="28"/>
+      <c r="B807" s="29"/>
     </row>
     <row r="808">
-      <c r="B808" s="28"/>
+      <c r="B808" s="29"/>
     </row>
     <row r="809">
-      <c r="B809" s="28"/>
+      <c r="B809" s="29"/>
     </row>
     <row r="810">
-      <c r="B810" s="28"/>
+      <c r="B810" s="29"/>
     </row>
     <row r="811">
-      <c r="B811" s="28"/>
+      <c r="B811" s="29"/>
     </row>
     <row r="812">
-      <c r="B812" s="28"/>
+      <c r="B812" s="29"/>
     </row>
     <row r="813">
-      <c r="B813" s="28"/>
+      <c r="B813" s="29"/>
     </row>
     <row r="814">
-      <c r="B814" s="28"/>
+      <c r="B814" s="29"/>
     </row>
     <row r="815">
-      <c r="B815" s="28"/>
+      <c r="B815" s="29"/>
     </row>
     <row r="816">
-      <c r="B816" s="28"/>
+      <c r="B816" s="29"/>
     </row>
     <row r="817">
-      <c r="B817" s="28"/>
+      <c r="B817" s="29"/>
     </row>
     <row r="818">
-      <c r="B818" s="28"/>
+      <c r="B818" s="29"/>
     </row>
     <row r="819">
-      <c r="B819" s="28"/>
+      <c r="B819" s="29"/>
     </row>
     <row r="820">
-      <c r="B820" s="28"/>
+      <c r="B820" s="29"/>
     </row>
     <row r="821">
-      <c r="B821" s="28"/>
+      <c r="B821" s="29"/>
     </row>
     <row r="822">
-      <c r="B822" s="28"/>
+      <c r="B822" s="29"/>
     </row>
     <row r="823">
-      <c r="B823" s="28"/>
+      <c r="B823" s="29"/>
     </row>
     <row r="824">
-      <c r="B824" s="28"/>
+      <c r="B824" s="29"/>
     </row>
     <row r="825">
-      <c r="B825" s="28"/>
+      <c r="B825" s="29"/>
     </row>
     <row r="826">
-      <c r="B826" s="28"/>
+      <c r="B826" s="29"/>
     </row>
     <row r="827">
-      <c r="B827" s="28"/>
+      <c r="B827" s="29"/>
     </row>
     <row r="828">
-      <c r="B828" s="28"/>
+      <c r="B828" s="29"/>
     </row>
     <row r="829">
-      <c r="B829" s="28"/>
+      <c r="B829" s="29"/>
     </row>
     <row r="830">
-      <c r="B830" s="28"/>
+      <c r="B830" s="29"/>
     </row>
     <row r="831">
-      <c r="B831" s="28"/>
+      <c r="B831" s="29"/>
     </row>
     <row r="832">
-      <c r="B832" s="28"/>
+      <c r="B832" s="29"/>
     </row>
     <row r="833">
-      <c r="B833" s="28"/>
+      <c r="B833" s="29"/>
     </row>
     <row r="834">
-      <c r="B834" s="28"/>
+      <c r="B834" s="29"/>
     </row>
     <row r="835">
-      <c r="B835" s="28"/>
+      <c r="B835" s="29"/>
     </row>
     <row r="836">
-      <c r="B836" s="28"/>
+      <c r="B836" s="29"/>
     </row>
     <row r="837">
-      <c r="B837" s="28"/>
+      <c r="B837" s="29"/>
     </row>
     <row r="838">
-      <c r="B838" s="28"/>
+      <c r="B838" s="29"/>
     </row>
     <row r="839">
-      <c r="B839" s="28"/>
+      <c r="B839" s="29"/>
     </row>
     <row r="840">
-      <c r="B840" s="28"/>
+      <c r="B840" s="29"/>
     </row>
     <row r="841">
-      <c r="B841" s="28"/>
+      <c r="B841" s="29"/>
     </row>
     <row r="842">
-      <c r="B842" s="28"/>
+      <c r="B842" s="29"/>
     </row>
     <row r="843">
-      <c r="B843" s="28"/>
+      <c r="B843" s="29"/>
     </row>
     <row r="844">
-      <c r="B844" s="28"/>
+      <c r="B844" s="29"/>
     </row>
     <row r="845">
-      <c r="B845" s="28"/>
+      <c r="B845" s="29"/>
     </row>
     <row r="846">
-      <c r="B846" s="28"/>
+      <c r="B846" s="29"/>
     </row>
     <row r="847">
-      <c r="B847" s="28"/>
+      <c r="B847" s="29"/>
     </row>
     <row r="848">
-      <c r="B848" s="28"/>
+      <c r="B848" s="29"/>
     </row>
     <row r="849">
-      <c r="B849" s="28"/>
+      <c r="B849" s="29"/>
     </row>
     <row r="850">
-      <c r="B850" s="28"/>
+      <c r="B850" s="29"/>
     </row>
     <row r="851">
-      <c r="B851" s="28"/>
+      <c r="B851" s="29"/>
     </row>
     <row r="852">
-      <c r="B852" s="28"/>
+      <c r="B852" s="29"/>
     </row>
     <row r="853">
-      <c r="B853" s="28"/>
+      <c r="B853" s="29"/>
     </row>
     <row r="854">
-      <c r="B854" s="28"/>
+      <c r="B854" s="29"/>
     </row>
     <row r="855">
-      <c r="B855" s="28"/>
+      <c r="B855" s="29"/>
     </row>
     <row r="856">
-      <c r="B856" s="28"/>
+      <c r="B856" s="29"/>
     </row>
     <row r="857">
-      <c r="B857" s="28"/>
+      <c r="B857" s="29"/>
     </row>
     <row r="858">
-      <c r="B858" s="28"/>
+      <c r="B858" s="29"/>
     </row>
     <row r="859">
-      <c r="B859" s="28"/>
+      <c r="B859" s="29"/>
     </row>
     <row r="860">
-      <c r="B860" s="28"/>
+      <c r="B860" s="29"/>
     </row>
     <row r="861">
-      <c r="B861" s="28"/>
+      <c r="B861" s="29"/>
     </row>
     <row r="862">
-      <c r="B862" s="28"/>
+      <c r="B862" s="29"/>
     </row>
     <row r="863">
-      <c r="B863" s="28"/>
+      <c r="B863" s="29"/>
     </row>
     <row r="864">
-      <c r="B864" s="28"/>
+      <c r="B864" s="29"/>
     </row>
     <row r="865">
-      <c r="B865" s="28"/>
+      <c r="B865" s="29"/>
     </row>
     <row r="866">
-      <c r="B866" s="28"/>
+      <c r="B866" s="29"/>
     </row>
     <row r="867">
-      <c r="B867" s="28"/>
+      <c r="B867" s="29"/>
     </row>
     <row r="868">
-      <c r="B868" s="28"/>
+      <c r="B868" s="29"/>
     </row>
     <row r="869">
-      <c r="B869" s="28"/>
+      <c r="B869" s="29"/>
     </row>
     <row r="870">
-      <c r="B870" s="28"/>
+      <c r="B870" s="29"/>
     </row>
     <row r="871">
-      <c r="B871" s="28"/>
+      <c r="B871" s="29"/>
     </row>
     <row r="872">
-      <c r="B872" s="28"/>
+      <c r="B872" s="29"/>
     </row>
     <row r="873">
-      <c r="B873" s="28"/>
+      <c r="B873" s="29"/>
     </row>
     <row r="874">
-      <c r="B874" s="28"/>
+      <c r="B874" s="29"/>
     </row>
     <row r="875">
-      <c r="B875" s="28"/>
+      <c r="B875" s="29"/>
     </row>
     <row r="876">
-      <c r="B876" s="28"/>
+      <c r="B876" s="29"/>
     </row>
     <row r="877">
-      <c r="B877" s="28"/>
+      <c r="B877" s="29"/>
     </row>
     <row r="878">
-      <c r="B878" s="28"/>
+      <c r="B878" s="29"/>
     </row>
     <row r="879">
-      <c r="B879" s="28"/>
+      <c r="B879" s="29"/>
     </row>
     <row r="880">
-      <c r="B880" s="28"/>
+      <c r="B880" s="29"/>
     </row>
     <row r="881">
-      <c r="B881" s="28"/>
+      <c r="B881" s="29"/>
     </row>
     <row r="882">
-      <c r="B882" s="28"/>
+      <c r="B882" s="29"/>
     </row>
     <row r="883">
-      <c r="B883" s="28"/>
+      <c r="B883" s="29"/>
     </row>
     <row r="884">
-      <c r="B884" s="28"/>
+      <c r="B884" s="29"/>
     </row>
     <row r="885">
-      <c r="B885" s="28"/>
+      <c r="B885" s="29"/>
     </row>
     <row r="886">
-      <c r="B886" s="28"/>
+      <c r="B886" s="29"/>
     </row>
     <row r="887">
-      <c r="B887" s="28"/>
+      <c r="B887" s="29"/>
     </row>
     <row r="888">
-      <c r="B888" s="28"/>
+      <c r="B888" s="29"/>
     </row>
     <row r="889">
-      <c r="B889" s="28"/>
+      <c r="B889" s="29"/>
     </row>
     <row r="890">
-      <c r="B890" s="28"/>
+      <c r="B890" s="29"/>
     </row>
     <row r="891">
-      <c r="B891" s="28"/>
+      <c r="B891" s="29"/>
     </row>
     <row r="892">
-      <c r="B892" s="28"/>
+      <c r="B892" s="29"/>
     </row>
     <row r="893">
-      <c r="B893" s="28"/>
+      <c r="B893" s="29"/>
     </row>
     <row r="894">
-      <c r="B894" s="28"/>
+      <c r="B894" s="29"/>
     </row>
     <row r="895">
-      <c r="B895" s="28"/>
+      <c r="B895" s="29"/>
     </row>
     <row r="896">
-      <c r="B896" s="28"/>
+      <c r="B896" s="29"/>
     </row>
     <row r="897">
-      <c r="B897" s="28"/>
+      <c r="B897" s="29"/>
     </row>
     <row r="898">
-      <c r="B898" s="28"/>
+      <c r="B898" s="29"/>
     </row>
     <row r="899">
-      <c r="B899" s="28"/>
+      <c r="B899" s="29"/>
     </row>
     <row r="900">
-      <c r="B900" s="28"/>
+      <c r="B900" s="29"/>
     </row>
     <row r="901">
-      <c r="B901" s="28"/>
+      <c r="B901" s="29"/>
     </row>
     <row r="902">
-      <c r="B902" s="28"/>
+      <c r="B902" s="29"/>
     </row>
     <row r="903">
-      <c r="B903" s="28"/>
+      <c r="B903" s="29"/>
     </row>
     <row r="904">
-      <c r="B904" s="28"/>
+      <c r="B904" s="29"/>
     </row>
     <row r="905">
-      <c r="B905" s="28"/>
+      <c r="B905" s="29"/>
     </row>
     <row r="906">
-      <c r="B906" s="28"/>
+      <c r="B906" s="29"/>
     </row>
     <row r="907">
-      <c r="B907" s="28"/>
+      <c r="B907" s="29"/>
     </row>
     <row r="908">
-      <c r="B908" s="28"/>
+      <c r="B908" s="29"/>
     </row>
     <row r="909">
-      <c r="B909" s="28"/>
+      <c r="B909" s="29"/>
     </row>
     <row r="910">
-      <c r="B910" s="28"/>
+      <c r="B910" s="29"/>
     </row>
     <row r="911">
-      <c r="B911" s="28"/>
+      <c r="B911" s="29"/>
     </row>
     <row r="912">
-      <c r="B912" s="28"/>
+      <c r="B912" s="29"/>
     </row>
     <row r="913">
-      <c r="B913" s="28"/>
+      <c r="B913" s="29"/>
     </row>
     <row r="914">
-      <c r="B914" s="28"/>
+      <c r="B914" s="29"/>
     </row>
     <row r="915">
-      <c r="B915" s="28"/>
+      <c r="B915" s="29"/>
     </row>
     <row r="916">
-      <c r="B916" s="28"/>
+      <c r="B916" s="29"/>
     </row>
     <row r="917">
-      <c r="B917" s="28"/>
+      <c r="B917" s="29"/>
     </row>
     <row r="918">
-      <c r="B918" s="28"/>
+      <c r="B918" s="29"/>
     </row>
     <row r="919">
-      <c r="B919" s="28"/>
+      <c r="B919" s="29"/>
     </row>
     <row r="920">
-      <c r="B920" s="28"/>
+      <c r="B920" s="29"/>
     </row>
     <row r="921">
-      <c r="B921" s="28"/>
+      <c r="B921" s="29"/>
     </row>
     <row r="922">
-      <c r="B922" s="28"/>
+      <c r="B922" s="29"/>
     </row>
     <row r="923">
-      <c r="B923" s="28"/>
+      <c r="B923" s="29"/>
     </row>
     <row r="924">
-      <c r="B924" s="28"/>
+      <c r="B924" s="29"/>
     </row>
     <row r="925">
-      <c r="B925" s="28"/>
+      <c r="B925" s="29"/>
     </row>
     <row r="926">
-      <c r="B926" s="28"/>
+      <c r="B926" s="29"/>
     </row>
     <row r="927">
-      <c r="B927" s="28"/>
+      <c r="B927" s="29"/>
     </row>
     <row r="928">
-      <c r="B928" s="28"/>
+      <c r="B928" s="29"/>
     </row>
     <row r="929">
-      <c r="B929" s="28"/>
+      <c r="B929" s="29"/>
     </row>
     <row r="930">
-      <c r="B930" s="28"/>
+      <c r="B930" s="29"/>
     </row>
     <row r="931">
-      <c r="B931" s="28"/>
+      <c r="B931" s="29"/>
     </row>
     <row r="932">
-      <c r="B932" s="28"/>
+      <c r="B932" s="29"/>
     </row>
     <row r="933">
-      <c r="B933" s="28"/>
+      <c r="B933" s="29"/>
     </row>
     <row r="934">
-      <c r="B934" s="28"/>
+      <c r="B934" s="29"/>
     </row>
     <row r="935">
-      <c r="B935" s="28"/>
+      <c r="B935" s="29"/>
     </row>
     <row r="936">
-      <c r="B936" s="28"/>
+      <c r="B936" s="29"/>
     </row>
     <row r="937">
-      <c r="B937" s="28"/>
+      <c r="B937" s="29"/>
     </row>
     <row r="938">
-      <c r="B938" s="28"/>
+      <c r="B938" s="29"/>
     </row>
     <row r="939">
-      <c r="B939" s="28"/>
+      <c r="B939" s="29"/>
     </row>
     <row r="940">
-      <c r="B940" s="28"/>
+      <c r="B940" s="29"/>
     </row>
     <row r="941">
-      <c r="B941" s="28"/>
+      <c r="B941" s="29"/>
     </row>
     <row r="942">
-      <c r="B942" s="28"/>
+      <c r="B942" s="29"/>
     </row>
     <row r="943">
-      <c r="B943" s="28"/>
+      <c r="B943" s="29"/>
     </row>
     <row r="944">
-      <c r="B944" s="28"/>
+      <c r="B944" s="29"/>
     </row>
     <row r="945">
-      <c r="B945" s="28"/>
+      <c r="B945" s="29"/>
     </row>
     <row r="946">
-      <c r="B946" s="28"/>
+      <c r="B946" s="29"/>
     </row>
     <row r="947">
-      <c r="B947" s="28"/>
+      <c r="B947" s="29"/>
     </row>
     <row r="948">
-      <c r="B948" s="28"/>
+      <c r="B948" s="29"/>
     </row>
     <row r="949">
-      <c r="B949" s="28"/>
+      <c r="B949" s="29"/>
     </row>
     <row r="950">
-      <c r="B950" s="28"/>
+      <c r="B950" s="29"/>
     </row>
     <row r="951">
-      <c r="B951" s="28"/>
+      <c r="B951" s="29"/>
     </row>
     <row r="952">
-      <c r="B952" s="28"/>
+      <c r="B952" s="29"/>
     </row>
     <row r="953">
-      <c r="B953" s="28"/>
+      <c r="B953" s="29"/>
     </row>
     <row r="954">
-      <c r="B954" s="28"/>
+      <c r="B954" s="29"/>
     </row>
     <row r="955">
-      <c r="B955" s="28"/>
+      <c r="B955" s="29"/>
     </row>
     <row r="956">
-      <c r="B956" s="28"/>
+      <c r="B956" s="29"/>
     </row>
     <row r="957">
-      <c r="B957" s="28"/>
+      <c r="B957" s="29"/>
     </row>
     <row r="958">
-      <c r="B958" s="28"/>
+      <c r="B958" s="29"/>
     </row>
     <row r="959">
-      <c r="B959" s="28"/>
+      <c r="B959" s="29"/>
     </row>
     <row r="960">
-      <c r="B960" s="28"/>
+      <c r="B960" s="29"/>
     </row>
     <row r="961">
-      <c r="B961" s="28"/>
+      <c r="B961" s="29"/>
     </row>
     <row r="962">
-      <c r="B962" s="28"/>
+      <c r="B962" s="29"/>
     </row>
     <row r="963">
-      <c r="B963" s="28"/>
+      <c r="B963" s="29"/>
     </row>
     <row r="964">
-      <c r="B964" s="28"/>
+      <c r="B964" s="29"/>
     </row>
     <row r="965">
-      <c r="B965" s="28"/>
+      <c r="B965" s="29"/>
     </row>
     <row r="966">
-      <c r="B966" s="28"/>
+      <c r="B966" s="29"/>
     </row>
     <row r="967">
-      <c r="B967" s="28"/>
+      <c r="B967" s="29"/>
     </row>
     <row r="968">
-      <c r="B968" s="28"/>
+      <c r="B968" s="29"/>
     </row>
     <row r="969">
-      <c r="B969" s="28"/>
+      <c r="B969" s="29"/>
     </row>
     <row r="970">
-      <c r="B970" s="28"/>
+      <c r="B970" s="29"/>
     </row>
     <row r="971">
-      <c r="B971" s="28"/>
+      <c r="B971" s="29"/>
     </row>
     <row r="972">
-      <c r="B972" s="28"/>
+      <c r="B972" s="29"/>
     </row>
     <row r="973">
-      <c r="B973" s="28"/>
+      <c r="B973" s="29"/>
     </row>
     <row r="974">
-      <c r="B974" s="28"/>
+      <c r="B974" s="29"/>
     </row>
     <row r="975">
-      <c r="B975" s="28"/>
+      <c r="B975" s="29"/>
     </row>
     <row r="976">
-      <c r="B976" s="28"/>
+      <c r="B976" s="29"/>
     </row>
     <row r="977">
-      <c r="B977" s="28"/>
+      <c r="B977" s="29"/>
     </row>
     <row r="978">
-      <c r="B978" s="28"/>
+      <c r="B978" s="29"/>
     </row>
     <row r="979">
-      <c r="B979" s="28"/>
+      <c r="B979" s="29"/>
     </row>
     <row r="980">
-      <c r="B980" s="28"/>
+      <c r="B980" s="29"/>
     </row>
     <row r="981">
-      <c r="B981" s="28"/>
+      <c r="B981" s="29"/>
     </row>
     <row r="982">
-      <c r="B982" s="28"/>
+      <c r="B982" s="29"/>
     </row>
     <row r="983">
-      <c r="B983" s="28"/>
+      <c r="B983" s="29"/>
     </row>
     <row r="984">
-      <c r="B984" s="28"/>
+      <c r="B984" s="29"/>
     </row>
     <row r="985">
-      <c r="B985" s="28"/>
+      <c r="B985" s="29"/>
     </row>
     <row r="986">
-      <c r="B986" s="28"/>
+      <c r="B986" s="29"/>
     </row>
     <row r="987">
-      <c r="B987" s="28"/>
+      <c r="B987" s="29"/>
     </row>
     <row r="988">
-      <c r="B988" s="28"/>
+      <c r="B988" s="29"/>
     </row>
     <row r="989">
-      <c r="B989" s="28"/>
+      <c r="B989" s="29"/>
     </row>
     <row r="990">
-      <c r="B990" s="28"/>
+      <c r="B990" s="29"/>
     </row>
     <row r="991">
-      <c r="B991" s="28"/>
+      <c r="B991" s="29"/>
     </row>
     <row r="992">
-      <c r="B992" s="28"/>
+      <c r="B992" s="29"/>
     </row>
     <row r="993">
-      <c r="B993" s="28"/>
+      <c r="B993" s="29"/>
     </row>
     <row r="994">
-      <c r="B994" s="28"/>
+      <c r="B994" s="29"/>
     </row>
     <row r="995">
-      <c r="B995" s="28"/>
+      <c r="B995" s="29"/>
     </row>
     <row r="996">
-      <c r="B996" s="28"/>
+      <c r="B996" s="29"/>
     </row>
     <row r="997">
-      <c r="B997" s="28"/>
+      <c r="B997" s="29"/>
     </row>
     <row r="998">
-      <c r="B998" s="28"/>
+      <c r="B998" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12943,7 +12967,7 @@
       <c r="B19" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -12957,7 +12981,7 @@
       <c r="B20" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="19" t="s">
         <v>276</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -13008,7 +13032,7 @@
       <c r="B23" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="19" t="s">
         <v>285</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -13060,7 +13084,7 @@
       <c r="B26" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="19" t="s">
         <v>294</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -13150,7 +13174,7 @@
       <c r="B31" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -13168,7 +13192,7 @@
       <c r="B32" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -13186,7 +13210,7 @@
       <c r="B33" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>306</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -13204,7 +13228,7 @@
       <c r="B34" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -16263,7 +16287,7 @@
       <c r="B10" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="19" t="s">
         <v>326</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -16396,7 +16420,7 @@
       <c r="B19" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="19" t="s">
         <v>344</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -16410,7 +16434,7 @@
       <c r="B20" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="19" t="s">
         <v>346</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -16461,7 +16485,7 @@
       <c r="B23" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="19" t="s">
         <v>352</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -16513,7 +16537,7 @@
       <c r="B26" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="19" t="s">
         <v>358</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -16603,7 +16627,7 @@
       <c r="B31" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -16621,7 +16645,7 @@
       <c r="B32" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -16639,7 +16663,7 @@
       <c r="B33" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>306</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -16657,7 +16681,7 @@
       <c r="B34" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -19849,7 +19873,7 @@
       <c r="B19" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="19" t="s">
         <v>415</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -19863,7 +19887,7 @@
       <c r="B20" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="19" t="s">
         <v>418</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -19914,7 +19938,7 @@
       <c r="B23" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="19" t="s">
         <v>426</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -19966,7 +19990,7 @@
       <c r="B26" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="19" t="s">
         <v>435</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -20056,7 +20080,7 @@
       <c r="B31" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -20074,7 +20098,7 @@
       <c r="B32" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -20092,7 +20116,7 @@
       <c r="B33" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>306</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -20110,7 +20134,7 @@
       <c r="B34" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -23218,7 +23242,7 @@
       <c r="A15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="19" t="s">
         <v>469</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -23232,7 +23256,7 @@
       <c r="A16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="19" t="s">
         <v>471</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -23249,7 +23273,7 @@
       <c r="B17" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>474</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -23271,21 +23295,25 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="B20" s="18"/>
+      <c r="A20" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>481</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21">
@@ -26214,7 +26242,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -26226,7 +26254,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -26235,7 +26263,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -26244,7 +26272,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -26256,7 +26284,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -26268,7 +26296,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -26277,7 +26305,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -26286,7 +26314,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -26298,7 +26326,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -26310,7 +26338,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -26322,7 +26350,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -26357,10 +26385,10 @@
       <c r="A15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15" s="20"/>
       <c r="E15" s="7" t="s">
         <v>125</v>
       </c>
@@ -26369,10 +26397,10 @@
       <c r="A16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="E16" s="7" t="s">
         <v>130</v>
       </c>
@@ -26384,7 +26412,7 @@
       <c r="B17" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="E17" s="7" t="s">
         <v>135</v>
       </c>
@@ -26396,7 +26424,7 @@
       <c r="B18" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="E18" s="7" t="s">
         <v>140</v>
       </c>
@@ -29333,7 +29361,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -29345,7 +29373,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -29354,7 +29382,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -29363,7 +29391,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -29375,7 +29403,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -29387,7 +29415,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -29396,7 +29424,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -29405,7 +29433,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -29417,7 +29445,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -29429,7 +29457,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -29441,7 +29469,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -29476,10 +29504,10 @@
       <c r="A15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15" s="20"/>
       <c r="E15" s="7" t="s">
         <v>125</v>
       </c>
@@ -29488,10 +29516,10 @@
       <c r="A16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="E16" s="7" t="s">
         <v>130</v>
       </c>
@@ -29503,7 +29531,7 @@
       <c r="B17" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="E17" s="7" t="s">
         <v>135</v>
       </c>
@@ -29512,10 +29540,10 @@
       <c r="A18" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="C18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="C18" s="20"/>
       <c r="E18" s="7" t="s">
         <v>140</v>
       </c>
@@ -32452,7 +32480,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -32464,7 +32492,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -32473,7 +32501,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -32482,7 +32510,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -32494,7 +32522,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -32506,7 +32534,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -32515,7 +32543,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -32524,7 +32552,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -32536,7 +32564,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -32548,7 +32576,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -32560,7 +32588,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -32595,10 +32623,10 @@
       <c r="A15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="C15" s="20"/>
       <c r="E15" s="7" t="s">
         <v>125</v>
       </c>
@@ -32607,10 +32635,10 @@
       <c r="A16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="E16" s="7" t="s">
         <v>130</v>
       </c>
@@ -32622,7 +32650,7 @@
       <c r="B17" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="E17" s="7" t="s">
         <v>135</v>
       </c>
@@ -32634,7 +32662,7 @@
       <c r="B18" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="E18" s="7" t="s">
         <v>140</v>
       </c>

--- a/Data/Textbausteine_LENA_Juni2021.xlsx
+++ b/Data/Textbausteine_LENA_Juni2021.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="573">
   <si>
     <t>Text_ID</t>
   </si>
@@ -1356,67 +1356,67 @@
     <t>#Gemeinde_d hat die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent la participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg avec #JaStimmenInProzent pour cent de oui.</t>
+    <t>Les habitants de #Gemeinde_f acceptent la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg avec #JaStimmenInProzent pour cent de oui.</t>
   </si>
   <si>
     <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für die die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY ausgesprochen. </t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f approuvent la participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg avec #JaStimmenInProzent pour cent de oui.</t>
+    <t>Les habitants de #Gemeinde_f approuvent la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg avec #JaStimmenInProzent pour cent de oui.</t>
   </si>
   <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben der Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY zugestimmt.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent à la participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg.</t>
+    <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent à la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg.</t>
   </si>
   <si>
     <t>Die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten sie ab.</t>
   </si>
   <si>
-    <t>La participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte.</t>
+    <t>La participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f rejettent la participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg avec #NeinStimmenInProzent pour cent de non.</t>
+    <t>Les habitants de #Gemeinde_f rejettent la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg avec #NeinStimmenInProzent pour cent de non.</t>
   </si>
   <si>
     <t>Nein zur Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f s'opposent à la participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg avec #NeinStimmenInProzent pour cent de non.</t>
+    <t>Les habitants de #Gemeinde_f s'opposent à la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg avec #NeinStimmenInProzent pour cent de non.</t>
   </si>
   <si>
     <t>Keine Mehrheit für die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY in #Gemeinde_d. #NeinStimmenInProzent Prozent haben sie verworfen.</t>
   </si>
   <si>
-    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à la participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg.</t>
+    <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent à la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg.</t>
   </si>
   <si>
     <t>Die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
   </si>
   <si>
-    <t>La participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg ne passe pas la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à refuser le texte.</t>
+    <t>La participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg ne passe pas la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à refuser le texte.</t>
   </si>
   <si>
     <t>Unentschieden in #Gemeinde_d bei der Abstimmung über die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg et #JaStimmenAbsolut à la refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg et #JaStimmenAbsolut à la refuser.</t>
   </si>
   <si>
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden der Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY zugestimmt.</t>
   </si>
   <si>
-    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg.</t>
+    <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg.</t>
   </si>
   <si>
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY abgelehnt.</t>
   </si>
   <si>
-    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la participation pour moitié de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg.</t>
+    <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory à Fribourg.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
@@ -1458,19 +1458,25 @@
     <t>Intro_Ja_Fribourg</t>
   </si>
   <si>
-    <t>Der Kanton Freiburg hat der Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY zugestimmt.</t>
-  </si>
-  <si>
-    <t>Fribourg sagt Ja</t>
+    <t>Die Gemeinde Freiburg hat der Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY zugestimmt.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f approuvent la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory dans la capitale du canton avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t>Gemeinde Fribourg sagt Ja</t>
   </si>
   <si>
     <t>Intro_Nein_Fribourg</t>
   </si>
   <si>
-    <t>Der Kanton Freiburg hat die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY abgelehnt.</t>
-  </si>
-  <si>
-    <t>Fribourg sagt Nein</t>
+    <t>Die Gemeinde Freiburg hat die Erhöhung der finanziellen Beteiligung des Kantons am Aktienkapitel der Gesellschaft blueFACTORY abgelehnt.</t>
+  </si>
+  <si>
+    <t>Les habitants de #Gemeinde_f refusent la participation de l'Etat à une augmentation de capital de 50 millions de francs en faveur du quartier d'innovation Bluefactory dans la capitale du canton avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
+    <t>Gemeinde Fribourg sagt Nein</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Lichtverschmutzungsinitiative mit #JaStimmenInProzent Prozent angenommen.</t>
@@ -1623,13 +1629,19 @@
     <t>Intro_Ja_Bernex</t>
   </si>
   <si>
-    <t>Bernex sagt Ja</t>
+    <t>Les habitants de #Gemeinde_f acceptent le déclassement de la zone agricole de la Goutte de Saint-Mathieu dans leur commune avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t>Gemeinde Bernex sagt Ja</t>
   </si>
   <si>
     <t>Intro_Nein_Bernex</t>
   </si>
   <si>
-    <t>Bernex sagt Nein</t>
+    <t>Les habitants de #Gemeinde_f rejettent le déclassement de la zone agricole de la Goutte de Saint-Mathieu dans leur commun avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
+    <t>Gemeinde Bernex sagt Nein</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f acceptent l'initiative en faveur de l'égalité salariale avec #JaStimmenInProzent pour cent de oui.</t>
@@ -1735,7 +1747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1757,6 +1769,7 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color rgb="FF000000"/>
@@ -1843,7 +1856,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1913,6 +1926,9 @@
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1925,7 +1941,7 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1934,7 +1950,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -5691,7 +5707,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -5703,7 +5719,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="19" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4">
@@ -5712,16 +5728,16 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="19" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -5733,7 +5749,7 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -5745,7 +5761,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8">
@@ -5754,16 +5770,16 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -5773,9 +5789,9 @@
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="19" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -5787,7 +5803,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -5799,7 +5815,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -5879,18 +5895,24 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>533</v>
+        <v>534</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>535</v>
+        <v>537</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -5943,7 +5965,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -5955,7 +5977,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4">
@@ -5964,16 +5986,16 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -5985,7 +6007,7 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -5997,7 +6019,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8">
@@ -6006,16 +6028,16 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -6025,9 +6047,9 @@
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="5" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -6039,7 +6061,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -6051,7 +6073,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -6122,7 +6144,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>476</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -6153,3069 +6175,3069 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>548</v>
+      <c r="A1" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>550</v>
+        <v>553</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>552</v>
+        <v>555</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>554</v>
+        <v>557</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>556</v>
+        <v>559</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B6" s="28">
+        <v>561</v>
+      </c>
+      <c r="B6" s="29">
         <v>60.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B7" s="28">
+        <v>562</v>
+      </c>
+      <c r="B7" s="29">
         <v>39.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>560</v>
+        <v>563</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>562</v>
+        <v>565</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B10" s="28">
+        <v>567</v>
+      </c>
+      <c r="B10" s="29">
         <v>60.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B11" s="28">
+        <v>568</v>
+      </c>
+      <c r="B11" s="29">
         <v>39.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>560</v>
+        <v>569</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>566</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>568</v>
+        <v>571</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="29"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16">
-      <c r="A16" s="30"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17">
-      <c r="B17" s="28"/>
+      <c r="B17" s="29"/>
     </row>
     <row r="18">
-      <c r="B18" s="28"/>
+      <c r="B18" s="29"/>
     </row>
     <row r="19">
-      <c r="B19" s="28"/>
+      <c r="B19" s="29"/>
     </row>
     <row r="20">
-      <c r="B20" s="28"/>
+      <c r="B20" s="29"/>
     </row>
     <row r="21">
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
     </row>
     <row r="22">
-      <c r="B22" s="28"/>
+      <c r="B22" s="29"/>
     </row>
     <row r="23">
-      <c r="B23" s="28"/>
+      <c r="B23" s="29"/>
     </row>
     <row r="24">
-      <c r="B24" s="28"/>
+      <c r="B24" s="29"/>
     </row>
     <row r="25">
-      <c r="B25" s="28"/>
+      <c r="B25" s="29"/>
     </row>
     <row r="26">
-      <c r="B26" s="28"/>
+      <c r="B26" s="29"/>
     </row>
     <row r="27">
-      <c r="B27" s="29"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28">
-      <c r="B28" s="29"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29">
-      <c r="B29" s="29"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30">
-      <c r="B30" s="29"/>
+      <c r="B30" s="30"/>
     </row>
     <row r="31">
-      <c r="B31" s="29"/>
+      <c r="B31" s="30"/>
     </row>
     <row r="32">
-      <c r="B32" s="29"/>
+      <c r="B32" s="30"/>
     </row>
     <row r="33">
-      <c r="B33" s="29"/>
+      <c r="B33" s="30"/>
     </row>
     <row r="34">
-      <c r="B34" s="29"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35">
-      <c r="B35" s="29"/>
+      <c r="B35" s="30"/>
     </row>
     <row r="36">
-      <c r="B36" s="29"/>
+      <c r="B36" s="30"/>
     </row>
     <row r="37">
-      <c r="B37" s="29"/>
+      <c r="B37" s="30"/>
     </row>
     <row r="38">
-      <c r="B38" s="29"/>
+      <c r="B38" s="30"/>
     </row>
     <row r="39">
-      <c r="B39" s="29"/>
+      <c r="B39" s="30"/>
     </row>
     <row r="40">
-      <c r="B40" s="29"/>
+      <c r="B40" s="30"/>
     </row>
     <row r="41">
-      <c r="B41" s="29"/>
+      <c r="B41" s="30"/>
     </row>
     <row r="42">
-      <c r="B42" s="29"/>
+      <c r="B42" s="30"/>
     </row>
     <row r="43">
-      <c r="B43" s="29"/>
+      <c r="B43" s="30"/>
     </row>
     <row r="44">
-      <c r="B44" s="29"/>
+      <c r="B44" s="30"/>
     </row>
     <row r="45">
-      <c r="B45" s="29"/>
+      <c r="B45" s="30"/>
     </row>
     <row r="46">
-      <c r="B46" s="29"/>
+      <c r="B46" s="30"/>
     </row>
     <row r="47">
-      <c r="B47" s="29"/>
+      <c r="B47" s="30"/>
     </row>
     <row r="48">
-      <c r="B48" s="29"/>
+      <c r="B48" s="30"/>
     </row>
     <row r="49">
-      <c r="B49" s="29"/>
+      <c r="B49" s="30"/>
     </row>
     <row r="50">
-      <c r="B50" s="29"/>
+      <c r="B50" s="30"/>
     </row>
     <row r="51">
-      <c r="B51" s="29"/>
+      <c r="B51" s="30"/>
     </row>
     <row r="52">
-      <c r="B52" s="29"/>
+      <c r="B52" s="30"/>
     </row>
     <row r="53">
-      <c r="B53" s="29"/>
+      <c r="B53" s="30"/>
     </row>
     <row r="54">
-      <c r="B54" s="29"/>
+      <c r="B54" s="30"/>
     </row>
     <row r="55">
-      <c r="B55" s="29"/>
+      <c r="B55" s="30"/>
     </row>
     <row r="56">
-      <c r="B56" s="29"/>
+      <c r="B56" s="30"/>
     </row>
     <row r="57">
-      <c r="B57" s="29"/>
+      <c r="B57" s="30"/>
     </row>
     <row r="58">
-      <c r="B58" s="29"/>
+      <c r="B58" s="30"/>
     </row>
     <row r="59">
-      <c r="B59" s="29"/>
+      <c r="B59" s="30"/>
     </row>
     <row r="60">
-      <c r="B60" s="29"/>
+      <c r="B60" s="30"/>
     </row>
     <row r="61">
-      <c r="B61" s="29"/>
+      <c r="B61" s="30"/>
     </row>
     <row r="62">
-      <c r="B62" s="29"/>
+      <c r="B62" s="30"/>
     </row>
     <row r="63">
-      <c r="B63" s="29"/>
+      <c r="B63" s="30"/>
     </row>
     <row r="64">
-      <c r="B64" s="29"/>
+      <c r="B64" s="30"/>
     </row>
     <row r="65">
-      <c r="B65" s="29"/>
+      <c r="B65" s="30"/>
     </row>
     <row r="66">
-      <c r="B66" s="29"/>
+      <c r="B66" s="30"/>
     </row>
     <row r="67">
-      <c r="B67" s="29"/>
+      <c r="B67" s="30"/>
     </row>
     <row r="68">
-      <c r="B68" s="29"/>
+      <c r="B68" s="30"/>
     </row>
     <row r="69">
-      <c r="B69" s="29"/>
+      <c r="B69" s="30"/>
     </row>
     <row r="70">
-      <c r="B70" s="29"/>
+      <c r="B70" s="30"/>
     </row>
     <row r="71">
-      <c r="B71" s="29"/>
+      <c r="B71" s="30"/>
     </row>
     <row r="72">
-      <c r="B72" s="29"/>
+      <c r="B72" s="30"/>
     </row>
     <row r="73">
-      <c r="B73" s="29"/>
+      <c r="B73" s="30"/>
     </row>
     <row r="74">
-      <c r="B74" s="29"/>
+      <c r="B74" s="30"/>
     </row>
     <row r="75">
-      <c r="B75" s="29"/>
+      <c r="B75" s="30"/>
     </row>
     <row r="76">
-      <c r="B76" s="29"/>
+      <c r="B76" s="30"/>
     </row>
     <row r="77">
-      <c r="B77" s="29"/>
+      <c r="B77" s="30"/>
     </row>
     <row r="78">
-      <c r="B78" s="29"/>
+      <c r="B78" s="30"/>
     </row>
     <row r="79">
-      <c r="B79" s="29"/>
+      <c r="B79" s="30"/>
     </row>
     <row r="80">
-      <c r="B80" s="29"/>
+      <c r="B80" s="30"/>
     </row>
     <row r="81">
-      <c r="B81" s="29"/>
+      <c r="B81" s="30"/>
     </row>
     <row r="82">
-      <c r="B82" s="29"/>
+      <c r="B82" s="30"/>
     </row>
     <row r="83">
-      <c r="B83" s="29"/>
+      <c r="B83" s="30"/>
     </row>
     <row r="84">
-      <c r="B84" s="29"/>
+      <c r="B84" s="30"/>
     </row>
     <row r="85">
-      <c r="B85" s="29"/>
+      <c r="B85" s="30"/>
     </row>
     <row r="86">
-      <c r="B86" s="29"/>
+      <c r="B86" s="30"/>
     </row>
     <row r="87">
-      <c r="B87" s="29"/>
+      <c r="B87" s="30"/>
     </row>
     <row r="88">
-      <c r="B88" s="29"/>
+      <c r="B88" s="30"/>
     </row>
     <row r="89">
-      <c r="B89" s="29"/>
+      <c r="B89" s="30"/>
     </row>
     <row r="90">
-      <c r="B90" s="29"/>
+      <c r="B90" s="30"/>
     </row>
     <row r="91">
-      <c r="B91" s="29"/>
+      <c r="B91" s="30"/>
     </row>
     <row r="92">
-      <c r="B92" s="29"/>
+      <c r="B92" s="30"/>
     </row>
     <row r="93">
-      <c r="B93" s="29"/>
+      <c r="B93" s="30"/>
     </row>
     <row r="94">
-      <c r="B94" s="29"/>
+      <c r="B94" s="30"/>
     </row>
     <row r="95">
-      <c r="B95" s="29"/>
+      <c r="B95" s="30"/>
     </row>
     <row r="96">
-      <c r="B96" s="29"/>
+      <c r="B96" s="30"/>
     </row>
     <row r="97">
-      <c r="B97" s="29"/>
+      <c r="B97" s="30"/>
     </row>
     <row r="98">
-      <c r="B98" s="29"/>
+      <c r="B98" s="30"/>
     </row>
     <row r="99">
-      <c r="B99" s="29"/>
+      <c r="B99" s="30"/>
     </row>
     <row r="100">
-      <c r="B100" s="29"/>
+      <c r="B100" s="30"/>
     </row>
     <row r="101">
-      <c r="B101" s="29"/>
+      <c r="B101" s="30"/>
     </row>
     <row r="102">
-      <c r="B102" s="29"/>
+      <c r="B102" s="30"/>
     </row>
     <row r="103">
-      <c r="B103" s="29"/>
+      <c r="B103" s="30"/>
     </row>
     <row r="104">
-      <c r="B104" s="29"/>
+      <c r="B104" s="30"/>
     </row>
     <row r="105">
-      <c r="B105" s="29"/>
+      <c r="B105" s="30"/>
     </row>
     <row r="106">
-      <c r="B106" s="29"/>
+      <c r="B106" s="30"/>
     </row>
     <row r="107">
-      <c r="B107" s="29"/>
+      <c r="B107" s="30"/>
     </row>
     <row r="108">
-      <c r="B108" s="29"/>
+      <c r="B108" s="30"/>
     </row>
     <row r="109">
-      <c r="B109" s="29"/>
+      <c r="B109" s="30"/>
     </row>
     <row r="110">
-      <c r="B110" s="29"/>
+      <c r="B110" s="30"/>
     </row>
     <row r="111">
-      <c r="B111" s="29"/>
+      <c r="B111" s="30"/>
     </row>
     <row r="112">
-      <c r="B112" s="29"/>
+      <c r="B112" s="30"/>
     </row>
     <row r="113">
-      <c r="B113" s="29"/>
+      <c r="B113" s="30"/>
     </row>
     <row r="114">
-      <c r="B114" s="29"/>
+      <c r="B114" s="30"/>
     </row>
     <row r="115">
-      <c r="B115" s="29"/>
+      <c r="B115" s="30"/>
     </row>
     <row r="116">
-      <c r="B116" s="29"/>
+      <c r="B116" s="30"/>
     </row>
     <row r="117">
-      <c r="B117" s="29"/>
+      <c r="B117" s="30"/>
     </row>
     <row r="118">
-      <c r="B118" s="29"/>
+      <c r="B118" s="30"/>
     </row>
     <row r="119">
-      <c r="B119" s="29"/>
+      <c r="B119" s="30"/>
     </row>
     <row r="120">
-      <c r="B120" s="29"/>
+      <c r="B120" s="30"/>
     </row>
     <row r="121">
-      <c r="B121" s="29"/>
+      <c r="B121" s="30"/>
     </row>
     <row r="122">
-      <c r="B122" s="29"/>
+      <c r="B122" s="30"/>
     </row>
     <row r="123">
-      <c r="B123" s="29"/>
+      <c r="B123" s="30"/>
     </row>
     <row r="124">
-      <c r="B124" s="29"/>
+      <c r="B124" s="30"/>
     </row>
     <row r="125">
-      <c r="B125" s="29"/>
+      <c r="B125" s="30"/>
     </row>
     <row r="126">
-      <c r="B126" s="29"/>
+      <c r="B126" s="30"/>
     </row>
     <row r="127">
-      <c r="B127" s="29"/>
+      <c r="B127" s="30"/>
     </row>
     <row r="128">
-      <c r="B128" s="29"/>
+      <c r="B128" s="30"/>
     </row>
     <row r="129">
-      <c r="B129" s="29"/>
+      <c r="B129" s="30"/>
     </row>
     <row r="130">
-      <c r="B130" s="29"/>
+      <c r="B130" s="30"/>
     </row>
     <row r="131">
-      <c r="B131" s="29"/>
+      <c r="B131" s="30"/>
     </row>
     <row r="132">
-      <c r="B132" s="29"/>
+      <c r="B132" s="30"/>
     </row>
     <row r="133">
-      <c r="B133" s="29"/>
+      <c r="B133" s="30"/>
     </row>
     <row r="134">
-      <c r="B134" s="29"/>
+      <c r="B134" s="30"/>
     </row>
     <row r="135">
-      <c r="B135" s="29"/>
+      <c r="B135" s="30"/>
     </row>
     <row r="136">
-      <c r="B136" s="29"/>
+      <c r="B136" s="30"/>
     </row>
     <row r="137">
-      <c r="B137" s="29"/>
+      <c r="B137" s="30"/>
     </row>
     <row r="138">
-      <c r="B138" s="29"/>
+      <c r="B138" s="30"/>
     </row>
     <row r="139">
-      <c r="B139" s="29"/>
+      <c r="B139" s="30"/>
     </row>
     <row r="140">
-      <c r="B140" s="29"/>
+      <c r="B140" s="30"/>
     </row>
     <row r="141">
-      <c r="B141" s="29"/>
+      <c r="B141" s="30"/>
     </row>
     <row r="142">
-      <c r="B142" s="29"/>
+      <c r="B142" s="30"/>
     </row>
     <row r="143">
-      <c r="B143" s="29"/>
+      <c r="B143" s="30"/>
     </row>
     <row r="144">
-      <c r="B144" s="29"/>
+      <c r="B144" s="30"/>
     </row>
     <row r="145">
-      <c r="B145" s="29"/>
+      <c r="B145" s="30"/>
     </row>
     <row r="146">
-      <c r="B146" s="29"/>
+      <c r="B146" s="30"/>
     </row>
     <row r="147">
-      <c r="B147" s="29"/>
+      <c r="B147" s="30"/>
     </row>
     <row r="148">
-      <c r="B148" s="29"/>
+      <c r="B148" s="30"/>
     </row>
     <row r="149">
-      <c r="B149" s="29"/>
+      <c r="B149" s="30"/>
     </row>
     <row r="150">
-      <c r="B150" s="29"/>
+      <c r="B150" s="30"/>
     </row>
     <row r="151">
-      <c r="B151" s="29"/>
+      <c r="B151" s="30"/>
     </row>
     <row r="152">
-      <c r="B152" s="29"/>
+      <c r="B152" s="30"/>
     </row>
     <row r="153">
-      <c r="B153" s="29"/>
+      <c r="B153" s="30"/>
     </row>
     <row r="154">
-      <c r="B154" s="29"/>
+      <c r="B154" s="30"/>
     </row>
     <row r="155">
-      <c r="B155" s="29"/>
+      <c r="B155" s="30"/>
     </row>
     <row r="156">
-      <c r="B156" s="29"/>
+      <c r="B156" s="30"/>
     </row>
     <row r="157">
-      <c r="B157" s="29"/>
+      <c r="B157" s="30"/>
     </row>
     <row r="158">
-      <c r="B158" s="29"/>
+      <c r="B158" s="30"/>
     </row>
     <row r="159">
-      <c r="B159" s="29"/>
+      <c r="B159" s="30"/>
     </row>
     <row r="160">
-      <c r="B160" s="29"/>
+      <c r="B160" s="30"/>
     </row>
     <row r="161">
-      <c r="B161" s="29"/>
+      <c r="B161" s="30"/>
     </row>
     <row r="162">
-      <c r="B162" s="29"/>
+      <c r="B162" s="30"/>
     </row>
     <row r="163">
-      <c r="B163" s="29"/>
+      <c r="B163" s="30"/>
     </row>
     <row r="164">
-      <c r="B164" s="29"/>
+      <c r="B164" s="30"/>
     </row>
     <row r="165">
-      <c r="B165" s="29"/>
+      <c r="B165" s="30"/>
     </row>
     <row r="166">
-      <c r="B166" s="29"/>
+      <c r="B166" s="30"/>
     </row>
     <row r="167">
-      <c r="B167" s="29"/>
+      <c r="B167" s="30"/>
     </row>
     <row r="168">
-      <c r="B168" s="29"/>
+      <c r="B168" s="30"/>
     </row>
     <row r="169">
-      <c r="B169" s="29"/>
+      <c r="B169" s="30"/>
     </row>
     <row r="170">
-      <c r="B170" s="29"/>
+      <c r="B170" s="30"/>
     </row>
     <row r="171">
-      <c r="B171" s="29"/>
+      <c r="B171" s="30"/>
     </row>
     <row r="172">
-      <c r="B172" s="29"/>
+      <c r="B172" s="30"/>
     </row>
     <row r="173">
-      <c r="B173" s="29"/>
+      <c r="B173" s="30"/>
     </row>
     <row r="174">
-      <c r="B174" s="29"/>
+      <c r="B174" s="30"/>
     </row>
     <row r="175">
-      <c r="B175" s="29"/>
+      <c r="B175" s="30"/>
     </row>
     <row r="176">
-      <c r="B176" s="29"/>
+      <c r="B176" s="30"/>
     </row>
     <row r="177">
-      <c r="B177" s="29"/>
+      <c r="B177" s="30"/>
     </row>
     <row r="178">
-      <c r="B178" s="29"/>
+      <c r="B178" s="30"/>
     </row>
     <row r="179">
-      <c r="B179" s="29"/>
+      <c r="B179" s="30"/>
     </row>
     <row r="180">
-      <c r="B180" s="29"/>
+      <c r="B180" s="30"/>
     </row>
     <row r="181">
-      <c r="B181" s="29"/>
+      <c r="B181" s="30"/>
     </row>
     <row r="182">
-      <c r="B182" s="29"/>
+      <c r="B182" s="30"/>
     </row>
     <row r="183">
-      <c r="B183" s="29"/>
+      <c r="B183" s="30"/>
     </row>
     <row r="184">
-      <c r="B184" s="29"/>
+      <c r="B184" s="30"/>
     </row>
     <row r="185">
-      <c r="B185" s="29"/>
+      <c r="B185" s="30"/>
     </row>
     <row r="186">
-      <c r="B186" s="29"/>
+      <c r="B186" s="30"/>
     </row>
     <row r="187">
-      <c r="B187" s="29"/>
+      <c r="B187" s="30"/>
     </row>
     <row r="188">
-      <c r="B188" s="29"/>
+      <c r="B188" s="30"/>
     </row>
     <row r="189">
-      <c r="B189" s="29"/>
+      <c r="B189" s="30"/>
     </row>
     <row r="190">
-      <c r="B190" s="29"/>
+      <c r="B190" s="30"/>
     </row>
     <row r="191">
-      <c r="B191" s="29"/>
+      <c r="B191" s="30"/>
     </row>
     <row r="192">
-      <c r="B192" s="29"/>
+      <c r="B192" s="30"/>
     </row>
     <row r="193">
-      <c r="B193" s="29"/>
+      <c r="B193" s="30"/>
     </row>
     <row r="194">
-      <c r="B194" s="29"/>
+      <c r="B194" s="30"/>
     </row>
     <row r="195">
-      <c r="B195" s="29"/>
+      <c r="B195" s="30"/>
     </row>
     <row r="196">
-      <c r="B196" s="29"/>
+      <c r="B196" s="30"/>
     </row>
     <row r="197">
-      <c r="B197" s="29"/>
+      <c r="B197" s="30"/>
     </row>
     <row r="198">
-      <c r="B198" s="29"/>
+      <c r="B198" s="30"/>
     </row>
     <row r="199">
-      <c r="B199" s="29"/>
+      <c r="B199" s="30"/>
     </row>
     <row r="200">
-      <c r="B200" s="29"/>
+      <c r="B200" s="30"/>
     </row>
     <row r="201">
-      <c r="B201" s="29"/>
+      <c r="B201" s="30"/>
     </row>
     <row r="202">
-      <c r="B202" s="29"/>
+      <c r="B202" s="30"/>
     </row>
     <row r="203">
-      <c r="B203" s="29"/>
+      <c r="B203" s="30"/>
     </row>
     <row r="204">
-      <c r="B204" s="29"/>
+      <c r="B204" s="30"/>
     </row>
     <row r="205">
-      <c r="B205" s="29"/>
+      <c r="B205" s="30"/>
     </row>
     <row r="206">
-      <c r="B206" s="29"/>
+      <c r="B206" s="30"/>
     </row>
     <row r="207">
-      <c r="B207" s="29"/>
+      <c r="B207" s="30"/>
     </row>
     <row r="208">
-      <c r="B208" s="29"/>
+      <c r="B208" s="30"/>
     </row>
     <row r="209">
-      <c r="B209" s="29"/>
+      <c r="B209" s="30"/>
     </row>
     <row r="210">
-      <c r="B210" s="29"/>
+      <c r="B210" s="30"/>
     </row>
     <row r="211">
-      <c r="B211" s="29"/>
+      <c r="B211" s="30"/>
     </row>
     <row r="212">
-      <c r="B212" s="29"/>
+      <c r="B212" s="30"/>
     </row>
     <row r="213">
-      <c r="B213" s="29"/>
+      <c r="B213" s="30"/>
     </row>
     <row r="214">
-      <c r="B214" s="29"/>
+      <c r="B214" s="30"/>
     </row>
     <row r="215">
-      <c r="B215" s="29"/>
+      <c r="B215" s="30"/>
     </row>
     <row r="216">
-      <c r="B216" s="29"/>
+      <c r="B216" s="30"/>
     </row>
     <row r="217">
-      <c r="B217" s="29"/>
+      <c r="B217" s="30"/>
     </row>
     <row r="218">
-      <c r="B218" s="29"/>
+      <c r="B218" s="30"/>
     </row>
     <row r="219">
-      <c r="B219" s="29"/>
+      <c r="B219" s="30"/>
     </row>
     <row r="220">
-      <c r="B220" s="29"/>
+      <c r="B220" s="30"/>
     </row>
     <row r="221">
-      <c r="B221" s="29"/>
+      <c r="B221" s="30"/>
     </row>
     <row r="222">
-      <c r="B222" s="29"/>
+      <c r="B222" s="30"/>
     </row>
     <row r="223">
-      <c r="B223" s="29"/>
+      <c r="B223" s="30"/>
     </row>
     <row r="224">
-      <c r="B224" s="29"/>
+      <c r="B224" s="30"/>
     </row>
     <row r="225">
-      <c r="B225" s="29"/>
+      <c r="B225" s="30"/>
     </row>
     <row r="226">
-      <c r="B226" s="29"/>
+      <c r="B226" s="30"/>
     </row>
     <row r="227">
-      <c r="B227" s="29"/>
+      <c r="B227" s="30"/>
     </row>
     <row r="228">
-      <c r="B228" s="29"/>
+      <c r="B228" s="30"/>
     </row>
     <row r="229">
-      <c r="B229" s="29"/>
+      <c r="B229" s="30"/>
     </row>
     <row r="230">
-      <c r="B230" s="29"/>
+      <c r="B230" s="30"/>
     </row>
     <row r="231">
-      <c r="B231" s="29"/>
+      <c r="B231" s="30"/>
     </row>
     <row r="232">
-      <c r="B232" s="29"/>
+      <c r="B232" s="30"/>
     </row>
     <row r="233">
-      <c r="B233" s="29"/>
+      <c r="B233" s="30"/>
     </row>
     <row r="234">
-      <c r="B234" s="29"/>
+      <c r="B234" s="30"/>
     </row>
     <row r="235">
-      <c r="B235" s="29"/>
+      <c r="B235" s="30"/>
     </row>
     <row r="236">
-      <c r="B236" s="29"/>
+      <c r="B236" s="30"/>
     </row>
     <row r="237">
-      <c r="B237" s="29"/>
+      <c r="B237" s="30"/>
     </row>
     <row r="238">
-      <c r="B238" s="29"/>
+      <c r="B238" s="30"/>
     </row>
     <row r="239">
-      <c r="B239" s="29"/>
+      <c r="B239" s="30"/>
     </row>
     <row r="240">
-      <c r="B240" s="29"/>
+      <c r="B240" s="30"/>
     </row>
     <row r="241">
-      <c r="B241" s="29"/>
+      <c r="B241" s="30"/>
     </row>
     <row r="242">
-      <c r="B242" s="29"/>
+      <c r="B242" s="30"/>
     </row>
     <row r="243">
-      <c r="B243" s="29"/>
+      <c r="B243" s="30"/>
     </row>
     <row r="244">
-      <c r="B244" s="29"/>
+      <c r="B244" s="30"/>
     </row>
     <row r="245">
-      <c r="B245" s="29"/>
+      <c r="B245" s="30"/>
     </row>
     <row r="246">
-      <c r="B246" s="29"/>
+      <c r="B246" s="30"/>
     </row>
     <row r="247">
-      <c r="B247" s="29"/>
+      <c r="B247" s="30"/>
     </row>
     <row r="248">
-      <c r="B248" s="29"/>
+      <c r="B248" s="30"/>
     </row>
     <row r="249">
-      <c r="B249" s="29"/>
+      <c r="B249" s="30"/>
     </row>
     <row r="250">
-      <c r="B250" s="29"/>
+      <c r="B250" s="30"/>
     </row>
     <row r="251">
-      <c r="B251" s="29"/>
+      <c r="B251" s="30"/>
     </row>
     <row r="252">
-      <c r="B252" s="29"/>
+      <c r="B252" s="30"/>
     </row>
     <row r="253">
-      <c r="B253" s="29"/>
+      <c r="B253" s="30"/>
     </row>
     <row r="254">
-      <c r="B254" s="29"/>
+      <c r="B254" s="30"/>
     </row>
     <row r="255">
-      <c r="B255" s="29"/>
+      <c r="B255" s="30"/>
     </row>
     <row r="256">
-      <c r="B256" s="29"/>
+      <c r="B256" s="30"/>
     </row>
     <row r="257">
-      <c r="B257" s="29"/>
+      <c r="B257" s="30"/>
     </row>
     <row r="258">
-      <c r="B258" s="29"/>
+      <c r="B258" s="30"/>
     </row>
     <row r="259">
-      <c r="B259" s="29"/>
+      <c r="B259" s="30"/>
     </row>
     <row r="260">
-      <c r="B260" s="29"/>
+      <c r="B260" s="30"/>
     </row>
     <row r="261">
-      <c r="B261" s="29"/>
+      <c r="B261" s="30"/>
     </row>
     <row r="262">
-      <c r="B262" s="29"/>
+      <c r="B262" s="30"/>
     </row>
     <row r="263">
-      <c r="B263" s="29"/>
+      <c r="B263" s="30"/>
     </row>
     <row r="264">
-      <c r="B264" s="29"/>
+      <c r="B264" s="30"/>
     </row>
     <row r="265">
-      <c r="B265" s="29"/>
+      <c r="B265" s="30"/>
     </row>
     <row r="266">
-      <c r="B266" s="29"/>
+      <c r="B266" s="30"/>
     </row>
     <row r="267">
-      <c r="B267" s="29"/>
+      <c r="B267" s="30"/>
     </row>
     <row r="268">
-      <c r="B268" s="29"/>
+      <c r="B268" s="30"/>
     </row>
     <row r="269">
-      <c r="B269" s="29"/>
+      <c r="B269" s="30"/>
     </row>
     <row r="270">
-      <c r="B270" s="29"/>
+      <c r="B270" s="30"/>
     </row>
     <row r="271">
-      <c r="B271" s="29"/>
+      <c r="B271" s="30"/>
     </row>
     <row r="272">
-      <c r="B272" s="29"/>
+      <c r="B272" s="30"/>
     </row>
     <row r="273">
-      <c r="B273" s="29"/>
+      <c r="B273" s="30"/>
     </row>
     <row r="274">
-      <c r="B274" s="29"/>
+      <c r="B274" s="30"/>
     </row>
     <row r="275">
-      <c r="B275" s="29"/>
+      <c r="B275" s="30"/>
     </row>
     <row r="276">
-      <c r="B276" s="29"/>
+      <c r="B276" s="30"/>
     </row>
     <row r="277">
-      <c r="B277" s="29"/>
+      <c r="B277" s="30"/>
     </row>
     <row r="278">
-      <c r="B278" s="29"/>
+      <c r="B278" s="30"/>
     </row>
     <row r="279">
-      <c r="B279" s="29"/>
+      <c r="B279" s="30"/>
     </row>
     <row r="280">
-      <c r="B280" s="29"/>
+      <c r="B280" s="30"/>
     </row>
     <row r="281">
-      <c r="B281" s="29"/>
+      <c r="B281" s="30"/>
     </row>
     <row r="282">
-      <c r="B282" s="29"/>
+      <c r="B282" s="30"/>
     </row>
     <row r="283">
-      <c r="B283" s="29"/>
+      <c r="B283" s="30"/>
     </row>
     <row r="284">
-      <c r="B284" s="29"/>
+      <c r="B284" s="30"/>
     </row>
     <row r="285">
-      <c r="B285" s="29"/>
+      <c r="B285" s="30"/>
     </row>
     <row r="286">
-      <c r="B286" s="29"/>
+      <c r="B286" s="30"/>
     </row>
     <row r="287">
-      <c r="B287" s="29"/>
+      <c r="B287" s="30"/>
     </row>
     <row r="288">
-      <c r="B288" s="29"/>
+      <c r="B288" s="30"/>
     </row>
     <row r="289">
-      <c r="B289" s="29"/>
+      <c r="B289" s="30"/>
     </row>
     <row r="290">
-      <c r="B290" s="29"/>
+      <c r="B290" s="30"/>
     </row>
     <row r="291">
-      <c r="B291" s="29"/>
+      <c r="B291" s="30"/>
     </row>
     <row r="292">
-      <c r="B292" s="29"/>
+      <c r="B292" s="30"/>
     </row>
     <row r="293">
-      <c r="B293" s="29"/>
+      <c r="B293" s="30"/>
     </row>
     <row r="294">
-      <c r="B294" s="29"/>
+      <c r="B294" s="30"/>
     </row>
     <row r="295">
-      <c r="B295" s="29"/>
+      <c r="B295" s="30"/>
     </row>
     <row r="296">
-      <c r="B296" s="29"/>
+      <c r="B296" s="30"/>
     </row>
     <row r="297">
-      <c r="B297" s="29"/>
+      <c r="B297" s="30"/>
     </row>
     <row r="298">
-      <c r="B298" s="29"/>
+      <c r="B298" s="30"/>
     </row>
     <row r="299">
-      <c r="B299" s="29"/>
+      <c r="B299" s="30"/>
     </row>
     <row r="300">
-      <c r="B300" s="29"/>
+      <c r="B300" s="30"/>
     </row>
     <row r="301">
-      <c r="B301" s="29"/>
+      <c r="B301" s="30"/>
     </row>
     <row r="302">
-      <c r="B302" s="29"/>
+      <c r="B302" s="30"/>
     </row>
     <row r="303">
-      <c r="B303" s="29"/>
+      <c r="B303" s="30"/>
     </row>
     <row r="304">
-      <c r="B304" s="29"/>
+      <c r="B304" s="30"/>
     </row>
     <row r="305">
-      <c r="B305" s="29"/>
+      <c r="B305" s="30"/>
     </row>
     <row r="306">
-      <c r="B306" s="29"/>
+      <c r="B306" s="30"/>
     </row>
     <row r="307">
-      <c r="B307" s="29"/>
+      <c r="B307" s="30"/>
     </row>
     <row r="308">
-      <c r="B308" s="29"/>
+      <c r="B308" s="30"/>
     </row>
     <row r="309">
-      <c r="B309" s="29"/>
+      <c r="B309" s="30"/>
     </row>
     <row r="310">
-      <c r="B310" s="29"/>
+      <c r="B310" s="30"/>
     </row>
     <row r="311">
-      <c r="B311" s="29"/>
+      <c r="B311" s="30"/>
     </row>
     <row r="312">
-      <c r="B312" s="29"/>
+      <c r="B312" s="30"/>
     </row>
     <row r="313">
-      <c r="B313" s="29"/>
+      <c r="B313" s="30"/>
     </row>
     <row r="314">
-      <c r="B314" s="29"/>
+      <c r="B314" s="30"/>
     </row>
     <row r="315">
-      <c r="B315" s="29"/>
+      <c r="B315" s="30"/>
     </row>
     <row r="316">
-      <c r="B316" s="29"/>
+      <c r="B316" s="30"/>
     </row>
     <row r="317">
-      <c r="B317" s="29"/>
+      <c r="B317" s="30"/>
     </row>
     <row r="318">
-      <c r="B318" s="29"/>
+      <c r="B318" s="30"/>
     </row>
     <row r="319">
-      <c r="B319" s="29"/>
+      <c r="B319" s="30"/>
     </row>
     <row r="320">
-      <c r="B320" s="29"/>
+      <c r="B320" s="30"/>
     </row>
     <row r="321">
-      <c r="B321" s="29"/>
+      <c r="B321" s="30"/>
     </row>
     <row r="322">
-      <c r="B322" s="29"/>
+      <c r="B322" s="30"/>
     </row>
     <row r="323">
-      <c r="B323" s="29"/>
+      <c r="B323" s="30"/>
     </row>
     <row r="324">
-      <c r="B324" s="29"/>
+      <c r="B324" s="30"/>
     </row>
     <row r="325">
-      <c r="B325" s="29"/>
+      <c r="B325" s="30"/>
     </row>
     <row r="326">
-      <c r="B326" s="29"/>
+      <c r="B326" s="30"/>
     </row>
     <row r="327">
-      <c r="B327" s="29"/>
+      <c r="B327" s="30"/>
     </row>
     <row r="328">
-      <c r="B328" s="29"/>
+      <c r="B328" s="30"/>
     </row>
     <row r="329">
-      <c r="B329" s="29"/>
+      <c r="B329" s="30"/>
     </row>
     <row r="330">
-      <c r="B330" s="29"/>
+      <c r="B330" s="30"/>
     </row>
     <row r="331">
-      <c r="B331" s="29"/>
+      <c r="B331" s="30"/>
     </row>
     <row r="332">
-      <c r="B332" s="29"/>
+      <c r="B332" s="30"/>
     </row>
     <row r="333">
-      <c r="B333" s="29"/>
+      <c r="B333" s="30"/>
     </row>
     <row r="334">
-      <c r="B334" s="29"/>
+      <c r="B334" s="30"/>
     </row>
     <row r="335">
-      <c r="B335" s="29"/>
+      <c r="B335" s="30"/>
     </row>
     <row r="336">
-      <c r="B336" s="29"/>
+      <c r="B336" s="30"/>
     </row>
     <row r="337">
-      <c r="B337" s="29"/>
+      <c r="B337" s="30"/>
     </row>
     <row r="338">
-      <c r="B338" s="29"/>
+      <c r="B338" s="30"/>
     </row>
     <row r="339">
-      <c r="B339" s="29"/>
+      <c r="B339" s="30"/>
     </row>
     <row r="340">
-      <c r="B340" s="29"/>
+      <c r="B340" s="30"/>
     </row>
     <row r="341">
-      <c r="B341" s="29"/>
+      <c r="B341" s="30"/>
     </row>
     <row r="342">
-      <c r="B342" s="29"/>
+      <c r="B342" s="30"/>
     </row>
     <row r="343">
-      <c r="B343" s="29"/>
+      <c r="B343" s="30"/>
     </row>
     <row r="344">
-      <c r="B344" s="29"/>
+      <c r="B344" s="30"/>
     </row>
     <row r="345">
-      <c r="B345" s="29"/>
+      <c r="B345" s="30"/>
     </row>
     <row r="346">
-      <c r="B346" s="29"/>
+      <c r="B346" s="30"/>
     </row>
     <row r="347">
-      <c r="B347" s="29"/>
+      <c r="B347" s="30"/>
     </row>
     <row r="348">
-      <c r="B348" s="29"/>
+      <c r="B348" s="30"/>
     </row>
     <row r="349">
-      <c r="B349" s="29"/>
+      <c r="B349" s="30"/>
     </row>
     <row r="350">
-      <c r="B350" s="29"/>
+      <c r="B350" s="30"/>
     </row>
     <row r="351">
-      <c r="B351" s="29"/>
+      <c r="B351" s="30"/>
     </row>
     <row r="352">
-      <c r="B352" s="29"/>
+      <c r="B352" s="30"/>
     </row>
     <row r="353">
-      <c r="B353" s="29"/>
+      <c r="B353" s="30"/>
     </row>
     <row r="354">
-      <c r="B354" s="29"/>
+      <c r="B354" s="30"/>
     </row>
     <row r="355">
-      <c r="B355" s="29"/>
+      <c r="B355" s="30"/>
     </row>
     <row r="356">
-      <c r="B356" s="29"/>
+      <c r="B356" s="30"/>
     </row>
     <row r="357">
-      <c r="B357" s="29"/>
+      <c r="B357" s="30"/>
     </row>
     <row r="358">
-      <c r="B358" s="29"/>
+      <c r="B358" s="30"/>
     </row>
     <row r="359">
-      <c r="B359" s="29"/>
+      <c r="B359" s="30"/>
     </row>
     <row r="360">
-      <c r="B360" s="29"/>
+      <c r="B360" s="30"/>
     </row>
     <row r="361">
-      <c r="B361" s="29"/>
+      <c r="B361" s="30"/>
     </row>
     <row r="362">
-      <c r="B362" s="29"/>
+      <c r="B362" s="30"/>
     </row>
     <row r="363">
-      <c r="B363" s="29"/>
+      <c r="B363" s="30"/>
     </row>
     <row r="364">
-      <c r="B364" s="29"/>
+      <c r="B364" s="30"/>
     </row>
     <row r="365">
-      <c r="B365" s="29"/>
+      <c r="B365" s="30"/>
     </row>
     <row r="366">
-      <c r="B366" s="29"/>
+      <c r="B366" s="30"/>
     </row>
     <row r="367">
-      <c r="B367" s="29"/>
+      <c r="B367" s="30"/>
     </row>
     <row r="368">
-      <c r="B368" s="29"/>
+      <c r="B368" s="30"/>
     </row>
     <row r="369">
-      <c r="B369" s="29"/>
+      <c r="B369" s="30"/>
     </row>
     <row r="370">
-      <c r="B370" s="29"/>
+      <c r="B370" s="30"/>
     </row>
     <row r="371">
-      <c r="B371" s="29"/>
+      <c r="B371" s="30"/>
     </row>
     <row r="372">
-      <c r="B372" s="29"/>
+      <c r="B372" s="30"/>
     </row>
     <row r="373">
-      <c r="B373" s="29"/>
+      <c r="B373" s="30"/>
     </row>
     <row r="374">
-      <c r="B374" s="29"/>
+      <c r="B374" s="30"/>
     </row>
     <row r="375">
-      <c r="B375" s="29"/>
+      <c r="B375" s="30"/>
     </row>
     <row r="376">
-      <c r="B376" s="29"/>
+      <c r="B376" s="30"/>
     </row>
     <row r="377">
-      <c r="B377" s="29"/>
+      <c r="B377" s="30"/>
     </row>
     <row r="378">
-      <c r="B378" s="29"/>
+      <c r="B378" s="30"/>
     </row>
     <row r="379">
-      <c r="B379" s="29"/>
+      <c r="B379" s="30"/>
     </row>
     <row r="380">
-      <c r="B380" s="29"/>
+      <c r="B380" s="30"/>
     </row>
     <row r="381">
-      <c r="B381" s="29"/>
+      <c r="B381" s="30"/>
     </row>
     <row r="382">
-      <c r="B382" s="29"/>
+      <c r="B382" s="30"/>
     </row>
     <row r="383">
-      <c r="B383" s="29"/>
+      <c r="B383" s="30"/>
     </row>
     <row r="384">
-      <c r="B384" s="29"/>
+      <c r="B384" s="30"/>
     </row>
     <row r="385">
-      <c r="B385" s="29"/>
+      <c r="B385" s="30"/>
     </row>
     <row r="386">
-      <c r="B386" s="29"/>
+      <c r="B386" s="30"/>
     </row>
     <row r="387">
-      <c r="B387" s="29"/>
+      <c r="B387" s="30"/>
     </row>
     <row r="388">
-      <c r="B388" s="29"/>
+      <c r="B388" s="30"/>
     </row>
     <row r="389">
-      <c r="B389" s="29"/>
+      <c r="B389" s="30"/>
     </row>
     <row r="390">
-      <c r="B390" s="29"/>
+      <c r="B390" s="30"/>
     </row>
     <row r="391">
-      <c r="B391" s="29"/>
+      <c r="B391" s="30"/>
     </row>
     <row r="392">
-      <c r="B392" s="29"/>
+      <c r="B392" s="30"/>
     </row>
     <row r="393">
-      <c r="B393" s="29"/>
+      <c r="B393" s="30"/>
     </row>
     <row r="394">
-      <c r="B394" s="29"/>
+      <c r="B394" s="30"/>
     </row>
     <row r="395">
-      <c r="B395" s="29"/>
+      <c r="B395" s="30"/>
     </row>
     <row r="396">
-      <c r="B396" s="29"/>
+      <c r="B396" s="30"/>
     </row>
     <row r="397">
-      <c r="B397" s="29"/>
+      <c r="B397" s="30"/>
     </row>
     <row r="398">
-      <c r="B398" s="29"/>
+      <c r="B398" s="30"/>
     </row>
     <row r="399">
-      <c r="B399" s="29"/>
+      <c r="B399" s="30"/>
     </row>
     <row r="400">
-      <c r="B400" s="29"/>
+      <c r="B400" s="30"/>
     </row>
     <row r="401">
-      <c r="B401" s="29"/>
+      <c r="B401" s="30"/>
     </row>
     <row r="402">
-      <c r="B402" s="29"/>
+      <c r="B402" s="30"/>
     </row>
     <row r="403">
-      <c r="B403" s="29"/>
+      <c r="B403" s="30"/>
     </row>
     <row r="404">
-      <c r="B404" s="29"/>
+      <c r="B404" s="30"/>
     </row>
     <row r="405">
-      <c r="B405" s="29"/>
+      <c r="B405" s="30"/>
     </row>
     <row r="406">
-      <c r="B406" s="29"/>
+      <c r="B406" s="30"/>
     </row>
     <row r="407">
-      <c r="B407" s="29"/>
+      <c r="B407" s="30"/>
     </row>
     <row r="408">
-      <c r="B408" s="29"/>
+      <c r="B408" s="30"/>
     </row>
     <row r="409">
-      <c r="B409" s="29"/>
+      <c r="B409" s="30"/>
     </row>
     <row r="410">
-      <c r="B410" s="29"/>
+      <c r="B410" s="30"/>
     </row>
     <row r="411">
-      <c r="B411" s="29"/>
+      <c r="B411" s="30"/>
     </row>
     <row r="412">
-      <c r="B412" s="29"/>
+      <c r="B412" s="30"/>
     </row>
     <row r="413">
-      <c r="B413" s="29"/>
+      <c r="B413" s="30"/>
     </row>
     <row r="414">
-      <c r="B414" s="29"/>
+      <c r="B414" s="30"/>
     </row>
     <row r="415">
-      <c r="B415" s="29"/>
+      <c r="B415" s="30"/>
     </row>
     <row r="416">
-      <c r="B416" s="29"/>
+      <c r="B416" s="30"/>
     </row>
     <row r="417">
-      <c r="B417" s="29"/>
+      <c r="B417" s="30"/>
     </row>
     <row r="418">
-      <c r="B418" s="29"/>
+      <c r="B418" s="30"/>
     </row>
     <row r="419">
-      <c r="B419" s="29"/>
+      <c r="B419" s="30"/>
     </row>
     <row r="420">
-      <c r="B420" s="29"/>
+      <c r="B420" s="30"/>
     </row>
     <row r="421">
-      <c r="B421" s="29"/>
+      <c r="B421" s="30"/>
     </row>
     <row r="422">
-      <c r="B422" s="29"/>
+      <c r="B422" s="30"/>
     </row>
     <row r="423">
-      <c r="B423" s="29"/>
+      <c r="B423" s="30"/>
     </row>
     <row r="424">
-      <c r="B424" s="29"/>
+      <c r="B424" s="30"/>
     </row>
     <row r="425">
-      <c r="B425" s="29"/>
+      <c r="B425" s="30"/>
     </row>
     <row r="426">
-      <c r="B426" s="29"/>
+      <c r="B426" s="30"/>
     </row>
     <row r="427">
-      <c r="B427" s="29"/>
+      <c r="B427" s="30"/>
     </row>
     <row r="428">
-      <c r="B428" s="29"/>
+      <c r="B428" s="30"/>
     </row>
     <row r="429">
-      <c r="B429" s="29"/>
+      <c r="B429" s="30"/>
     </row>
     <row r="430">
-      <c r="B430" s="29"/>
+      <c r="B430" s="30"/>
     </row>
     <row r="431">
-      <c r="B431" s="29"/>
+      <c r="B431" s="30"/>
     </row>
     <row r="432">
-      <c r="B432" s="29"/>
+      <c r="B432" s="30"/>
     </row>
     <row r="433">
-      <c r="B433" s="29"/>
+      <c r="B433" s="30"/>
     </row>
     <row r="434">
-      <c r="B434" s="29"/>
+      <c r="B434" s="30"/>
     </row>
     <row r="435">
-      <c r="B435" s="29"/>
+      <c r="B435" s="30"/>
     </row>
     <row r="436">
-      <c r="B436" s="29"/>
+      <c r="B436" s="30"/>
     </row>
     <row r="437">
-      <c r="B437" s="29"/>
+      <c r="B437" s="30"/>
     </row>
     <row r="438">
-      <c r="B438" s="29"/>
+      <c r="B438" s="30"/>
     </row>
     <row r="439">
-      <c r="B439" s="29"/>
+      <c r="B439" s="30"/>
     </row>
     <row r="440">
-      <c r="B440" s="29"/>
+      <c r="B440" s="30"/>
     </row>
     <row r="441">
-      <c r="B441" s="29"/>
+      <c r="B441" s="30"/>
     </row>
     <row r="442">
-      <c r="B442" s="29"/>
+      <c r="B442" s="30"/>
     </row>
     <row r="443">
-      <c r="B443" s="29"/>
+      <c r="B443" s="30"/>
     </row>
     <row r="444">
-      <c r="B444" s="29"/>
+      <c r="B444" s="30"/>
     </row>
     <row r="445">
-      <c r="B445" s="29"/>
+      <c r="B445" s="30"/>
     </row>
     <row r="446">
-      <c r="B446" s="29"/>
+      <c r="B446" s="30"/>
     </row>
     <row r="447">
-      <c r="B447" s="29"/>
+      <c r="B447" s="30"/>
     </row>
     <row r="448">
-      <c r="B448" s="29"/>
+      <c r="B448" s="30"/>
     </row>
     <row r="449">
-      <c r="B449" s="29"/>
+      <c r="B449" s="30"/>
     </row>
     <row r="450">
-      <c r="B450" s="29"/>
+      <c r="B450" s="30"/>
     </row>
     <row r="451">
-      <c r="B451" s="29"/>
+      <c r="B451" s="30"/>
     </row>
     <row r="452">
-      <c r="B452" s="29"/>
+      <c r="B452" s="30"/>
     </row>
     <row r="453">
-      <c r="B453" s="29"/>
+      <c r="B453" s="30"/>
     </row>
     <row r="454">
-      <c r="B454" s="29"/>
+      <c r="B454" s="30"/>
     </row>
     <row r="455">
-      <c r="B455" s="29"/>
+      <c r="B455" s="30"/>
     </row>
     <row r="456">
-      <c r="B456" s="29"/>
+      <c r="B456" s="30"/>
     </row>
     <row r="457">
-      <c r="B457" s="29"/>
+      <c r="B457" s="30"/>
     </row>
     <row r="458">
-      <c r="B458" s="29"/>
+      <c r="B458" s="30"/>
     </row>
     <row r="459">
-      <c r="B459" s="29"/>
+      <c r="B459" s="30"/>
     </row>
     <row r="460">
-      <c r="B460" s="29"/>
+      <c r="B460" s="30"/>
     </row>
     <row r="461">
-      <c r="B461" s="29"/>
+      <c r="B461" s="30"/>
     </row>
     <row r="462">
-      <c r="B462" s="29"/>
+      <c r="B462" s="30"/>
     </row>
     <row r="463">
-      <c r="B463" s="29"/>
+      <c r="B463" s="30"/>
     </row>
     <row r="464">
-      <c r="B464" s="29"/>
+      <c r="B464" s="30"/>
     </row>
     <row r="465">
-      <c r="B465" s="29"/>
+      <c r="B465" s="30"/>
     </row>
     <row r="466">
-      <c r="B466" s="29"/>
+      <c r="B466" s="30"/>
     </row>
     <row r="467">
-      <c r="B467" s="29"/>
+      <c r="B467" s="30"/>
     </row>
     <row r="468">
-      <c r="B468" s="29"/>
+      <c r="B468" s="30"/>
     </row>
     <row r="469">
-      <c r="B469" s="29"/>
+      <c r="B469" s="30"/>
     </row>
     <row r="470">
-      <c r="B470" s="29"/>
+      <c r="B470" s="30"/>
     </row>
     <row r="471">
-      <c r="B471" s="29"/>
+      <c r="B471" s="30"/>
     </row>
     <row r="472">
-      <c r="B472" s="29"/>
+      <c r="B472" s="30"/>
     </row>
     <row r="473">
-      <c r="B473" s="29"/>
+      <c r="B473" s="30"/>
     </row>
     <row r="474">
-      <c r="B474" s="29"/>
+      <c r="B474" s="30"/>
     </row>
     <row r="475">
-      <c r="B475" s="29"/>
+      <c r="B475" s="30"/>
     </row>
     <row r="476">
-      <c r="B476" s="29"/>
+      <c r="B476" s="30"/>
     </row>
     <row r="477">
-      <c r="B477" s="29"/>
+      <c r="B477" s="30"/>
     </row>
     <row r="478">
-      <c r="B478" s="29"/>
+      <c r="B478" s="30"/>
     </row>
     <row r="479">
-      <c r="B479" s="29"/>
+      <c r="B479" s="30"/>
     </row>
     <row r="480">
-      <c r="B480" s="29"/>
+      <c r="B480" s="30"/>
     </row>
     <row r="481">
-      <c r="B481" s="29"/>
+      <c r="B481" s="30"/>
     </row>
     <row r="482">
-      <c r="B482" s="29"/>
+      <c r="B482" s="30"/>
     </row>
     <row r="483">
-      <c r="B483" s="29"/>
+      <c r="B483" s="30"/>
     </row>
     <row r="484">
-      <c r="B484" s="29"/>
+      <c r="B484" s="30"/>
     </row>
     <row r="485">
-      <c r="B485" s="29"/>
+      <c r="B485" s="30"/>
     </row>
     <row r="486">
-      <c r="B486" s="29"/>
+      <c r="B486" s="30"/>
     </row>
     <row r="487">
-      <c r="B487" s="29"/>
+      <c r="B487" s="30"/>
     </row>
     <row r="488">
-      <c r="B488" s="29"/>
+      <c r="B488" s="30"/>
     </row>
     <row r="489">
-      <c r="B489" s="29"/>
+      <c r="B489" s="30"/>
     </row>
     <row r="490">
-      <c r="B490" s="29"/>
+      <c r="B490" s="30"/>
     </row>
     <row r="491">
-      <c r="B491" s="29"/>
+      <c r="B491" s="30"/>
     </row>
     <row r="492">
-      <c r="B492" s="29"/>
+      <c r="B492" s="30"/>
     </row>
     <row r="493">
-      <c r="B493" s="29"/>
+      <c r="B493" s="30"/>
     </row>
     <row r="494">
-      <c r="B494" s="29"/>
+      <c r="B494" s="30"/>
     </row>
     <row r="495">
-      <c r="B495" s="29"/>
+      <c r="B495" s="30"/>
     </row>
     <row r="496">
-      <c r="B496" s="29"/>
+      <c r="B496" s="30"/>
     </row>
     <row r="497">
-      <c r="B497" s="29"/>
+      <c r="B497" s="30"/>
     </row>
     <row r="498">
-      <c r="B498" s="29"/>
+      <c r="B498" s="30"/>
     </row>
     <row r="499">
-      <c r="B499" s="29"/>
+      <c r="B499" s="30"/>
     </row>
     <row r="500">
-      <c r="B500" s="29"/>
+      <c r="B500" s="30"/>
     </row>
     <row r="501">
-      <c r="B501" s="29"/>
+      <c r="B501" s="30"/>
     </row>
     <row r="502">
-      <c r="B502" s="29"/>
+      <c r="B502" s="30"/>
     </row>
     <row r="503">
-      <c r="B503" s="29"/>
+      <c r="B503" s="30"/>
     </row>
     <row r="504">
-      <c r="B504" s="29"/>
+      <c r="B504" s="30"/>
     </row>
     <row r="505">
-      <c r="B505" s="29"/>
+      <c r="B505" s="30"/>
     </row>
     <row r="506">
-      <c r="B506" s="29"/>
+      <c r="B506" s="30"/>
     </row>
     <row r="507">
-      <c r="B507" s="29"/>
+      <c r="B507" s="30"/>
     </row>
     <row r="508">
-      <c r="B508" s="29"/>
+      <c r="B508" s="30"/>
     </row>
     <row r="509">
-      <c r="B509" s="29"/>
+      <c r="B509" s="30"/>
     </row>
     <row r="510">
-      <c r="B510" s="29"/>
+      <c r="B510" s="30"/>
     </row>
     <row r="511">
-      <c r="B511" s="29"/>
+      <c r="B511" s="30"/>
     </row>
     <row r="512">
-      <c r="B512" s="29"/>
+      <c r="B512" s="30"/>
     </row>
     <row r="513">
-      <c r="B513" s="29"/>
+      <c r="B513" s="30"/>
     </row>
     <row r="514">
-      <c r="B514" s="29"/>
+      <c r="B514" s="30"/>
     </row>
     <row r="515">
-      <c r="B515" s="29"/>
+      <c r="B515" s="30"/>
     </row>
     <row r="516">
-      <c r="B516" s="29"/>
+      <c r="B516" s="30"/>
     </row>
     <row r="517">
-      <c r="B517" s="29"/>
+      <c r="B517" s="30"/>
     </row>
     <row r="518">
-      <c r="B518" s="29"/>
+      <c r="B518" s="30"/>
     </row>
     <row r="519">
-      <c r="B519" s="29"/>
+      <c r="B519" s="30"/>
     </row>
     <row r="520">
-      <c r="B520" s="29"/>
+      <c r="B520" s="30"/>
     </row>
     <row r="521">
-      <c r="B521" s="29"/>
+      <c r="B521" s="30"/>
     </row>
     <row r="522">
-      <c r="B522" s="29"/>
+      <c r="B522" s="30"/>
     </row>
     <row r="523">
-      <c r="B523" s="29"/>
+      <c r="B523" s="30"/>
     </row>
     <row r="524">
-      <c r="B524" s="29"/>
+      <c r="B524" s="30"/>
     </row>
     <row r="525">
-      <c r="B525" s="29"/>
+      <c r="B525" s="30"/>
     </row>
     <row r="526">
-      <c r="B526" s="29"/>
+      <c r="B526" s="30"/>
     </row>
     <row r="527">
-      <c r="B527" s="29"/>
+      <c r="B527" s="30"/>
     </row>
     <row r="528">
-      <c r="B528" s="29"/>
+      <c r="B528" s="30"/>
     </row>
     <row r="529">
-      <c r="B529" s="29"/>
+      <c r="B529" s="30"/>
     </row>
     <row r="530">
-      <c r="B530" s="29"/>
+      <c r="B530" s="30"/>
     </row>
     <row r="531">
-      <c r="B531" s="29"/>
+      <c r="B531" s="30"/>
     </row>
     <row r="532">
-      <c r="B532" s="29"/>
+      <c r="B532" s="30"/>
     </row>
     <row r="533">
-      <c r="B533" s="29"/>
+      <c r="B533" s="30"/>
     </row>
     <row r="534">
-      <c r="B534" s="29"/>
+      <c r="B534" s="30"/>
     </row>
     <row r="535">
-      <c r="B535" s="29"/>
+      <c r="B535" s="30"/>
     </row>
     <row r="536">
-      <c r="B536" s="29"/>
+      <c r="B536" s="30"/>
     </row>
     <row r="537">
-      <c r="B537" s="29"/>
+      <c r="B537" s="30"/>
     </row>
     <row r="538">
-      <c r="B538" s="29"/>
+      <c r="B538" s="30"/>
     </row>
     <row r="539">
-      <c r="B539" s="29"/>
+      <c r="B539" s="30"/>
     </row>
     <row r="540">
-      <c r="B540" s="29"/>
+      <c r="B540" s="30"/>
     </row>
     <row r="541">
-      <c r="B541" s="29"/>
+      <c r="B541" s="30"/>
     </row>
     <row r="542">
-      <c r="B542" s="29"/>
+      <c r="B542" s="30"/>
     </row>
     <row r="543">
-      <c r="B543" s="29"/>
+      <c r="B543" s="30"/>
     </row>
     <row r="544">
-      <c r="B544" s="29"/>
+      <c r="B544" s="30"/>
     </row>
     <row r="545">
-      <c r="B545" s="29"/>
+      <c r="B545" s="30"/>
     </row>
     <row r="546">
-      <c r="B546" s="29"/>
+      <c r="B546" s="30"/>
     </row>
     <row r="547">
-      <c r="B547" s="29"/>
+      <c r="B547" s="30"/>
     </row>
     <row r="548">
-      <c r="B548" s="29"/>
+      <c r="B548" s="30"/>
     </row>
     <row r="549">
-      <c r="B549" s="29"/>
+      <c r="B549" s="30"/>
     </row>
     <row r="550">
-      <c r="B550" s="29"/>
+      <c r="B550" s="30"/>
     </row>
     <row r="551">
-      <c r="B551" s="29"/>
+      <c r="B551" s="30"/>
     </row>
     <row r="552">
-      <c r="B552" s="29"/>
+      <c r="B552" s="30"/>
     </row>
     <row r="553">
-      <c r="B553" s="29"/>
+      <c r="B553" s="30"/>
     </row>
     <row r="554">
-      <c r="B554" s="29"/>
+      <c r="B554" s="30"/>
     </row>
     <row r="555">
-      <c r="B555" s="29"/>
+      <c r="B555" s="30"/>
     </row>
     <row r="556">
-      <c r="B556" s="29"/>
+      <c r="B556" s="30"/>
     </row>
     <row r="557">
-      <c r="B557" s="29"/>
+      <c r="B557" s="30"/>
     </row>
     <row r="558">
-      <c r="B558" s="29"/>
+      <c r="B558" s="30"/>
     </row>
     <row r="559">
-      <c r="B559" s="29"/>
+      <c r="B559" s="30"/>
     </row>
     <row r="560">
-      <c r="B560" s="29"/>
+      <c r="B560" s="30"/>
     </row>
     <row r="561">
-      <c r="B561" s="29"/>
+      <c r="B561" s="30"/>
     </row>
     <row r="562">
-      <c r="B562" s="29"/>
+      <c r="B562" s="30"/>
     </row>
     <row r="563">
-      <c r="B563" s="29"/>
+      <c r="B563" s="30"/>
     </row>
     <row r="564">
-      <c r="B564" s="29"/>
+      <c r="B564" s="30"/>
     </row>
     <row r="565">
-      <c r="B565" s="29"/>
+      <c r="B565" s="30"/>
     </row>
     <row r="566">
-      <c r="B566" s="29"/>
+      <c r="B566" s="30"/>
     </row>
     <row r="567">
-      <c r="B567" s="29"/>
+      <c r="B567" s="30"/>
     </row>
     <row r="568">
-      <c r="B568" s="29"/>
+      <c r="B568" s="30"/>
     </row>
     <row r="569">
-      <c r="B569" s="29"/>
+      <c r="B569" s="30"/>
     </row>
     <row r="570">
-      <c r="B570" s="29"/>
+      <c r="B570" s="30"/>
     </row>
     <row r="571">
-      <c r="B571" s="29"/>
+      <c r="B571" s="30"/>
     </row>
     <row r="572">
-      <c r="B572" s="29"/>
+      <c r="B572" s="30"/>
     </row>
     <row r="573">
-      <c r="B573" s="29"/>
+      <c r="B573" s="30"/>
     </row>
     <row r="574">
-      <c r="B574" s="29"/>
+      <c r="B574" s="30"/>
     </row>
     <row r="575">
-      <c r="B575" s="29"/>
+      <c r="B575" s="30"/>
     </row>
     <row r="576">
-      <c r="B576" s="29"/>
+      <c r="B576" s="30"/>
     </row>
     <row r="577">
-      <c r="B577" s="29"/>
+      <c r="B577" s="30"/>
     </row>
     <row r="578">
-      <c r="B578" s="29"/>
+      <c r="B578" s="30"/>
     </row>
     <row r="579">
-      <c r="B579" s="29"/>
+      <c r="B579" s="30"/>
     </row>
     <row r="580">
-      <c r="B580" s="29"/>
+      <c r="B580" s="30"/>
     </row>
     <row r="581">
-      <c r="B581" s="29"/>
+      <c r="B581" s="30"/>
     </row>
     <row r="582">
-      <c r="B582" s="29"/>
+      <c r="B582" s="30"/>
     </row>
     <row r="583">
-      <c r="B583" s="29"/>
+      <c r="B583" s="30"/>
     </row>
     <row r="584">
-      <c r="B584" s="29"/>
+      <c r="B584" s="30"/>
     </row>
     <row r="585">
-      <c r="B585" s="29"/>
+      <c r="B585" s="30"/>
     </row>
     <row r="586">
-      <c r="B586" s="29"/>
+      <c r="B586" s="30"/>
     </row>
     <row r="587">
-      <c r="B587" s="29"/>
+      <c r="B587" s="30"/>
     </row>
     <row r="588">
-      <c r="B588" s="29"/>
+      <c r="B588" s="30"/>
     </row>
     <row r="589">
-      <c r="B589" s="29"/>
+      <c r="B589" s="30"/>
     </row>
     <row r="590">
-      <c r="B590" s="29"/>
+      <c r="B590" s="30"/>
     </row>
     <row r="591">
-      <c r="B591" s="29"/>
+      <c r="B591" s="30"/>
     </row>
     <row r="592">
-      <c r="B592" s="29"/>
+      <c r="B592" s="30"/>
     </row>
     <row r="593">
-      <c r="B593" s="29"/>
+      <c r="B593" s="30"/>
     </row>
     <row r="594">
-      <c r="B594" s="29"/>
+      <c r="B594" s="30"/>
     </row>
     <row r="595">
-      <c r="B595" s="29"/>
+      <c r="B595" s="30"/>
     </row>
     <row r="596">
-      <c r="B596" s="29"/>
+      <c r="B596" s="30"/>
     </row>
     <row r="597">
-      <c r="B597" s="29"/>
+      <c r="B597" s="30"/>
     </row>
     <row r="598">
-      <c r="B598" s="29"/>
+      <c r="B598" s="30"/>
     </row>
     <row r="599">
-      <c r="B599" s="29"/>
+      <c r="B599" s="30"/>
     </row>
     <row r="600">
-      <c r="B600" s="29"/>
+      <c r="B600" s="30"/>
     </row>
     <row r="601">
-      <c r="B601" s="29"/>
+      <c r="B601" s="30"/>
     </row>
     <row r="602">
-      <c r="B602" s="29"/>
+      <c r="B602" s="30"/>
     </row>
     <row r="603">
-      <c r="B603" s="29"/>
+      <c r="B603" s="30"/>
     </row>
     <row r="604">
-      <c r="B604" s="29"/>
+      <c r="B604" s="30"/>
     </row>
     <row r="605">
-      <c r="B605" s="29"/>
+      <c r="B605" s="30"/>
     </row>
     <row r="606">
-      <c r="B606" s="29"/>
+      <c r="B606" s="30"/>
     </row>
     <row r="607">
-      <c r="B607" s="29"/>
+      <c r="B607" s="30"/>
     </row>
     <row r="608">
-      <c r="B608" s="29"/>
+      <c r="B608" s="30"/>
     </row>
     <row r="609">
-      <c r="B609" s="29"/>
+      <c r="B609" s="30"/>
     </row>
     <row r="610">
-      <c r="B610" s="29"/>
+      <c r="B610" s="30"/>
     </row>
     <row r="611">
-      <c r="B611" s="29"/>
+      <c r="B611" s="30"/>
     </row>
     <row r="612">
-      <c r="B612" s="29"/>
+      <c r="B612" s="30"/>
     </row>
     <row r="613">
-      <c r="B613" s="29"/>
+      <c r="B613" s="30"/>
     </row>
     <row r="614">
-      <c r="B614" s="29"/>
+      <c r="B614" s="30"/>
     </row>
     <row r="615">
-      <c r="B615" s="29"/>
+      <c r="B615" s="30"/>
     </row>
     <row r="616">
-      <c r="B616" s="29"/>
+      <c r="B616" s="30"/>
     </row>
     <row r="617">
-      <c r="B617" s="29"/>
+      <c r="B617" s="30"/>
     </row>
     <row r="618">
-      <c r="B618" s="29"/>
+      <c r="B618" s="30"/>
     </row>
     <row r="619">
-      <c r="B619" s="29"/>
+      <c r="B619" s="30"/>
     </row>
     <row r="620">
-      <c r="B620" s="29"/>
+      <c r="B620" s="30"/>
     </row>
     <row r="621">
-      <c r="B621" s="29"/>
+      <c r="B621" s="30"/>
     </row>
     <row r="622">
-      <c r="B622" s="29"/>
+      <c r="B622" s="30"/>
     </row>
     <row r="623">
-      <c r="B623" s="29"/>
+      <c r="B623" s="30"/>
     </row>
     <row r="624">
-      <c r="B624" s="29"/>
+      <c r="B624" s="30"/>
     </row>
     <row r="625">
-      <c r="B625" s="29"/>
+      <c r="B625" s="30"/>
     </row>
     <row r="626">
-      <c r="B626" s="29"/>
+      <c r="B626" s="30"/>
     </row>
     <row r="627">
-      <c r="B627" s="29"/>
+      <c r="B627" s="30"/>
     </row>
     <row r="628">
-      <c r="B628" s="29"/>
+      <c r="B628" s="30"/>
     </row>
     <row r="629">
-      <c r="B629" s="29"/>
+      <c r="B629" s="30"/>
     </row>
     <row r="630">
-      <c r="B630" s="29"/>
+      <c r="B630" s="30"/>
     </row>
     <row r="631">
-      <c r="B631" s="29"/>
+      <c r="B631" s="30"/>
     </row>
     <row r="632">
-      <c r="B632" s="29"/>
+      <c r="B632" s="30"/>
     </row>
     <row r="633">
-      <c r="B633" s="29"/>
+      <c r="B633" s="30"/>
     </row>
     <row r="634">
-      <c r="B634" s="29"/>
+      <c r="B634" s="30"/>
     </row>
     <row r="635">
-      <c r="B635" s="29"/>
+      <c r="B635" s="30"/>
     </row>
     <row r="636">
-      <c r="B636" s="29"/>
+      <c r="B636" s="30"/>
     </row>
     <row r="637">
-      <c r="B637" s="29"/>
+      <c r="B637" s="30"/>
     </row>
     <row r="638">
-      <c r="B638" s="29"/>
+      <c r="B638" s="30"/>
     </row>
     <row r="639">
-      <c r="B639" s="29"/>
+      <c r="B639" s="30"/>
     </row>
     <row r="640">
-      <c r="B640" s="29"/>
+      <c r="B640" s="30"/>
     </row>
     <row r="641">
-      <c r="B641" s="29"/>
+      <c r="B641" s="30"/>
     </row>
     <row r="642">
-      <c r="B642" s="29"/>
+      <c r="B642" s="30"/>
     </row>
     <row r="643">
-      <c r="B643" s="29"/>
+      <c r="B643" s="30"/>
     </row>
     <row r="644">
-      <c r="B644" s="29"/>
+      <c r="B644" s="30"/>
     </row>
     <row r="645">
-      <c r="B645" s="29"/>
+      <c r="B645" s="30"/>
     </row>
     <row r="646">
-      <c r="B646" s="29"/>
+      <c r="B646" s="30"/>
     </row>
     <row r="647">
-      <c r="B647" s="29"/>
+      <c r="B647" s="30"/>
     </row>
     <row r="648">
-      <c r="B648" s="29"/>
+      <c r="B648" s="30"/>
     </row>
     <row r="649">
-      <c r="B649" s="29"/>
+      <c r="B649" s="30"/>
     </row>
     <row r="650">
-      <c r="B650" s="29"/>
+      <c r="B650" s="30"/>
     </row>
     <row r="651">
-      <c r="B651" s="29"/>
+      <c r="B651" s="30"/>
     </row>
     <row r="652">
-      <c r="B652" s="29"/>
+      <c r="B652" s="30"/>
     </row>
     <row r="653">
-      <c r="B653" s="29"/>
+      <c r="B653" s="30"/>
     </row>
     <row r="654">
-      <c r="B654" s="29"/>
+      <c r="B654" s="30"/>
     </row>
     <row r="655">
-      <c r="B655" s="29"/>
+      <c r="B655" s="30"/>
     </row>
     <row r="656">
-      <c r="B656" s="29"/>
+      <c r="B656" s="30"/>
     </row>
     <row r="657">
-      <c r="B657" s="29"/>
+      <c r="B657" s="30"/>
     </row>
     <row r="658">
-      <c r="B658" s="29"/>
+      <c r="B658" s="30"/>
     </row>
     <row r="659">
-      <c r="B659" s="29"/>
+      <c r="B659" s="30"/>
     </row>
     <row r="660">
-      <c r="B660" s="29"/>
+      <c r="B660" s="30"/>
     </row>
     <row r="661">
-      <c r="B661" s="29"/>
+      <c r="B661" s="30"/>
     </row>
     <row r="662">
-      <c r="B662" s="29"/>
+      <c r="B662" s="30"/>
     </row>
     <row r="663">
-      <c r="B663" s="29"/>
+      <c r="B663" s="30"/>
     </row>
     <row r="664">
-      <c r="B664" s="29"/>
+      <c r="B664" s="30"/>
     </row>
     <row r="665">
-      <c r="B665" s="29"/>
+      <c r="B665" s="30"/>
     </row>
     <row r="666">
-      <c r="B666" s="29"/>
+      <c r="B666" s="30"/>
     </row>
     <row r="667">
-      <c r="B667" s="29"/>
+      <c r="B667" s="30"/>
     </row>
     <row r="668">
-      <c r="B668" s="29"/>
+      <c r="B668" s="30"/>
     </row>
     <row r="669">
-      <c r="B669" s="29"/>
+      <c r="B669" s="30"/>
     </row>
     <row r="670">
-      <c r="B670" s="29"/>
+      <c r="B670" s="30"/>
     </row>
     <row r="671">
-      <c r="B671" s="29"/>
+      <c r="B671" s="30"/>
     </row>
     <row r="672">
-      <c r="B672" s="29"/>
+      <c r="B672" s="30"/>
     </row>
     <row r="673">
-      <c r="B673" s="29"/>
+      <c r="B673" s="30"/>
     </row>
     <row r="674">
-      <c r="B674" s="29"/>
+      <c r="B674" s="30"/>
     </row>
     <row r="675">
-      <c r="B675" s="29"/>
+      <c r="B675" s="30"/>
     </row>
     <row r="676">
-      <c r="B676" s="29"/>
+      <c r="B676" s="30"/>
     </row>
     <row r="677">
-      <c r="B677" s="29"/>
+      <c r="B677" s="30"/>
     </row>
     <row r="678">
-      <c r="B678" s="29"/>
+      <c r="B678" s="30"/>
     </row>
     <row r="679">
-      <c r="B679" s="29"/>
+      <c r="B679" s="30"/>
     </row>
     <row r="680">
-      <c r="B680" s="29"/>
+      <c r="B680" s="30"/>
     </row>
     <row r="681">
-      <c r="B681" s="29"/>
+      <c r="B681" s="30"/>
     </row>
     <row r="682">
-      <c r="B682" s="29"/>
+      <c r="B682" s="30"/>
     </row>
     <row r="683">
-      <c r="B683" s="29"/>
+      <c r="B683" s="30"/>
     </row>
     <row r="684">
-      <c r="B684" s="29"/>
+      <c r="B684" s="30"/>
     </row>
     <row r="685">
-      <c r="B685" s="29"/>
+      <c r="B685" s="30"/>
     </row>
     <row r="686">
-      <c r="B686" s="29"/>
+      <c r="B686" s="30"/>
     </row>
     <row r="687">
-      <c r="B687" s="29"/>
+      <c r="B687" s="30"/>
     </row>
     <row r="688">
-      <c r="B688" s="29"/>
+      <c r="B688" s="30"/>
     </row>
     <row r="689">
-      <c r="B689" s="29"/>
+      <c r="B689" s="30"/>
     </row>
     <row r="690">
-      <c r="B690" s="29"/>
+      <c r="B690" s="30"/>
     </row>
     <row r="691">
-      <c r="B691" s="29"/>
+      <c r="B691" s="30"/>
     </row>
     <row r="692">
-      <c r="B692" s="29"/>
+      <c r="B692" s="30"/>
     </row>
     <row r="693">
-      <c r="B693" s="29"/>
+      <c r="B693" s="30"/>
     </row>
     <row r="694">
-      <c r="B694" s="29"/>
+      <c r="B694" s="30"/>
     </row>
     <row r="695">
-      <c r="B695" s="29"/>
+      <c r="B695" s="30"/>
     </row>
     <row r="696">
-      <c r="B696" s="29"/>
+      <c r="B696" s="30"/>
     </row>
     <row r="697">
-      <c r="B697" s="29"/>
+      <c r="B697" s="30"/>
     </row>
     <row r="698">
-      <c r="B698" s="29"/>
+      <c r="B698" s="30"/>
     </row>
     <row r="699">
-      <c r="B699" s="29"/>
+      <c r="B699" s="30"/>
     </row>
     <row r="700">
-      <c r="B700" s="29"/>
+      <c r="B700" s="30"/>
     </row>
     <row r="701">
-      <c r="B701" s="29"/>
+      <c r="B701" s="30"/>
     </row>
     <row r="702">
-      <c r="B702" s="29"/>
+      <c r="B702" s="30"/>
     </row>
     <row r="703">
-      <c r="B703" s="29"/>
+      <c r="B703" s="30"/>
     </row>
     <row r="704">
-      <c r="B704" s="29"/>
+      <c r="B704" s="30"/>
     </row>
     <row r="705">
-      <c r="B705" s="29"/>
+      <c r="B705" s="30"/>
     </row>
     <row r="706">
-      <c r="B706" s="29"/>
+      <c r="B706" s="30"/>
     </row>
     <row r="707">
-      <c r="B707" s="29"/>
+      <c r="B707" s="30"/>
     </row>
     <row r="708">
-      <c r="B708" s="29"/>
+      <c r="B708" s="30"/>
     </row>
     <row r="709">
-      <c r="B709" s="29"/>
+      <c r="B709" s="30"/>
     </row>
     <row r="710">
-      <c r="B710" s="29"/>
+      <c r="B710" s="30"/>
     </row>
     <row r="711">
-      <c r="B711" s="29"/>
+      <c r="B711" s="30"/>
     </row>
     <row r="712">
-      <c r="B712" s="29"/>
+      <c r="B712" s="30"/>
     </row>
     <row r="713">
-      <c r="B713" s="29"/>
+      <c r="B713" s="30"/>
     </row>
     <row r="714">
-      <c r="B714" s="29"/>
+      <c r="B714" s="30"/>
     </row>
     <row r="715">
-      <c r="B715" s="29"/>
+      <c r="B715" s="30"/>
     </row>
     <row r="716">
-      <c r="B716" s="29"/>
+      <c r="B716" s="30"/>
     </row>
     <row r="717">
-      <c r="B717" s="29"/>
+      <c r="B717" s="30"/>
     </row>
     <row r="718">
-      <c r="B718" s="29"/>
+      <c r="B718" s="30"/>
     </row>
     <row r="719">
-      <c r="B719" s="29"/>
+      <c r="B719" s="30"/>
     </row>
     <row r="720">
-      <c r="B720" s="29"/>
+      <c r="B720" s="30"/>
     </row>
     <row r="721">
-      <c r="B721" s="29"/>
+      <c r="B721" s="30"/>
     </row>
     <row r="722">
-      <c r="B722" s="29"/>
+      <c r="B722" s="30"/>
     </row>
     <row r="723">
-      <c r="B723" s="29"/>
+      <c r="B723" s="30"/>
     </row>
     <row r="724">
-      <c r="B724" s="29"/>
+      <c r="B724" s="30"/>
     </row>
     <row r="725">
-      <c r="B725" s="29"/>
+      <c r="B725" s="30"/>
     </row>
     <row r="726">
-      <c r="B726" s="29"/>
+      <c r="B726" s="30"/>
     </row>
     <row r="727">
-      <c r="B727" s="29"/>
+      <c r="B727" s="30"/>
     </row>
     <row r="728">
-      <c r="B728" s="29"/>
+      <c r="B728" s="30"/>
     </row>
     <row r="729">
-      <c r="B729" s="29"/>
+      <c r="B729" s="30"/>
     </row>
     <row r="730">
-      <c r="B730" s="29"/>
+      <c r="B730" s="30"/>
     </row>
     <row r="731">
-      <c r="B731" s="29"/>
+      <c r="B731" s="30"/>
     </row>
     <row r="732">
-      <c r="B732" s="29"/>
+      <c r="B732" s="30"/>
     </row>
     <row r="733">
-      <c r="B733" s="29"/>
+      <c r="B733" s="30"/>
     </row>
     <row r="734">
-      <c r="B734" s="29"/>
+      <c r="B734" s="30"/>
     </row>
     <row r="735">
-      <c r="B735" s="29"/>
+      <c r="B735" s="30"/>
     </row>
     <row r="736">
-      <c r="B736" s="29"/>
+      <c r="B736" s="30"/>
     </row>
     <row r="737">
-      <c r="B737" s="29"/>
+      <c r="B737" s="30"/>
     </row>
     <row r="738">
-      <c r="B738" s="29"/>
+      <c r="B738" s="30"/>
     </row>
     <row r="739">
-      <c r="B739" s="29"/>
+      <c r="B739" s="30"/>
     </row>
     <row r="740">
-      <c r="B740" s="29"/>
+      <c r="B740" s="30"/>
     </row>
     <row r="741">
-      <c r="B741" s="29"/>
+      <c r="B741" s="30"/>
     </row>
     <row r="742">
-      <c r="B742" s="29"/>
+      <c r="B742" s="30"/>
     </row>
     <row r="743">
-      <c r="B743" s="29"/>
+      <c r="B743" s="30"/>
     </row>
     <row r="744">
-      <c r="B744" s="29"/>
+      <c r="B744" s="30"/>
     </row>
     <row r="745">
-      <c r="B745" s="29"/>
+      <c r="B745" s="30"/>
     </row>
     <row r="746">
-      <c r="B746" s="29"/>
+      <c r="B746" s="30"/>
     </row>
     <row r="747">
-      <c r="B747" s="29"/>
+      <c r="B747" s="30"/>
     </row>
     <row r="748">
-      <c r="B748" s="29"/>
+      <c r="B748" s="30"/>
     </row>
     <row r="749">
-      <c r="B749" s="29"/>
+      <c r="B749" s="30"/>
     </row>
     <row r="750">
-      <c r="B750" s="29"/>
+      <c r="B750" s="30"/>
     </row>
     <row r="751">
-      <c r="B751" s="29"/>
+      <c r="B751" s="30"/>
     </row>
     <row r="752">
-      <c r="B752" s="29"/>
+      <c r="B752" s="30"/>
     </row>
     <row r="753">
-      <c r="B753" s="29"/>
+      <c r="B753" s="30"/>
     </row>
     <row r="754">
-      <c r="B754" s="29"/>
+      <c r="B754" s="30"/>
     </row>
     <row r="755">
-      <c r="B755" s="29"/>
+      <c r="B755" s="30"/>
     </row>
     <row r="756">
-      <c r="B756" s="29"/>
+      <c r="B756" s="30"/>
     </row>
     <row r="757">
-      <c r="B757" s="29"/>
+      <c r="B757" s="30"/>
     </row>
     <row r="758">
-      <c r="B758" s="29"/>
+      <c r="B758" s="30"/>
     </row>
     <row r="759">
-      <c r="B759" s="29"/>
+      <c r="B759" s="30"/>
     </row>
     <row r="760">
-      <c r="B760" s="29"/>
+      <c r="B760" s="30"/>
     </row>
     <row r="761">
-      <c r="B761" s="29"/>
+      <c r="B761" s="30"/>
     </row>
     <row r="762">
-      <c r="B762" s="29"/>
+      <c r="B762" s="30"/>
     </row>
     <row r="763">
-      <c r="B763" s="29"/>
+      <c r="B763" s="30"/>
     </row>
     <row r="764">
-      <c r="B764" s="29"/>
+      <c r="B764" s="30"/>
     </row>
     <row r="765">
-      <c r="B765" s="29"/>
+      <c r="B765" s="30"/>
     </row>
     <row r="766">
-      <c r="B766" s="29"/>
+      <c r="B766" s="30"/>
     </row>
     <row r="767">
-      <c r="B767" s="29"/>
+      <c r="B767" s="30"/>
     </row>
     <row r="768">
-      <c r="B768" s="29"/>
+      <c r="B768" s="30"/>
     </row>
     <row r="769">
-      <c r="B769" s="29"/>
+      <c r="B769" s="30"/>
     </row>
     <row r="770">
-      <c r="B770" s="29"/>
+      <c r="B770" s="30"/>
     </row>
     <row r="771">
-      <c r="B771" s="29"/>
+      <c r="B771" s="30"/>
     </row>
     <row r="772">
-      <c r="B772" s="29"/>
+      <c r="B772" s="30"/>
     </row>
     <row r="773">
-      <c r="B773" s="29"/>
+      <c r="B773" s="30"/>
     </row>
     <row r="774">
-      <c r="B774" s="29"/>
+      <c r="B774" s="30"/>
     </row>
     <row r="775">
-      <c r="B775" s="29"/>
+      <c r="B775" s="30"/>
     </row>
     <row r="776">
-      <c r="B776" s="29"/>
+      <c r="B776" s="30"/>
     </row>
     <row r="777">
-      <c r="B777" s="29"/>
+      <c r="B777" s="30"/>
     </row>
     <row r="778">
-      <c r="B778" s="29"/>
+      <c r="B778" s="30"/>
     </row>
     <row r="779">
-      <c r="B779" s="29"/>
+      <c r="B779" s="30"/>
     </row>
     <row r="780">
-      <c r="B780" s="29"/>
+      <c r="B780" s="30"/>
     </row>
     <row r="781">
-      <c r="B781" s="29"/>
+      <c r="B781" s="30"/>
     </row>
     <row r="782">
-      <c r="B782" s="29"/>
+      <c r="B782" s="30"/>
     </row>
     <row r="783">
-      <c r="B783" s="29"/>
+      <c r="B783" s="30"/>
     </row>
     <row r="784">
-      <c r="B784" s="29"/>
+      <c r="B784" s="30"/>
     </row>
     <row r="785">
-      <c r="B785" s="29"/>
+      <c r="B785" s="30"/>
     </row>
     <row r="786">
-      <c r="B786" s="29"/>
+      <c r="B786" s="30"/>
     </row>
     <row r="787">
-      <c r="B787" s="29"/>
+      <c r="B787" s="30"/>
     </row>
     <row r="788">
-      <c r="B788" s="29"/>
+      <c r="B788" s="30"/>
     </row>
     <row r="789">
-      <c r="B789" s="29"/>
+      <c r="B789" s="30"/>
     </row>
     <row r="790">
-      <c r="B790" s="29"/>
+      <c r="B790" s="30"/>
     </row>
     <row r="791">
-      <c r="B791" s="29"/>
+      <c r="B791" s="30"/>
     </row>
     <row r="792">
-      <c r="B792" s="29"/>
+      <c r="B792" s="30"/>
     </row>
     <row r="793">
-      <c r="B793" s="29"/>
+      <c r="B793" s="30"/>
     </row>
     <row r="794">
-      <c r="B794" s="29"/>
+      <c r="B794" s="30"/>
     </row>
     <row r="795">
-      <c r="B795" s="29"/>
+      <c r="B795" s="30"/>
     </row>
     <row r="796">
-      <c r="B796" s="29"/>
+      <c r="B796" s="30"/>
     </row>
     <row r="797">
-      <c r="B797" s="29"/>
+      <c r="B797" s="30"/>
     </row>
     <row r="798">
-      <c r="B798" s="29"/>
+      <c r="B798" s="30"/>
     </row>
     <row r="799">
-      <c r="B799" s="29"/>
+      <c r="B799" s="30"/>
     </row>
     <row r="800">
-      <c r="B800" s="29"/>
+      <c r="B800" s="30"/>
     </row>
     <row r="801">
-      <c r="B801" s="29"/>
+      <c r="B801" s="30"/>
     </row>
     <row r="802">
-      <c r="B802" s="29"/>
+      <c r="B802" s="30"/>
     </row>
     <row r="803">
-      <c r="B803" s="29"/>
+      <c r="B803" s="30"/>
     </row>
     <row r="804">
-      <c r="B804" s="29"/>
+      <c r="B804" s="30"/>
     </row>
     <row r="805">
-      <c r="B805" s="29"/>
+      <c r="B805" s="30"/>
     </row>
     <row r="806">
-      <c r="B806" s="29"/>
+      <c r="B806" s="30"/>
     </row>
     <row r="807">
-      <c r="B807" s="29"/>
+      <c r="B807" s="30"/>
     </row>
     <row r="808">
-      <c r="B808" s="29"/>
+      <c r="B808" s="30"/>
     </row>
     <row r="809">
-      <c r="B809" s="29"/>
+      <c r="B809" s="30"/>
     </row>
     <row r="810">
-      <c r="B810" s="29"/>
+      <c r="B810" s="30"/>
     </row>
     <row r="811">
-      <c r="B811" s="29"/>
+      <c r="B811" s="30"/>
     </row>
     <row r="812">
-      <c r="B812" s="29"/>
+      <c r="B812" s="30"/>
     </row>
     <row r="813">
-      <c r="B813" s="29"/>
+      <c r="B813" s="30"/>
     </row>
     <row r="814">
-      <c r="B814" s="29"/>
+      <c r="B814" s="30"/>
     </row>
     <row r="815">
-      <c r="B815" s="29"/>
+      <c r="B815" s="30"/>
     </row>
     <row r="816">
-      <c r="B816" s="29"/>
+      <c r="B816" s="30"/>
     </row>
     <row r="817">
-      <c r="B817" s="29"/>
+      <c r="B817" s="30"/>
     </row>
     <row r="818">
-      <c r="B818" s="29"/>
+      <c r="B818" s="30"/>
     </row>
     <row r="819">
-      <c r="B819" s="29"/>
+      <c r="B819" s="30"/>
     </row>
     <row r="820">
-      <c r="B820" s="29"/>
+      <c r="B820" s="30"/>
     </row>
     <row r="821">
-      <c r="B821" s="29"/>
+      <c r="B821" s="30"/>
     </row>
     <row r="822">
-      <c r="B822" s="29"/>
+      <c r="B822" s="30"/>
     </row>
     <row r="823">
-      <c r="B823" s="29"/>
+      <c r="B823" s="30"/>
     </row>
     <row r="824">
-      <c r="B824" s="29"/>
+      <c r="B824" s="30"/>
     </row>
     <row r="825">
-      <c r="B825" s="29"/>
+      <c r="B825" s="30"/>
     </row>
     <row r="826">
-      <c r="B826" s="29"/>
+      <c r="B826" s="30"/>
     </row>
     <row r="827">
-      <c r="B827" s="29"/>
+      <c r="B827" s="30"/>
     </row>
     <row r="828">
-      <c r="B828" s="29"/>
+      <c r="B828" s="30"/>
     </row>
     <row r="829">
-      <c r="B829" s="29"/>
+      <c r="B829" s="30"/>
     </row>
     <row r="830">
-      <c r="B830" s="29"/>
+      <c r="B830" s="30"/>
     </row>
     <row r="831">
-      <c r="B831" s="29"/>
+      <c r="B831" s="30"/>
     </row>
     <row r="832">
-      <c r="B832" s="29"/>
+      <c r="B832" s="30"/>
     </row>
     <row r="833">
-      <c r="B833" s="29"/>
+      <c r="B833" s="30"/>
     </row>
     <row r="834">
-      <c r="B834" s="29"/>
+      <c r="B834" s="30"/>
     </row>
     <row r="835">
-      <c r="B835" s="29"/>
+      <c r="B835" s="30"/>
     </row>
     <row r="836">
-      <c r="B836" s="29"/>
+      <c r="B836" s="30"/>
     </row>
     <row r="837">
-      <c r="B837" s="29"/>
+      <c r="B837" s="30"/>
     </row>
     <row r="838">
-      <c r="B838" s="29"/>
+      <c r="B838" s="30"/>
     </row>
     <row r="839">
-      <c r="B839" s="29"/>
+      <c r="B839" s="30"/>
     </row>
     <row r="840">
-      <c r="B840" s="29"/>
+      <c r="B840" s="30"/>
     </row>
     <row r="841">
-      <c r="B841" s="29"/>
+      <c r="B841" s="30"/>
     </row>
     <row r="842">
-      <c r="B842" s="29"/>
+      <c r="B842" s="30"/>
     </row>
     <row r="843">
-      <c r="B843" s="29"/>
+      <c r="B843" s="30"/>
     </row>
     <row r="844">
-      <c r="B844" s="29"/>
+      <c r="B844" s="30"/>
     </row>
     <row r="845">
-      <c r="B845" s="29"/>
+      <c r="B845" s="30"/>
     </row>
     <row r="846">
-      <c r="B846" s="29"/>
+      <c r="B846" s="30"/>
     </row>
     <row r="847">
-      <c r="B847" s="29"/>
+      <c r="B847" s="30"/>
     </row>
     <row r="848">
-      <c r="B848" s="29"/>
+      <c r="B848" s="30"/>
     </row>
     <row r="849">
-      <c r="B849" s="29"/>
+      <c r="B849" s="30"/>
     </row>
     <row r="850">
-      <c r="B850" s="29"/>
+      <c r="B850" s="30"/>
     </row>
     <row r="851">
-      <c r="B851" s="29"/>
+      <c r="B851" s="30"/>
     </row>
     <row r="852">
-      <c r="B852" s="29"/>
+      <c r="B852" s="30"/>
     </row>
     <row r="853">
-      <c r="B853" s="29"/>
+      <c r="B853" s="30"/>
     </row>
     <row r="854">
-      <c r="B854" s="29"/>
+      <c r="B854" s="30"/>
     </row>
     <row r="855">
-      <c r="B855" s="29"/>
+      <c r="B855" s="30"/>
     </row>
     <row r="856">
-      <c r="B856" s="29"/>
+      <c r="B856" s="30"/>
     </row>
     <row r="857">
-      <c r="B857" s="29"/>
+      <c r="B857" s="30"/>
     </row>
     <row r="858">
-      <c r="B858" s="29"/>
+      <c r="B858" s="30"/>
     </row>
     <row r="859">
-      <c r="B859" s="29"/>
+      <c r="B859" s="30"/>
     </row>
     <row r="860">
-      <c r="B860" s="29"/>
+      <c r="B860" s="30"/>
     </row>
     <row r="861">
-      <c r="B861" s="29"/>
+      <c r="B861" s="30"/>
     </row>
     <row r="862">
-      <c r="B862" s="29"/>
+      <c r="B862" s="30"/>
     </row>
     <row r="863">
-      <c r="B863" s="29"/>
+      <c r="B863" s="30"/>
     </row>
     <row r="864">
-      <c r="B864" s="29"/>
+      <c r="B864" s="30"/>
     </row>
     <row r="865">
-      <c r="B865" s="29"/>
+      <c r="B865" s="30"/>
     </row>
     <row r="866">
-      <c r="B866" s="29"/>
+      <c r="B866" s="30"/>
     </row>
     <row r="867">
-      <c r="B867" s="29"/>
+      <c r="B867" s="30"/>
     </row>
     <row r="868">
-      <c r="B868" s="29"/>
+      <c r="B868" s="30"/>
     </row>
     <row r="869">
-      <c r="B869" s="29"/>
+      <c r="B869" s="30"/>
     </row>
     <row r="870">
-      <c r="B870" s="29"/>
+      <c r="B870" s="30"/>
     </row>
     <row r="871">
-      <c r="B871" s="29"/>
+      <c r="B871" s="30"/>
     </row>
     <row r="872">
-      <c r="B872" s="29"/>
+      <c r="B872" s="30"/>
     </row>
     <row r="873">
-      <c r="B873" s="29"/>
+      <c r="B873" s="30"/>
     </row>
     <row r="874">
-      <c r="B874" s="29"/>
+      <c r="B874" s="30"/>
     </row>
     <row r="875">
-      <c r="B875" s="29"/>
+      <c r="B875" s="30"/>
     </row>
     <row r="876">
-      <c r="B876" s="29"/>
+      <c r="B876" s="30"/>
     </row>
     <row r="877">
-      <c r="B877" s="29"/>
+      <c r="B877" s="30"/>
     </row>
     <row r="878">
-      <c r="B878" s="29"/>
+      <c r="B878" s="30"/>
     </row>
     <row r="879">
-      <c r="B879" s="29"/>
+      <c r="B879" s="30"/>
     </row>
     <row r="880">
-      <c r="B880" s="29"/>
+      <c r="B880" s="30"/>
     </row>
     <row r="881">
-      <c r="B881" s="29"/>
+      <c r="B881" s="30"/>
     </row>
     <row r="882">
-      <c r="B882" s="29"/>
+      <c r="B882" s="30"/>
     </row>
     <row r="883">
-      <c r="B883" s="29"/>
+      <c r="B883" s="30"/>
     </row>
     <row r="884">
-      <c r="B884" s="29"/>
+      <c r="B884" s="30"/>
     </row>
     <row r="885">
-      <c r="B885" s="29"/>
+      <c r="B885" s="30"/>
     </row>
     <row r="886">
-      <c r="B886" s="29"/>
+      <c r="B886" s="30"/>
     </row>
     <row r="887">
-      <c r="B887" s="29"/>
+      <c r="B887" s="30"/>
     </row>
     <row r="888">
-      <c r="B888" s="29"/>
+      <c r="B888" s="30"/>
     </row>
     <row r="889">
-      <c r="B889" s="29"/>
+      <c r="B889" s="30"/>
     </row>
     <row r="890">
-      <c r="B890" s="29"/>
+      <c r="B890" s="30"/>
     </row>
     <row r="891">
-      <c r="B891" s="29"/>
+      <c r="B891" s="30"/>
     </row>
     <row r="892">
-      <c r="B892" s="29"/>
+      <c r="B892" s="30"/>
     </row>
     <row r="893">
-      <c r="B893" s="29"/>
+      <c r="B893" s="30"/>
     </row>
     <row r="894">
-      <c r="B894" s="29"/>
+      <c r="B894" s="30"/>
     </row>
     <row r="895">
-      <c r="B895" s="29"/>
+      <c r="B895" s="30"/>
     </row>
     <row r="896">
-      <c r="B896" s="29"/>
+      <c r="B896" s="30"/>
     </row>
     <row r="897">
-      <c r="B897" s="29"/>
+      <c r="B897" s="30"/>
     </row>
     <row r="898">
-      <c r="B898" s="29"/>
+      <c r="B898" s="30"/>
     </row>
     <row r="899">
-      <c r="B899" s="29"/>
+      <c r="B899" s="30"/>
     </row>
     <row r="900">
-      <c r="B900" s="29"/>
+      <c r="B900" s="30"/>
     </row>
     <row r="901">
-      <c r="B901" s="29"/>
+      <c r="B901" s="30"/>
     </row>
     <row r="902">
-      <c r="B902" s="29"/>
+      <c r="B902" s="30"/>
     </row>
     <row r="903">
-      <c r="B903" s="29"/>
+      <c r="B903" s="30"/>
     </row>
     <row r="904">
-      <c r="B904" s="29"/>
+      <c r="B904" s="30"/>
     </row>
     <row r="905">
-      <c r="B905" s="29"/>
+      <c r="B905" s="30"/>
     </row>
     <row r="906">
-      <c r="B906" s="29"/>
+      <c r="B906" s="30"/>
     </row>
     <row r="907">
-      <c r="B907" s="29"/>
+      <c r="B907" s="30"/>
     </row>
     <row r="908">
-      <c r="B908" s="29"/>
+      <c r="B908" s="30"/>
     </row>
     <row r="909">
-      <c r="B909" s="29"/>
+      <c r="B909" s="30"/>
     </row>
     <row r="910">
-      <c r="B910" s="29"/>
+      <c r="B910" s="30"/>
     </row>
     <row r="911">
-      <c r="B911" s="29"/>
+      <c r="B911" s="30"/>
     </row>
     <row r="912">
-      <c r="B912" s="29"/>
+      <c r="B912" s="30"/>
     </row>
     <row r="913">
-      <c r="B913" s="29"/>
+      <c r="B913" s="30"/>
     </row>
     <row r="914">
-      <c r="B914" s="29"/>
+      <c r="B914" s="30"/>
     </row>
     <row r="915">
-      <c r="B915" s="29"/>
+      <c r="B915" s="30"/>
     </row>
     <row r="916">
-      <c r="B916" s="29"/>
+      <c r="B916" s="30"/>
     </row>
     <row r="917">
-      <c r="B917" s="29"/>
+      <c r="B917" s="30"/>
     </row>
     <row r="918">
-      <c r="B918" s="29"/>
+      <c r="B918" s="30"/>
     </row>
     <row r="919">
-      <c r="B919" s="29"/>
+      <c r="B919" s="30"/>
     </row>
     <row r="920">
-      <c r="B920" s="29"/>
+      <c r="B920" s="30"/>
     </row>
     <row r="921">
-      <c r="B921" s="29"/>
+      <c r="B921" s="30"/>
     </row>
     <row r="922">
-      <c r="B922" s="29"/>
+      <c r="B922" s="30"/>
     </row>
     <row r="923">
-      <c r="B923" s="29"/>
+      <c r="B923" s="30"/>
     </row>
     <row r="924">
-      <c r="B924" s="29"/>
+      <c r="B924" s="30"/>
     </row>
     <row r="925">
-      <c r="B925" s="29"/>
+      <c r="B925" s="30"/>
     </row>
     <row r="926">
-      <c r="B926" s="29"/>
+      <c r="B926" s="30"/>
     </row>
     <row r="927">
-      <c r="B927" s="29"/>
+      <c r="B927" s="30"/>
     </row>
     <row r="928">
-      <c r="B928" s="29"/>
+      <c r="B928" s="30"/>
     </row>
     <row r="929">
-      <c r="B929" s="29"/>
+      <c r="B929" s="30"/>
     </row>
     <row r="930">
-      <c r="B930" s="29"/>
+      <c r="B930" s="30"/>
     </row>
     <row r="931">
-      <c r="B931" s="29"/>
+      <c r="B931" s="30"/>
     </row>
     <row r="932">
-      <c r="B932" s="29"/>
+      <c r="B932" s="30"/>
     </row>
     <row r="933">
-      <c r="B933" s="29"/>
+      <c r="B933" s="30"/>
     </row>
     <row r="934">
-      <c r="B934" s="29"/>
+      <c r="B934" s="30"/>
     </row>
     <row r="935">
-      <c r="B935" s="29"/>
+      <c r="B935" s="30"/>
     </row>
     <row r="936">
-      <c r="B936" s="29"/>
+      <c r="B936" s="30"/>
     </row>
     <row r="937">
-      <c r="B937" s="29"/>
+      <c r="B937" s="30"/>
     </row>
     <row r="938">
-      <c r="B938" s="29"/>
+      <c r="B938" s="30"/>
     </row>
     <row r="939">
-      <c r="B939" s="29"/>
+      <c r="B939" s="30"/>
     </row>
     <row r="940">
-      <c r="B940" s="29"/>
+      <c r="B940" s="30"/>
     </row>
     <row r="941">
-      <c r="B941" s="29"/>
+      <c r="B941" s="30"/>
     </row>
     <row r="942">
-      <c r="B942" s="29"/>
+      <c r="B942" s="30"/>
     </row>
     <row r="943">
-      <c r="B943" s="29"/>
+      <c r="B943" s="30"/>
     </row>
     <row r="944">
-      <c r="B944" s="29"/>
+      <c r="B944" s="30"/>
     </row>
     <row r="945">
-      <c r="B945" s="29"/>
+      <c r="B945" s="30"/>
     </row>
     <row r="946">
-      <c r="B946" s="29"/>
+      <c r="B946" s="30"/>
     </row>
     <row r="947">
-      <c r="B947" s="29"/>
+      <c r="B947" s="30"/>
     </row>
     <row r="948">
-      <c r="B948" s="29"/>
+      <c r="B948" s="30"/>
     </row>
     <row r="949">
-      <c r="B949" s="29"/>
+      <c r="B949" s="30"/>
     </row>
     <row r="950">
-      <c r="B950" s="29"/>
+      <c r="B950" s="30"/>
     </row>
     <row r="951">
-      <c r="B951" s="29"/>
+      <c r="B951" s="30"/>
     </row>
     <row r="952">
-      <c r="B952" s="29"/>
+      <c r="B952" s="30"/>
     </row>
     <row r="953">
-      <c r="B953" s="29"/>
+      <c r="B953" s="30"/>
     </row>
     <row r="954">
-      <c r="B954" s="29"/>
+      <c r="B954" s="30"/>
     </row>
     <row r="955">
-      <c r="B955" s="29"/>
+      <c r="B955" s="30"/>
     </row>
     <row r="956">
-      <c r="B956" s="29"/>
+      <c r="B956" s="30"/>
     </row>
     <row r="957">
-      <c r="B957" s="29"/>
+      <c r="B957" s="30"/>
     </row>
     <row r="958">
-      <c r="B958" s="29"/>
+      <c r="B958" s="30"/>
     </row>
     <row r="959">
-      <c r="B959" s="29"/>
+      <c r="B959" s="30"/>
     </row>
     <row r="960">
-      <c r="B960" s="29"/>
+      <c r="B960" s="30"/>
     </row>
     <row r="961">
-      <c r="B961" s="29"/>
+      <c r="B961" s="30"/>
     </row>
     <row r="962">
-      <c r="B962" s="29"/>
+      <c r="B962" s="30"/>
     </row>
     <row r="963">
-      <c r="B963" s="29"/>
+      <c r="B963" s="30"/>
     </row>
     <row r="964">
-      <c r="B964" s="29"/>
+      <c r="B964" s="30"/>
     </row>
     <row r="965">
-      <c r="B965" s="29"/>
+      <c r="B965" s="30"/>
     </row>
     <row r="966">
-      <c r="B966" s="29"/>
+      <c r="B966" s="30"/>
     </row>
     <row r="967">
-      <c r="B967" s="29"/>
+      <c r="B967" s="30"/>
     </row>
     <row r="968">
-      <c r="B968" s="29"/>
+      <c r="B968" s="30"/>
     </row>
     <row r="969">
-      <c r="B969" s="29"/>
+      <c r="B969" s="30"/>
     </row>
     <row r="970">
-      <c r="B970" s="29"/>
+      <c r="B970" s="30"/>
     </row>
     <row r="971">
-      <c r="B971" s="29"/>
+      <c r="B971" s="30"/>
     </row>
     <row r="972">
-      <c r="B972" s="29"/>
+      <c r="B972" s="30"/>
     </row>
     <row r="973">
-      <c r="B973" s="29"/>
+      <c r="B973" s="30"/>
     </row>
     <row r="974">
-      <c r="B974" s="29"/>
+      <c r="B974" s="30"/>
     </row>
     <row r="975">
-      <c r="B975" s="29"/>
+      <c r="B975" s="30"/>
     </row>
     <row r="976">
-      <c r="B976" s="29"/>
+      <c r="B976" s="30"/>
     </row>
     <row r="977">
-      <c r="B977" s="29"/>
+      <c r="B977" s="30"/>
     </row>
     <row r="978">
-      <c r="B978" s="29"/>
+      <c r="B978" s="30"/>
     </row>
     <row r="979">
-      <c r="B979" s="29"/>
+      <c r="B979" s="30"/>
     </row>
     <row r="980">
-      <c r="B980" s="29"/>
+      <c r="B980" s="30"/>
     </row>
     <row r="981">
-      <c r="B981" s="29"/>
+      <c r="B981" s="30"/>
     </row>
     <row r="982">
-      <c r="B982" s="29"/>
+      <c r="B982" s="30"/>
     </row>
     <row r="983">
-      <c r="B983" s="29"/>
+      <c r="B983" s="30"/>
     </row>
     <row r="984">
-      <c r="B984" s="29"/>
+      <c r="B984" s="30"/>
     </row>
     <row r="985">
-      <c r="B985" s="29"/>
+      <c r="B985" s="30"/>
     </row>
     <row r="986">
-      <c r="B986" s="29"/>
+      <c r="B986" s="30"/>
     </row>
     <row r="987">
-      <c r="B987" s="29"/>
+      <c r="B987" s="30"/>
     </row>
     <row r="988">
-      <c r="B988" s="29"/>
+      <c r="B988" s="30"/>
     </row>
     <row r="989">
-      <c r="B989" s="29"/>
+      <c r="B989" s="30"/>
     </row>
     <row r="990">
-      <c r="B990" s="29"/>
+      <c r="B990" s="30"/>
     </row>
     <row r="991">
-      <c r="B991" s="29"/>
+      <c r="B991" s="30"/>
     </row>
     <row r="992">
-      <c r="B992" s="29"/>
+      <c r="B992" s="30"/>
     </row>
     <row r="993">
-      <c r="B993" s="29"/>
+      <c r="B993" s="30"/>
     </row>
     <row r="994">
-      <c r="B994" s="29"/>
+      <c r="B994" s="30"/>
     </row>
     <row r="995">
-      <c r="B995" s="29"/>
+      <c r="B995" s="30"/>
     </row>
     <row r="996">
-      <c r="B996" s="29"/>
+      <c r="B996" s="30"/>
     </row>
     <row r="997">
-      <c r="B997" s="29"/>
+      <c r="B997" s="30"/>
     </row>
     <row r="998">
-      <c r="B998" s="29"/>
+      <c r="B998" s="30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -23075,7 +23097,7 @@
       <c r="B2" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
         <v>444</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -23089,7 +23111,7 @@
       <c r="B3" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="19" t="s">
         <v>446</v>
       </c>
     </row>
@@ -23100,7 +23122,7 @@
       <c r="B4" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="19" t="s">
         <v>448</v>
       </c>
     </row>
@@ -23111,7 +23133,7 @@
       <c r="B5" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="19" t="s">
         <v>450</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -23125,7 +23147,7 @@
       <c r="B6" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="19" t="s">
         <v>452</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -23139,7 +23161,7 @@
       <c r="B7" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="19" t="s">
         <v>454</v>
       </c>
     </row>
@@ -23150,7 +23172,7 @@
       <c r="B8" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="19" t="s">
         <v>456</v>
       </c>
     </row>
@@ -23161,7 +23183,7 @@
       <c r="B9" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="19" t="s">
         <v>458</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -23175,7 +23197,7 @@
       <c r="B10" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="19" t="s">
         <v>460</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -23189,7 +23211,7 @@
       <c r="B11" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="19" t="s">
         <v>462</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -23203,7 +23225,7 @@
       <c r="B12" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="19" t="s">
         <v>464</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -23301,19 +23323,25 @@
       <c r="B19" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="23" t="s">
         <v>479</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="E20" s="7" t="s">
         <v>482</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="21">
@@ -23321,6 +23349,7 @@
     </row>
     <row r="22">
       <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23">
       <c r="B23" s="18"/>
@@ -26242,7 +26271,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -26254,7 +26283,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -26263,7 +26292,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -26272,7 +26301,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -26284,7 +26313,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -26296,7 +26325,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -26305,7 +26334,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -26314,7 +26343,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -26326,7 +26355,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -26338,7 +26367,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -26350,7 +26379,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -26386,7 +26415,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C15" s="20"/>
       <c r="E15" s="7" t="s">
@@ -26398,7 +26427,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C16" s="20"/>
       <c r="E16" s="7" t="s">
@@ -29361,7 +29390,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -29373,7 +29402,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -29382,7 +29411,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -29391,7 +29420,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -29403,7 +29432,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -29415,7 +29444,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -29424,7 +29453,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -29433,7 +29462,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -29445,7 +29474,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -29457,7 +29486,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -29469,7 +29498,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -29505,7 +29534,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C15" s="20"/>
       <c r="E15" s="7" t="s">
@@ -29517,7 +29546,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C16" s="20"/>
       <c r="E16" s="7" t="s">
@@ -29541,7 +29570,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C18" s="20"/>
       <c r="E18" s="7" t="s">
@@ -32480,7 +32509,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -32492,7 +32521,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -32501,7 +32530,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -32510,7 +32539,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -32522,7 +32551,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -32534,7 +32563,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -32543,7 +32572,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -32552,7 +32581,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -32564,7 +32593,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -32576,7 +32605,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -32588,7 +32617,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -32624,7 +32653,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C15" s="20"/>
       <c r="E15" s="7" t="s">
@@ -32636,7 +32665,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C16" s="20"/>
       <c r="E16" s="7" t="s">
